--- a/data/pca/keyFactor/keyFactor_2014-06-02.xlsx
+++ b/data/pca/keyFactor/keyFactor_2014-06-02.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E253"/>
+  <dimension ref="A1:E505"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,4286 +417,8570 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>41432</v>
+        <v>41073</v>
       </c>
       <c r="B2">
-        <v>1.001615433515684</v>
+        <v>0.9999347300325745</v>
       </c>
       <c r="C2">
-        <v>0.999558747042389</v>
+        <v>0.9997064148502897</v>
       </c>
       <c r="D2">
-        <v>1.000085568120114</v>
+        <v>1.000165845646548</v>
       </c>
       <c r="E2">
-        <v>1.000089009062264</v>
+        <v>1.000139279141927</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>41435</v>
+        <v>41074</v>
       </c>
       <c r="B3">
-        <v>1.001493362325921</v>
+        <v>0.9985184309702816</v>
       </c>
       <c r="C3">
-        <v>0.9996036656101017</v>
+        <v>0.9996578223303676</v>
       </c>
       <c r="D3">
-        <v>1.000081982562057</v>
+        <v>1.00044030068939</v>
       </c>
       <c r="E3">
-        <v>1.000628159215983</v>
+        <v>0.9998610206596297</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>41436</v>
+        <v>41075</v>
       </c>
       <c r="B4">
-        <v>1.002935291120503</v>
+        <v>1.000104613599294</v>
       </c>
       <c r="C4">
-        <v>0.9999557978504723</v>
+        <v>0.999209350829399</v>
       </c>
       <c r="D4">
-        <v>0.9999214430959072</v>
+        <v>0.9996646581774226</v>
       </c>
       <c r="E4">
-        <v>1.000929651301385</v>
+        <v>1.000125227836146</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>41437</v>
+        <v>41078</v>
       </c>
       <c r="B5">
-        <v>1.002716453505353</v>
+        <v>0.9999747518104904</v>
       </c>
       <c r="C5">
-        <v>1.000829676865565</v>
+        <v>0.9983089849818692</v>
       </c>
       <c r="D5">
-        <v>0.9994796729487414</v>
+        <v>0.9994405029041323</v>
       </c>
       <c r="E5">
-        <v>1.000939766557819</v>
+        <v>0.9997847572913711</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>41438</v>
+        <v>41079</v>
       </c>
       <c r="B6">
-        <v>1.002340622958017</v>
+        <v>0.9985263500391549</v>
       </c>
       <c r="C6">
-        <v>0.9995704344289225</v>
+        <v>0.9980779050699421</v>
       </c>
       <c r="D6">
-        <v>0.9993678818571744</v>
+        <v>0.998352550918624</v>
       </c>
       <c r="E6">
-        <v>1.000817686023561</v>
+        <v>0.9994831603538511</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>41439</v>
+        <v>41080</v>
       </c>
       <c r="B7">
-        <v>1.002967087568976</v>
+        <v>1.000114810257712</v>
       </c>
       <c r="C7">
-        <v>1.000167074026262</v>
+        <v>0.9986014968875584</v>
       </c>
       <c r="D7">
-        <v>0.9992216654003379</v>
+        <v>0.9987478104989583</v>
       </c>
       <c r="E7">
-        <v>1.000932320207517</v>
+        <v>0.9992063192817318</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>41442</v>
+        <v>41081</v>
       </c>
       <c r="B8">
-        <v>1.002633306817552</v>
+        <v>0.9986975369789601</v>
       </c>
       <c r="C8">
-        <v>0.9995742187814627</v>
+        <v>1.000786723308548</v>
       </c>
       <c r="D8">
-        <v>0.9995860530719073</v>
+        <v>1.000459647185548</v>
       </c>
       <c r="E8">
-        <v>1.001004127112151</v>
+        <v>0.999782369432291</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>41443</v>
+        <v>41082</v>
       </c>
       <c r="B9">
-        <v>1.003488532072168</v>
+        <v>0.9986584544657406</v>
       </c>
       <c r="C9">
-        <v>0.9987745873257756</v>
+        <v>1.000949781943768</v>
       </c>
       <c r="D9">
-        <v>0.9996640626910356</v>
+        <v>1.000149129951581</v>
       </c>
       <c r="E9">
-        <v>1.001445853161922</v>
+        <v>0.9994741921419346</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41444</v>
+        <v>41085</v>
       </c>
       <c r="B10">
-        <v>1.004364455480041</v>
+        <v>0.9985808181373464</v>
       </c>
       <c r="C10">
-        <v>0.9991324941554995</v>
+        <v>1.000975328997239</v>
       </c>
       <c r="D10">
-        <v>0.9997969242991827</v>
+        <v>1.001767223729016</v>
       </c>
       <c r="E10">
-        <v>1.001078763343821</v>
+        <v>0.9991929991202037</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41445</v>
+        <v>41086</v>
       </c>
       <c r="B11">
-        <v>1.007144730015631</v>
+        <v>1.000249551469652</v>
       </c>
       <c r="C11">
-        <v>1.00026781845114</v>
+        <v>1.001417613017922</v>
       </c>
       <c r="D11">
-        <v>0.9992632956156605</v>
+        <v>1.001444919527931</v>
       </c>
       <c r="E11">
-        <v>1.000447243067885</v>
+        <v>0.9989370407509046</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41446</v>
+        <v>41087</v>
       </c>
       <c r="B12">
-        <v>1.006511055685422</v>
+        <v>0.9988105986677495</v>
       </c>
       <c r="C12">
-        <v>1.000465218550759</v>
+        <v>1.001205639606418</v>
       </c>
       <c r="D12">
-        <v>0.9992666487024537</v>
+        <v>1.000791542672454</v>
       </c>
       <c r="E12">
-        <v>1.000696087839337</v>
+        <v>0.9989900529042192</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41449</v>
+        <v>41088</v>
       </c>
       <c r="B13">
-        <v>1.008143922582056</v>
+        <v>0.9988763950085094</v>
       </c>
       <c r="C13">
-        <v>1.001358358834022</v>
+        <v>1.001622429163331</v>
       </c>
       <c r="D13">
-        <v>0.9985064563709356</v>
+        <v>1.000166619007622</v>
       </c>
       <c r="E13">
-        <v>1.000504378401825</v>
+        <v>0.9987922179714294</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41450</v>
+        <v>41089</v>
       </c>
       <c r="B14">
-        <v>1.007718819359167</v>
+        <v>1.00040451123864</v>
       </c>
       <c r="C14">
-        <v>1.00011962121958</v>
+        <v>1.000408830908941</v>
       </c>
       <c r="D14">
-        <v>0.9986185626856642</v>
+        <v>1.000014251233696</v>
       </c>
       <c r="E14">
-        <v>1.000366189091729</v>
+        <v>0.9965207692674918</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41451</v>
+        <v>41092</v>
       </c>
       <c r="B15">
-        <v>1.009428193883596</v>
+        <v>1.000360455986315</v>
       </c>
       <c r="C15">
-        <v>0.9997643620535608</v>
+        <v>1.000403680236423</v>
       </c>
       <c r="D15">
-        <v>0.9985270640846107</v>
+        <v>1.000071491792843</v>
       </c>
       <c r="E15">
-        <v>1.00114687683759</v>
+        <v>0.9965368375181876</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>41452</v>
+        <v>41093</v>
       </c>
       <c r="B16">
-        <v>1.008636963306161</v>
+        <v>1.000351292713094</v>
       </c>
       <c r="C16">
-        <v>0.9996691444233329</v>
+        <v>0.9982973792896057</v>
       </c>
       <c r="D16">
-        <v>0.9989551096525551</v>
+        <v>0.9992834379071331</v>
       </c>
       <c r="E16">
-        <v>1.001052469457178</v>
+        <v>0.9959735139027903</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>41453</v>
+        <v>41094</v>
       </c>
       <c r="B17">
-        <v>1.006108132897621</v>
+        <v>0.9988866988310436</v>
       </c>
       <c r="C17">
-        <v>1.000686151214412</v>
+        <v>0.9981726960241765</v>
       </c>
       <c r="D17">
-        <v>1.001358039279342</v>
+        <v>0.9986450246560186</v>
       </c>
       <c r="E17">
-        <v>1.000359906152867</v>
+        <v>0.9957790340933949</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>41456</v>
+        <v>41095</v>
       </c>
       <c r="B18">
-        <v>1.006099466580063</v>
+        <v>0.9987763594040763</v>
       </c>
       <c r="C18">
-        <v>1.000739929044386</v>
+        <v>0.9987792143905556</v>
       </c>
       <c r="D18">
-        <v>1.001323309034944</v>
+        <v>0.999132370782631</v>
       </c>
       <c r="E18">
-        <v>1.000394788029546</v>
+        <v>0.9964721739280706</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>41457</v>
+        <v>41096</v>
       </c>
       <c r="B19">
-        <v>1.007026727802751</v>
+        <v>0.9987751020332564</v>
       </c>
       <c r="C19">
-        <v>1.000378858786805</v>
+        <v>1.000136979268765</v>
       </c>
       <c r="D19">
-        <v>1.00243172124544</v>
+        <v>0.9997762705842804</v>
       </c>
       <c r="E19">
-        <v>1.000431335928054</v>
+        <v>0.9973130029722689</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>41458</v>
+        <v>41099</v>
       </c>
       <c r="B20">
-        <v>1.006603049937548</v>
+        <v>0.998704812252474</v>
       </c>
       <c r="C20">
-        <v>1.000862285830328</v>
+        <v>1.000435142457695</v>
       </c>
       <c r="D20">
-        <v>1.002236387574108</v>
+        <v>1.000271981849607</v>
       </c>
       <c r="E20">
-        <v>1.00063073852322</v>
+        <v>0.9969569846891182</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>41459</v>
+        <v>41100</v>
       </c>
       <c r="B21">
-        <v>1.006626786411649</v>
+        <v>0.9986535594055024</v>
       </c>
       <c r="C21">
-        <v>1.000755188669225</v>
+        <v>1.001776124840438</v>
       </c>
       <c r="D21">
-        <v>1.002234608265143</v>
+        <v>1.000823196999455</v>
       </c>
       <c r="E21">
-        <v>1.000513597412123</v>
+        <v>0.9967123413047106</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>41460</v>
+        <v>41101</v>
       </c>
       <c r="B22">
-        <v>1.007481883490514</v>
+        <v>0.9986587728524752</v>
       </c>
       <c r="C22">
-        <v>1.000993516615304</v>
+        <v>1.002192757698439</v>
       </c>
       <c r="D22">
-        <v>1.002283306773947</v>
+        <v>1.000030157617783</v>
       </c>
       <c r="E22">
-        <v>1.000604718601833</v>
+        <v>0.9966510399233424</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>41463</v>
+        <v>41102</v>
       </c>
       <c r="B23">
-        <v>1.00766373563322</v>
+        <v>0.9986009218927913</v>
       </c>
       <c r="C23">
-        <v>1.000378754588108</v>
+        <v>1.002823043109746</v>
       </c>
       <c r="D23">
-        <v>1.002499018120467</v>
+        <v>1.00102604637812</v>
       </c>
       <c r="E23">
-        <v>1.000746700965234</v>
+        <v>0.996980627407878</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>41464</v>
+        <v>41103</v>
       </c>
       <c r="B24">
-        <v>1.007194065972541</v>
+        <v>0.9985528030276974</v>
       </c>
       <c r="C24">
-        <v>0.999919213994287</v>
+        <v>1.002115132734723</v>
       </c>
       <c r="D24">
-        <v>1.002777461951295</v>
+        <v>1.000565230004344</v>
       </c>
       <c r="E24">
-        <v>1.001622651095219</v>
+        <v>0.9964996455615355</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>41465</v>
+        <v>41106</v>
       </c>
       <c r="B25">
-        <v>1.007089979698846</v>
+        <v>0.9985709391449386</v>
       </c>
       <c r="C25">
-        <v>1.000046855865937</v>
+        <v>1.002269498788952</v>
       </c>
       <c r="D25">
-        <v>1.003102028046017</v>
+        <v>1.000645755346978</v>
       </c>
       <c r="E25">
-        <v>1.001052641763236</v>
+        <v>0.9961316635885128</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>41466</v>
+        <v>41107</v>
       </c>
       <c r="B26">
-        <v>1.004760456968503</v>
+        <v>0.9985874777270394</v>
       </c>
       <c r="C26">
-        <v>0.9996359401644852</v>
+        <v>1.002664529166883</v>
       </c>
       <c r="D26">
-        <v>1.003341923175876</v>
+        <v>1.000259933000189</v>
       </c>
       <c r="E26">
-        <v>1.001219265732119</v>
+        <v>0.9959060570309489</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>41467</v>
+        <v>41108</v>
       </c>
       <c r="B27">
-        <v>1.005491948464362</v>
+        <v>0.9985672672183254</v>
       </c>
       <c r="C27">
-        <v>0.9997924061004393</v>
+        <v>1.002958176763224</v>
       </c>
       <c r="D27">
-        <v>1.00328927314058</v>
+        <v>0.9999686850457219</v>
       </c>
       <c r="E27">
-        <v>1.001049127723345</v>
+        <v>0.9958826715412996</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>41470</v>
+        <v>41109</v>
       </c>
       <c r="B28">
-        <v>1.005266509721374</v>
+        <v>0.9968541325941043</v>
       </c>
       <c r="C28">
-        <v>0.9993291388765724</v>
+        <v>1.002253095247528</v>
       </c>
       <c r="D28">
-        <v>1.00320969093457</v>
+        <v>0.9995345246648896</v>
       </c>
       <c r="E28">
-        <v>1.001073530765697</v>
+        <v>0.9956881342083366</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>41471</v>
+        <v>41110</v>
       </c>
       <c r="B29">
-        <v>1.003661050831916</v>
+        <v>0.996799957377196</v>
       </c>
       <c r="C29">
-        <v>1.000195452172003</v>
+        <v>1.002330779273445</v>
       </c>
       <c r="D29">
-        <v>1.003175701229651</v>
+        <v>1.000164486774774</v>
       </c>
       <c r="E29">
-        <v>1.00135989191659</v>
+        <v>0.9956731718953179</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>41472</v>
+        <v>41113</v>
       </c>
       <c r="B30">
-        <v>1.004386759487</v>
+        <v>1.021310124919167</v>
       </c>
       <c r="C30">
-        <v>0.9996882836515188</v>
+        <v>1.002550623254779</v>
       </c>
       <c r="D30">
-        <v>1.003231465702913</v>
+        <v>1.000438343611558</v>
       </c>
       <c r="E30">
-        <v>1.00149807830412</v>
+        <v>0.9958476286969761</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>41473</v>
+        <v>41114</v>
       </c>
       <c r="B31">
-        <v>1.004580216929386</v>
+        <v>1.017745509811965</v>
       </c>
       <c r="C31">
-        <v>0.9992939279714244</v>
+        <v>1.002842923764773</v>
       </c>
       <c r="D31">
-        <v>1.003542020315946</v>
+        <v>1.001141303683148</v>
       </c>
       <c r="E31">
-        <v>1.001270610819995</v>
+        <v>0.9962716022986341</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>41474</v>
+        <v>41115</v>
       </c>
       <c r="B32">
-        <v>1.003315417856353</v>
+        <v>1.017667814996701</v>
       </c>
       <c r="C32">
-        <v>0.9995325183111755</v>
+        <v>1.002239658008538</v>
       </c>
       <c r="D32">
-        <v>1.003565143519816</v>
+        <v>1.00178507626106</v>
       </c>
       <c r="E32">
-        <v>1.001250682295793</v>
+        <v>0.9962240502789103</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>41477</v>
+        <v>41116</v>
       </c>
       <c r="B33">
-        <v>1.001083238542454</v>
+        <v>1.020276123259813</v>
       </c>
       <c r="C33">
-        <v>0.9997812713082425</v>
+        <v>1.000801962187826</v>
       </c>
       <c r="D33">
-        <v>1.003283575464124</v>
+        <v>1.001050752465034</v>
       </c>
       <c r="E33">
-        <v>1.001509455494576</v>
+        <v>0.9960224274312396</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>41478</v>
+        <v>41117</v>
       </c>
       <c r="B34">
-        <v>1.000205501035031</v>
+        <v>1.020200684692668</v>
       </c>
       <c r="C34">
-        <v>0.9999741980462085</v>
+        <v>1.00005711541794</v>
       </c>
       <c r="D34">
-        <v>1.003364090646</v>
+        <v>1.000093916872165</v>
       </c>
       <c r="E34">
-        <v>1.001533073781941</v>
+        <v>0.9962423681638409</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>41479</v>
+        <v>41120</v>
       </c>
       <c r="B35">
-        <v>1.001716225660101</v>
+        <v>1.020843234210286</v>
       </c>
       <c r="C35">
-        <v>0.999823909529289</v>
+        <v>0.9997617677520948</v>
       </c>
       <c r="D35">
-        <v>1.003387664590007</v>
+        <v>1.000474775990013</v>
       </c>
       <c r="E35">
-        <v>1.001416256697633</v>
+        <v>0.9961325383958777</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>41480</v>
+        <v>41121</v>
       </c>
       <c r="B36">
-        <v>1.001499717439781</v>
+        <v>1.020140998816418</v>
       </c>
       <c r="C36">
-        <v>0.9998923413238936</v>
+        <v>1.00059072214421</v>
       </c>
       <c r="D36">
-        <v>1.003282057146463</v>
+        <v>1.000995949154568</v>
       </c>
       <c r="E36">
-        <v>1.001429891190216</v>
+        <v>0.996218583155682</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>41481</v>
+        <v>41122</v>
       </c>
       <c r="B37">
-        <v>1.001028549090431</v>
+        <v>1.020836662743638</v>
       </c>
       <c r="C37">
-        <v>1.000085992893215</v>
+        <v>1.000964587910544</v>
       </c>
       <c r="D37">
-        <v>1.003332465196824</v>
+        <v>1.000875914149773</v>
       </c>
       <c r="E37">
-        <v>1.001472541825043</v>
+        <v>0.9961603635149981</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>41484</v>
+        <v>41123</v>
       </c>
       <c r="B38">
-        <v>1.001222178159068</v>
+        <v>1.020801214486933</v>
       </c>
       <c r="C38">
-        <v>1.000190830883012</v>
+        <v>1.001625998979123</v>
       </c>
       <c r="D38">
-        <v>1.003648507648361</v>
+        <v>1.001569563246519</v>
       </c>
       <c r="E38">
-        <v>1.00171059931746</v>
+        <v>0.9962223568101967</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>41485</v>
+        <v>41124</v>
       </c>
       <c r="B39">
-        <v>1.001557351000628</v>
+        <v>1.020059789626454</v>
       </c>
       <c r="C39">
-        <v>1.000425188450585</v>
+        <v>1.000713638529678</v>
       </c>
       <c r="D39">
-        <v>1.003469274387576</v>
+        <v>1.000688339150845</v>
       </c>
       <c r="E39">
-        <v>1.001445691695307</v>
+        <v>0.9957959419058613</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>41486</v>
+        <v>41127</v>
       </c>
       <c r="B40">
-        <v>1.002217397544289</v>
+        <v>1.020014619236277</v>
       </c>
       <c r="C40">
-        <v>1.000734187625291</v>
+        <v>1.000711775394419</v>
       </c>
       <c r="D40">
-        <v>1.002995085281557</v>
+        <v>1.000751604452712</v>
       </c>
       <c r="E40">
-        <v>1.00079758086741</v>
+        <v>0.9958157509934642</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>41487</v>
+        <v>41128</v>
       </c>
       <c r="B41">
-        <v>1.002768554832666</v>
+        <v>1.018476819260307</v>
       </c>
       <c r="C41">
-        <v>0.9992974940909871</v>
+        <v>0.9991642547854269</v>
       </c>
       <c r="D41">
-        <v>1.00321395907279</v>
+        <v>0.9996572895359924</v>
       </c>
       <c r="E41">
-        <v>1.000286485801809</v>
+        <v>0.99587545497907</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>41488</v>
+        <v>41129</v>
       </c>
       <c r="B42">
-        <v>1.003143660149419</v>
+        <v>1.018434769877308</v>
       </c>
       <c r="C42">
-        <v>0.9990943930254063</v>
+        <v>0.9996647970121436</v>
       </c>
       <c r="D42">
-        <v>1.002923907904291</v>
+        <v>0.999832809149962</v>
       </c>
       <c r="E42">
-        <v>1.000176021027981</v>
+        <v>0.9963097520862032</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>41491</v>
+        <v>41130</v>
       </c>
       <c r="B43">
-        <v>1.003137764790466</v>
+        <v>1.02001958209822</v>
       </c>
       <c r="C43">
-        <v>0.999151523713132</v>
+        <v>0.9990710370296533</v>
       </c>
       <c r="D43">
-        <v>1.002885384749411</v>
+        <v>0.9994713811700195</v>
       </c>
       <c r="E43">
-        <v>1.000204926415594</v>
+        <v>0.9963714535736585</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>41492</v>
+        <v>41131</v>
       </c>
       <c r="B44">
-        <v>1.00492049384758</v>
+        <v>1.019964675907993</v>
       </c>
       <c r="C44">
-        <v>0.999145308153221</v>
+        <v>0.9986676233250497</v>
       </c>
       <c r="D44">
-        <v>1.002157273601842</v>
+        <v>0.9991941380448179</v>
       </c>
       <c r="E44">
-        <v>1.000488817456992</v>
+        <v>0.9969434966457869</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>41493</v>
+        <v>41134</v>
       </c>
       <c r="B45">
-        <v>1.004943185715361</v>
+        <v>1.019927871374321</v>
       </c>
       <c r="C45">
-        <v>0.9996390449669211</v>
+        <v>0.9991404149604846</v>
       </c>
       <c r="D45">
-        <v>1.002212084042804</v>
+        <v>0.9994334925745877</v>
       </c>
       <c r="E45">
-        <v>1.000248976697313</v>
+        <v>0.9967868345346009</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>41494</v>
+        <v>41135</v>
       </c>
       <c r="B46">
-        <v>1.002289779862059</v>
+        <v>1.019166563684076</v>
       </c>
       <c r="C46">
-        <v>0.999368237386659</v>
+        <v>0.9993970551826373</v>
       </c>
       <c r="D46">
-        <v>1.00226471457477</v>
+        <v>0.9995419548054513</v>
       </c>
       <c r="E46">
-        <v>0.9999320036712672</v>
+        <v>0.9961158306550355</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>41495</v>
+        <v>41136</v>
       </c>
       <c r="B47">
-        <v>1.001775597908575</v>
+        <v>1.019110589664773</v>
       </c>
       <c r="C47">
-        <v>0.9992799770101174</v>
+        <v>0.9992162935060085</v>
       </c>
       <c r="D47">
-        <v>1.001632484194611</v>
+        <v>0.9995025120904478</v>
       </c>
       <c r="E47">
-        <v>0.9997062694725107</v>
+        <v>0.9960372968356921</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>41498</v>
+        <v>41137</v>
       </c>
       <c r="B48">
-        <v>0.9999486301968915</v>
+        <v>1.019779320914745</v>
       </c>
       <c r="C48">
-        <v>0.9990999142891865</v>
+        <v>0.9978534572080892</v>
       </c>
       <c r="D48">
-        <v>1.000611618055751</v>
+        <v>0.9993080912702553</v>
       </c>
       <c r="E48">
-        <v>0.999996589091631</v>
+        <v>0.9959642730837934</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>41499</v>
+        <v>41138</v>
       </c>
       <c r="B49">
-        <v>1.000300598268996</v>
+        <v>1.018290008907709</v>
       </c>
       <c r="C49">
-        <v>0.9986646831928535</v>
+        <v>0.9976369531091558</v>
       </c>
       <c r="D49">
-        <v>1.000588247812463</v>
+        <v>0.9991032548342567</v>
       </c>
       <c r="E49">
-        <v>0.9999759120717415</v>
+        <v>0.99578367561298</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>41500</v>
+        <v>41141</v>
       </c>
       <c r="B50">
-        <v>0.9989654915339604</v>
+        <v>1.019078925372732</v>
       </c>
       <c r="C50">
-        <v>0.999180332076525</v>
+        <v>0.9974547107448051</v>
       </c>
       <c r="D50">
-        <v>1.000206307522288</v>
+        <v>0.9994418622300486</v>
       </c>
       <c r="E50">
-        <v>0.9998388726814768</v>
+        <v>0.9956761829031231</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>41501</v>
+        <v>41142</v>
       </c>
       <c r="B51">
-        <v>0.9969046825888933</v>
+        <v>1.018243368618379</v>
       </c>
       <c r="C51">
-        <v>0.9997933129916714</v>
+        <v>0.9968239074920278</v>
       </c>
       <c r="D51">
-        <v>1.00011401398938</v>
+        <v>0.9995158628690861</v>
       </c>
       <c r="E51">
-        <v>0.9996110168333248</v>
+        <v>0.995414770991795</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>41502</v>
+        <v>41143</v>
       </c>
       <c r="B52">
-        <v>0.9972513785652128</v>
+        <v>1.018187620153632</v>
       </c>
       <c r="C52">
-        <v>0.9997098485307161</v>
+        <v>0.9960048964206388</v>
       </c>
       <c r="D52">
-        <v>1.000564635393128</v>
+        <v>1.000015803584314</v>
       </c>
       <c r="E52">
-        <v>0.9993973135902872</v>
+        <v>0.9954485803517324</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>41505</v>
+        <v>41144</v>
       </c>
       <c r="B53">
-        <v>0.997782922944298</v>
+        <v>1.017286584581093</v>
       </c>
       <c r="C53">
-        <v>1.000746260114189</v>
+        <v>0.9960454966393069</v>
       </c>
       <c r="D53">
-        <v>1.000167561064528</v>
+        <v>1.000534913867939</v>
       </c>
       <c r="E53">
-        <v>0.9991107685060792</v>
+        <v>0.9956643488080483</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>41506</v>
+        <v>41145</v>
       </c>
       <c r="B54">
-        <v>0.9966825828850414</v>
+        <v>1.017242095826525</v>
       </c>
       <c r="C54">
-        <v>1.000591084506643</v>
+        <v>0.9961438426947503</v>
       </c>
       <c r="D54">
-        <v>1.00003586431488</v>
+        <v>1.000628414726004</v>
       </c>
       <c r="E54">
-        <v>0.9991390567794239</v>
+        <v>0.9954830302659006</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>41507</v>
+        <v>41148</v>
       </c>
       <c r="B55">
-        <v>0.9978873951840758</v>
+        <v>1.017236468243337</v>
       </c>
       <c r="C55">
-        <v>1.001012698130292</v>
+        <v>0.996518097019673</v>
       </c>
       <c r="D55">
-        <v>0.9999210167294494</v>
+        <v>1.000670534694857</v>
       </c>
       <c r="E55">
-        <v>0.9990088090617393</v>
+        <v>0.9956777278978771</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>41508</v>
+        <v>41149</v>
       </c>
       <c r="B56">
-        <v>0.9969164934177313</v>
+        <v>1.017178033538137</v>
       </c>
       <c r="C56">
-        <v>1.000373264716107</v>
+        <v>0.9967380947129303</v>
       </c>
       <c r="D56">
-        <v>1.000172204026746</v>
+        <v>1.001036059525362</v>
       </c>
       <c r="E56">
-        <v>0.9993490806079121</v>
+        <v>0.9957072589809679</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>41509</v>
+        <v>41150</v>
       </c>
       <c r="B57">
-        <v>0.9959580321963544</v>
+        <v>1.016234799419851</v>
       </c>
       <c r="C57">
-        <v>1.000240875754148</v>
+        <v>0.9969839394777759</v>
       </c>
       <c r="D57">
-        <v>1.00009631333883</v>
+        <v>1.001146332366077</v>
       </c>
       <c r="E57">
-        <v>0.9993374793872406</v>
+        <v>0.9955891570354296</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>41512</v>
+        <v>41151</v>
       </c>
       <c r="B58">
-        <v>0.995537490317449</v>
+        <v>1.017208493695476</v>
       </c>
       <c r="C58">
-        <v>1.000491851532572</v>
+        <v>0.9975270564774935</v>
       </c>
       <c r="D58">
-        <v>0.9999328334123504</v>
+        <v>1.002060670592997</v>
       </c>
       <c r="E58">
-        <v>0.9993856507535046</v>
+        <v>0.9956775618848875</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>41513</v>
+        <v>41152</v>
       </c>
       <c r="B59">
-        <v>0.9970969879539242</v>
+        <v>1.018033337155687</v>
       </c>
       <c r="C59">
-        <v>1.001588217740328</v>
+        <v>0.9964374872184947</v>
       </c>
       <c r="D59">
-        <v>0.9999803792471672</v>
+        <v>1.00244851296457</v>
       </c>
       <c r="E59">
-        <v>0.999774779372907</v>
+        <v>0.9955938771916699</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>41514</v>
+        <v>41156</v>
       </c>
       <c r="B60">
-        <v>0.9977137277057154</v>
+        <v>1.019638467017584</v>
       </c>
       <c r="C60">
-        <v>1.001134182775269</v>
+        <v>0.9963191150098122</v>
       </c>
       <c r="D60">
-        <v>0.9998217780444463</v>
+        <v>1.002486114197069</v>
       </c>
       <c r="E60">
-        <v>0.9997248922967437</v>
+        <v>0.9955845768906628</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>41515</v>
+        <v>41157</v>
       </c>
       <c r="B61">
-        <v>0.997464142062103</v>
+        <v>1.019596084427301</v>
       </c>
       <c r="C61">
-        <v>1.000938112864892</v>
+        <v>0.9960918004230283</v>
       </c>
       <c r="D61">
-        <v>0.9998623716165651</v>
+        <v>1.002472110390148</v>
       </c>
       <c r="E61">
-        <v>0.9994507070052634</v>
+        <v>0.9954303126885248</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>41516</v>
+        <v>41158</v>
       </c>
       <c r="B62">
-        <v>0.9978508677827153</v>
+        <v>1.021655250089821</v>
       </c>
       <c r="C62">
-        <v>1.00118237896945</v>
+        <v>0.9951685268345525</v>
       </c>
       <c r="D62">
-        <v>0.9998734246976936</v>
+        <v>1.001550339299211</v>
       </c>
       <c r="E62">
-        <v>0.9991976071617464</v>
+        <v>0.9952863817956453</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>41520</v>
+        <v>41159</v>
       </c>
       <c r="B63">
-        <v>0.9973353880737882</v>
+        <v>1.020364608524655</v>
       </c>
       <c r="C63">
-        <v>1.000858999938106</v>
+        <v>0.9936902355816587</v>
       </c>
       <c r="D63">
-        <v>0.9999557022382795</v>
+        <v>1.000707483806127</v>
       </c>
       <c r="E63">
-        <v>0.9994687278605275</v>
+        <v>0.9956130865677343</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>41521</v>
+        <v>41162</v>
       </c>
       <c r="B64">
-        <v>0.9973043107847996</v>
+        <v>1.018955186200927</v>
       </c>
       <c r="C64">
-        <v>1.000495089008177</v>
+        <v>0.9946041159306875</v>
       </c>
       <c r="D64">
-        <v>0.9995498227289799</v>
+        <v>1.000913308820408</v>
       </c>
       <c r="E64">
-        <v>0.9995097181372293</v>
+        <v>0.9958530680636728</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>41522</v>
+        <v>41163</v>
       </c>
       <c r="B65">
-        <v>0.9982021461109664</v>
+        <v>1.018892202592961</v>
       </c>
       <c r="C65">
-        <v>0.9994233309318636</v>
+        <v>0.9944170824368493</v>
       </c>
       <c r="D65">
-        <v>0.9997146894747785</v>
+        <v>1.000641285643867</v>
       </c>
       <c r="E65">
-        <v>0.9997560792511813</v>
+        <v>0.9962277185494968</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>41523</v>
+        <v>41164</v>
       </c>
       <c r="B66">
-        <v>0.997992118849683</v>
+        <v>1.019613846925199</v>
       </c>
       <c r="C66">
-        <v>0.9999609498393073</v>
+        <v>0.9940157432945305</v>
       </c>
       <c r="D66">
-        <v>0.9997845025521126</v>
+        <v>1.000698249083822</v>
       </c>
       <c r="E66">
-        <v>0.9999585037467291</v>
+        <v>0.9961366428355494</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>41526</v>
+        <v>41165</v>
       </c>
       <c r="B67">
-        <v>0.9983148639189254</v>
+        <v>1.019505200977959</v>
       </c>
       <c r="C67">
-        <v>0.9993577025894195</v>
+        <v>0.9926216174385044</v>
       </c>
       <c r="D67">
-        <v>0.9995016146646811</v>
+        <v>1.000557073445686</v>
       </c>
       <c r="E67">
-        <v>1.000290897530445</v>
+        <v>0.9959132285569539</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>41527</v>
+        <v>41166</v>
       </c>
       <c r="B68">
-        <v>0.9996220397965051</v>
+        <v>1.019394526859707</v>
       </c>
       <c r="C68">
-        <v>0.9992092074848221</v>
+        <v>0.991086694793659</v>
       </c>
       <c r="D68">
-        <v>1.000096541827184</v>
+        <v>1.000246870645869</v>
       </c>
       <c r="E68">
-        <v>1.000078266738949</v>
+        <v>0.9959210818159143</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>41528</v>
+        <v>41169</v>
       </c>
       <c r="B69">
-        <v>0.9995302612031499</v>
+        <v>1.017933357272774</v>
       </c>
       <c r="C69">
-        <v>0.9992848813278148</v>
+        <v>0.9915198317456275</v>
       </c>
       <c r="D69">
-        <v>1.000717197023181</v>
+        <v>1.000969791156981</v>
       </c>
       <c r="E69">
-        <v>0.999705022262154</v>
+        <v>0.9958202385189792</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>41529</v>
+        <v>41170</v>
       </c>
       <c r="B70">
-        <v>1.001293097408789</v>
+        <v>1.017892975169914</v>
       </c>
       <c r="C70">
-        <v>0.9996440946322456</v>
+        <v>0.9915784341935785</v>
       </c>
       <c r="D70">
-        <v>1.000496298181274</v>
+        <v>1.001375828790188</v>
       </c>
       <c r="E70">
-        <v>0.9997586254067895</v>
+        <v>0.9962088259394433</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>41530</v>
+        <v>41171</v>
       </c>
       <c r="B71">
-        <v>1.000640390905677</v>
+        <v>1.018657032814321</v>
       </c>
       <c r="C71">
-        <v>0.9998637290599236</v>
+        <v>0.9912502356311004</v>
       </c>
       <c r="D71">
-        <v>1.000580606884813</v>
+        <v>1.00189975891259</v>
       </c>
       <c r="E71">
-        <v>0.9996345816897793</v>
+        <v>0.9960916490628944</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>41533</v>
+        <v>41172</v>
       </c>
       <c r="B72">
-        <v>1.000705594462305</v>
+        <v>1.018632639099437</v>
       </c>
       <c r="C72">
-        <v>0.9991288269133466</v>
+        <v>0.9915307129186391</v>
       </c>
       <c r="D72">
-        <v>1.000763899108757</v>
+        <v>1.002254511159923</v>
       </c>
       <c r="E72">
-        <v>0.9993876714628032</v>
+        <v>0.9957881945134454</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>41534</v>
+        <v>41173</v>
       </c>
       <c r="B73">
-        <v>1.00022215645112</v>
+        <v>1.018582166108539</v>
       </c>
       <c r="C73">
-        <v>0.9991250589898897</v>
+        <v>0.9915193998235494</v>
       </c>
       <c r="D73">
-        <v>1.000542847595454</v>
+        <v>1.002850471789052</v>
       </c>
       <c r="E73">
-        <v>0.9994047882293926</v>
+        <v>0.9951933948164139</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>41535</v>
+        <v>41176</v>
       </c>
       <c r="B74">
-        <v>0.9977226860372549</v>
+        <v>1.017808221137946</v>
       </c>
       <c r="C74">
-        <v>1.000003770144847</v>
+        <v>0.9926859178415335</v>
       </c>
       <c r="D74">
-        <v>1.000724302851159</v>
+        <v>1.002666745508992</v>
       </c>
       <c r="E74">
-        <v>0.9996691733735698</v>
+        <v>0.9950761712863397</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>41536</v>
+        <v>41177</v>
       </c>
       <c r="B75">
-        <v>0.9984293122177762</v>
+        <v>1.017772068832529</v>
       </c>
       <c r="C75">
-        <v>0.9997068555831525</v>
+        <v>0.9931341805006317</v>
       </c>
       <c r="D75">
-        <v>1.000543790609962</v>
+        <v>1.002707132399172</v>
       </c>
       <c r="E75">
-        <v>0.9995550810184046</v>
+        <v>0.995669778059351</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>41537</v>
+        <v>41178</v>
       </c>
       <c r="B76">
-        <v>1.000427167174687</v>
+        <v>1.018592010094428</v>
       </c>
       <c r="C76">
-        <v>1.000608691742238</v>
+        <v>0.9931202006732506</v>
       </c>
       <c r="D76">
-        <v>1.001975660755583</v>
+        <v>1.00311098900728</v>
       </c>
       <c r="E76">
-        <v>0.9994295393602133</v>
+        <v>0.996383758098032</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>41540</v>
+        <v>41179</v>
       </c>
       <c r="B77">
-        <v>1.001046144811394</v>
+        <v>1.018494218650126</v>
       </c>
       <c r="C77">
-        <v>1.000677949023198</v>
+        <v>0.9920813182914868</v>
       </c>
       <c r="D77">
-        <v>1.002092019393602</v>
+        <v>1.002835753237854</v>
       </c>
       <c r="E77">
-        <v>0.9993521853110324</v>
+        <v>0.9963368282122292</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>41541</v>
+        <v>41180</v>
       </c>
       <c r="B78">
-        <v>1.001009316857517</v>
+        <v>1.018449882429914</v>
       </c>
       <c r="C78">
-        <v>1.00062436654601</v>
+        <v>0.9919873161421997</v>
       </c>
       <c r="D78">
-        <v>1.002516636600673</v>
+        <v>1.002957226359278</v>
       </c>
       <c r="E78">
-        <v>0.9995247269968417</v>
+        <v>0.9972352865880717</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>41542</v>
+        <v>41183</v>
       </c>
       <c r="B79">
-        <v>1.000424524869962</v>
+        <v>1.017624276453001</v>
       </c>
       <c r="C79">
-        <v>1.001136652089845</v>
+        <v>0.991589781213339</v>
       </c>
       <c r="D79">
-        <v>1.002829992547399</v>
+        <v>1.002723185130056</v>
       </c>
       <c r="E79">
-        <v>0.9994459009162321</v>
+        <v>0.9973862651139747</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>41543</v>
+        <v>41184</v>
       </c>
       <c r="B80">
-        <v>1.000952696870063</v>
+        <v>1.017584508355779</v>
       </c>
       <c r="C80">
-        <v>1.000880277855546</v>
+        <v>0.991556109485651</v>
       </c>
       <c r="D80">
-        <v>1.002997136189071</v>
+        <v>1.002356094121802</v>
       </c>
       <c r="E80">
-        <v>0.9995752020965825</v>
+        <v>0.9978546142169099</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>41544</v>
+        <v>41185</v>
       </c>
       <c r="B81">
-        <v>1.000965442847741</v>
+        <v>1.017547767092737</v>
       </c>
       <c r="C81">
-        <v>1.001034692295441</v>
+        <v>0.9917978006312109</v>
       </c>
       <c r="D81">
-        <v>1.002928747578173</v>
+        <v>1.00232516081494</v>
       </c>
       <c r="E81">
-        <v>0.9998748954156832</v>
+        <v>0.9976115258642461</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>41547</v>
+        <v>41186</v>
       </c>
       <c r="B82">
-        <v>1.000924135753723</v>
+        <v>1.017459344094696</v>
       </c>
       <c r="C82">
-        <v>1.0017798840567</v>
+        <v>0.9910098171956324</v>
       </c>
       <c r="D82">
-        <v>1.00295199012407</v>
+        <v>1.002391986631036</v>
       </c>
       <c r="E82">
-        <v>1.000050556037193</v>
+        <v>0.9977033051994553</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>41548</v>
+        <v>41187</v>
       </c>
       <c r="B83">
-        <v>1.001661364517064</v>
+        <v>1.017409900150718</v>
       </c>
       <c r="C83">
-        <v>1.000861404663329</v>
+        <v>0.991417310801457</v>
       </c>
       <c r="D83">
-        <v>1.003131682122152</v>
+        <v>1.00247910774385</v>
       </c>
       <c r="E83">
-        <v>1.000094660740509</v>
+        <v>0.9977736932265966</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>41549</v>
+        <v>41190</v>
       </c>
       <c r="B84">
-        <v>1.00152015707411</v>
+        <v>1.017364808926401</v>
       </c>
       <c r="C84">
-        <v>1.001011900205603</v>
+        <v>0.9914159647347909</v>
       </c>
       <c r="D84">
-        <v>1.002917710889928</v>
+        <v>1.002543405994978</v>
       </c>
       <c r="E84">
-        <v>0.9998166458490008</v>
+        <v>0.9977941183207583</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>41550</v>
+        <v>41191</v>
       </c>
       <c r="B85">
-        <v>1.002114561662002</v>
+        <v>1.016546566627464</v>
       </c>
       <c r="C85">
-        <v>1.001776750560022</v>
+        <v>0.9927484347580853</v>
       </c>
       <c r="D85">
-        <v>1.002996882996813</v>
+        <v>1.003088062064243</v>
       </c>
       <c r="E85">
-        <v>0.9999899352842222</v>
+        <v>0.9974697829398248</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>41551</v>
+        <v>41192</v>
       </c>
       <c r="B86">
-        <v>1.002347759504461</v>
+        <v>1.017425778086823</v>
       </c>
       <c r="C86">
-        <v>1.001422169448481</v>
+        <v>0.9927333976320645</v>
       </c>
       <c r="D86">
-        <v>1.003136194300753</v>
+        <v>1.003585400359191</v>
       </c>
       <c r="E86">
-        <v>0.999839773697372</v>
+        <v>0.9976242848751418</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>41554</v>
+        <v>41193</v>
       </c>
       <c r="B87">
-        <v>1.001811869345702</v>
+        <v>1.01821258820495</v>
       </c>
       <c r="C87">
-        <v>1.001500339201423</v>
+        <v>0.9924990001803962</v>
       </c>
       <c r="D87">
-        <v>1.002688673565901</v>
+        <v>1.003200630751309</v>
       </c>
       <c r="E87">
-        <v>1.000026066102841</v>
+        <v>0.9976511886640456</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>41555</v>
+        <v>41194</v>
       </c>
       <c r="B88">
-        <v>1.002891473985444</v>
+        <v>1.018188066363253</v>
       </c>
       <c r="C88">
-        <v>1.001812802540351</v>
+        <v>0.9928918996359729</v>
       </c>
       <c r="D88">
-        <v>1.00252536816315</v>
+        <v>1.003268585747821</v>
       </c>
       <c r="E88">
-        <v>1.000058054945315</v>
+        <v>0.997578817349839</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>41556</v>
+        <v>41197</v>
       </c>
       <c r="B89">
-        <v>1.00265903660164</v>
+        <v>1.018124914894143</v>
       </c>
       <c r="C89">
-        <v>1.001650231117296</v>
+        <v>0.9927556401124907</v>
       </c>
       <c r="D89">
-        <v>1.002451739271933</v>
+        <v>1.003058802988334</v>
       </c>
       <c r="E89">
-        <v>1.000286424721678</v>
+        <v>0.9974945709649002</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>41557</v>
+        <v>41198</v>
       </c>
       <c r="B90">
-        <v>1.002718588382731</v>
+        <v>1.018026576218612</v>
       </c>
       <c r="C90">
-        <v>1.000403241350144</v>
+        <v>0.9915560326908056</v>
       </c>
       <c r="D90">
-        <v>1.002754434824997</v>
+        <v>1.002141483580087</v>
       </c>
       <c r="E90">
-        <v>1.000005449279461</v>
+        <v>0.9972478269845116</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>41558</v>
+        <v>41199</v>
       </c>
       <c r="B91">
-        <v>1.003509490487769</v>
+        <v>1.01872616301074</v>
       </c>
       <c r="C91">
-        <v>1.000284859973107</v>
+        <v>0.9910837395721207</v>
       </c>
       <c r="D91">
-        <v>1.003012700259273</v>
+        <v>1.001894728008985</v>
       </c>
       <c r="E91">
-        <v>0.9998388503417261</v>
+        <v>0.9971968773480023</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>41561</v>
+        <v>41200</v>
       </c>
       <c r="B92">
-        <v>1.003503337066607</v>
+        <v>1.019423048226093</v>
       </c>
       <c r="C92">
-        <v>1.000341737962256</v>
+        <v>0.9915591498888862</v>
       </c>
       <c r="D92">
-        <v>1.002974522088068</v>
+        <v>1.001440283170683</v>
       </c>
       <c r="E92">
-        <v>0.9998683020901513</v>
+        <v>0.9970083992998304</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>41562</v>
+        <v>41201</v>
       </c>
       <c r="B93">
-        <v>1.00264582376031</v>
+        <v>1.018043084859507</v>
       </c>
       <c r="C93">
-        <v>1.000365571045095</v>
+        <v>0.9914952682128507</v>
       </c>
       <c r="D93">
-        <v>1.002665962682274</v>
+        <v>1.002255117056276</v>
       </c>
       <c r="E93">
-        <v>0.9997687148432606</v>
+        <v>0.9971556492658664</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>41563</v>
+        <v>41204</v>
       </c>
       <c r="B94">
-        <v>1.003346657788582</v>
+        <v>1.017884786036744</v>
       </c>
       <c r="C94">
-        <v>1.00001976836266</v>
+        <v>0.9912522552721077</v>
       </c>
       <c r="D94">
-        <v>1.002868335300035</v>
+        <v>1.002636663968756</v>
       </c>
       <c r="E94">
-        <v>0.9996710328256353</v>
+        <v>0.9972208229028583</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>41564</v>
+        <v>41205</v>
       </c>
       <c r="B95">
-        <v>1.001795761799775</v>
+        <v>1.017846370573591</v>
       </c>
       <c r="C95">
-        <v>1.00010172560097</v>
+        <v>0.9924393402455627</v>
       </c>
       <c r="D95">
-        <v>1.002800752950088</v>
+        <v>1.003362155953811</v>
       </c>
       <c r="E95">
-        <v>0.9997665958096722</v>
+        <v>0.9974479372692124</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>41565</v>
+        <v>41206</v>
       </c>
       <c r="B96">
-        <v>1.00194576388211</v>
+        <v>1.017807264505682</v>
       </c>
       <c r="C96">
-        <v>0.9994563056331524</v>
+        <v>0.9928124541006617</v>
       </c>
       <c r="D96">
-        <v>1.002754788463738</v>
+        <v>1.003228931451217</v>
       </c>
       <c r="E96">
-        <v>0.9994399460047528</v>
+        <v>0.9972464718804448</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>41568</v>
+        <v>41207</v>
       </c>
       <c r="B97">
-        <v>1.001024354466649</v>
+        <v>1.017726895982034</v>
       </c>
       <c r="C97">
-        <v>0.9995480409041425</v>
+        <v>0.9918452232771294</v>
       </c>
       <c r="D97">
-        <v>1.002817261328333</v>
+        <v>1.00310144246356</v>
       </c>
       <c r="E97">
-        <v>0.9991264032244543</v>
+        <v>0.9974184968651154</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>41569</v>
+        <v>41208</v>
       </c>
       <c r="B98">
-        <v>0.9996570767266444</v>
+        <v>1.017650353893947</v>
       </c>
       <c r="C98">
-        <v>0.9996220032944207</v>
+        <v>0.9919276153534473</v>
       </c>
       <c r="D98">
-        <v>1.00290817787585</v>
+        <v>1.003343436786001</v>
       </c>
       <c r="E98">
-        <v>0.9994651960266079</v>
+        <v>0.9972992029099456</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>41570</v>
+        <v>41211</v>
       </c>
       <c r="B99">
-        <v>1.000212143164246</v>
+        <v>1.01848532703844</v>
       </c>
       <c r="C99">
-        <v>0.9994155429826322</v>
+        <v>0.9917712567977172</v>
       </c>
       <c r="D99">
-        <v>1.002930887305687</v>
+        <v>1.003489492286073</v>
       </c>
       <c r="E99">
-        <v>0.9991196421882731</v>
+        <v>0.9974020303432806</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>41571</v>
+        <v>41212</v>
       </c>
       <c r="B100">
-        <v>0.9982345307648821</v>
+        <v>1.018400917240975</v>
       </c>
       <c r="C100">
-        <v>0.9992983436566044</v>
+        <v>0.9913049095015316</v>
       </c>
       <c r="D100">
-        <v>1.00269445184297</v>
+        <v>1.003259453247523</v>
       </c>
       <c r="E100">
-        <v>0.999254840747637</v>
+        <v>0.9972873125282455</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>41572</v>
+        <v>41213</v>
       </c>
       <c r="B101">
-        <v>0.9978568419695556</v>
+        <v>1.019698676223711</v>
       </c>
       <c r="C101">
-        <v>0.9991407937121684</v>
+        <v>0.9907089447894315</v>
       </c>
       <c r="D101">
-        <v>1.00286898326229</v>
+        <v>1.003285629184955</v>
       </c>
       <c r="E101">
-        <v>0.9994427976709983</v>
+        <v>0.9976732130515233</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>41575</v>
+        <v>41214</v>
       </c>
       <c r="B102">
-        <v>0.9977068077313132</v>
+        <v>1.019645318814811</v>
       </c>
       <c r="C102">
-        <v>0.9995808244019002</v>
+        <v>0.9904533310064769</v>
       </c>
       <c r="D102">
-        <v>1.002708538319002</v>
+        <v>1.001965984807371</v>
       </c>
       <c r="E102">
-        <v>0.9996318008283852</v>
+        <v>0.9983017415721055</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>41576</v>
+        <v>41215</v>
       </c>
       <c r="B103">
-        <v>0.9984765195514715</v>
+        <v>1.019027972081673</v>
       </c>
       <c r="C103">
-        <v>0.9990123630509463</v>
+        <v>0.9919322371365908</v>
       </c>
       <c r="D103">
-        <v>1.002682801702147</v>
+        <v>1.002041846848434</v>
       </c>
       <c r="E103">
-        <v>0.9997171049695114</v>
+        <v>0.998449861484481</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>41577</v>
+        <v>41218</v>
       </c>
       <c r="B104">
-        <v>0.9977962306081937</v>
+        <v>1.018968680657513</v>
       </c>
       <c r="C104">
-        <v>0.9993228183755104</v>
+        <v>0.9921310828786245</v>
       </c>
       <c r="D104">
-        <v>1.002756462436122</v>
+        <v>1.002307428537332</v>
       </c>
       <c r="E104">
-        <v>0.9997196007873725</v>
+        <v>0.9987124901212763</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>41578</v>
+        <v>41219</v>
       </c>
       <c r="B105">
-        <v>0.9992298319554597</v>
+        <v>1.018879198379549</v>
       </c>
       <c r="C105">
-        <v>1.000076244466646</v>
+        <v>0.9916537510519668</v>
       </c>
       <c r="D105">
-        <v>1.003138290756319</v>
+        <v>1.002620905788012</v>
       </c>
       <c r="E105">
-        <v>0.9998384356239151</v>
+        <v>0.9989153285478872</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>41579</v>
+        <v>41220</v>
       </c>
       <c r="B106">
-        <v>1.000393136402539</v>
+        <v>1.018156803572496</v>
       </c>
       <c r="C106">
-        <v>0.9998516661077474</v>
+        <v>0.9917125110072315</v>
       </c>
       <c r="D106">
-        <v>1.003378409070871</v>
+        <v>1.004300771433834</v>
       </c>
       <c r="E106">
-        <v>0.9999211398710853</v>
+        <v>0.9986340002930622</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>41582</v>
+        <v>41221</v>
       </c>
       <c r="B107">
-        <v>0.9994669384367867</v>
+        <v>1.018091291818636</v>
       </c>
       <c r="C107">
-        <v>1.000338003068985</v>
+        <v>0.9912396814712311</v>
       </c>
       <c r="D107">
-        <v>1.00479193745558</v>
+        <v>1.005169039839898</v>
       </c>
       <c r="E107">
-        <v>0.9995751544888525</v>
+        <v>0.9989023659288332</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>41583</v>
+        <v>41222</v>
       </c>
       <c r="B108">
-        <v>0.9998108993500666</v>
+        <v>1.018103446541943</v>
       </c>
       <c r="C108">
-        <v>0.9999362876809512</v>
+        <v>0.9915318211878176</v>
       </c>
       <c r="D108">
-        <v>1.004467054806596</v>
+        <v>1.004957263742104</v>
       </c>
       <c r="E108">
-        <v>0.999842204466705</v>
+        <v>0.9993088007378893</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>41584</v>
+        <v>41225</v>
       </c>
       <c r="B109">
-        <v>0.9995982455604935</v>
+        <v>1.017368213266083</v>
       </c>
       <c r="C109">
-        <v>1.000370393518098</v>
+        <v>0.991919903387616</v>
       </c>
       <c r="D109">
-        <v>1.004392156812518</v>
+        <v>1.004735992102156</v>
       </c>
       <c r="E109">
-        <v>0.9997040707872681</v>
+        <v>0.9995871991269207</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>41585</v>
+        <v>41226</v>
       </c>
       <c r="B110">
-        <v>1.000701025696193</v>
+        <v>1.017350719198845</v>
       </c>
       <c r="C110">
-        <v>1.000945657958421</v>
+        <v>0.9923017675767487</v>
       </c>
       <c r="D110">
-        <v>1.004405389519721</v>
+        <v>1.005170637444263</v>
       </c>
       <c r="E110">
-        <v>0.9996450086935138</v>
+        <v>0.9992716201568379</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>41586</v>
+        <v>41227</v>
       </c>
       <c r="B111">
-        <v>1.000452406765459</v>
+        <v>1.017424944386935</v>
       </c>
       <c r="C111">
-        <v>1.000458247763873</v>
+        <v>0.9942485810946036</v>
       </c>
       <c r="D111">
-        <v>1.004478159369929</v>
+        <v>1.005656115465275</v>
       </c>
       <c r="E111">
-        <v>0.9994257530122229</v>
+        <v>0.9996894069655927</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>41589</v>
+        <v>41228</v>
       </c>
       <c r="B112">
-        <v>1.000354249233398</v>
+        <v>1.01669659006616</v>
       </c>
       <c r="C112">
-        <v>1.000555753418875</v>
+        <v>0.9952399987019747</v>
       </c>
       <c r="D112">
-        <v>1.00452340312842</v>
+        <v>1.005703883205816</v>
       </c>
       <c r="E112">
-        <v>0.9993807129540804</v>
+        <v>1.000153356445733</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>41590</v>
+        <v>41229</v>
       </c>
       <c r="B113">
-        <v>1.000821371149123</v>
+        <v>1.016672565827273</v>
       </c>
       <c r="C113">
-        <v>1.000655241579505</v>
+        <v>0.9948786195348163</v>
       </c>
       <c r="D113">
-        <v>1.00440912855877</v>
+        <v>1.005290416450155</v>
       </c>
       <c r="E113">
-        <v>0.9993010894692209</v>
+        <v>1.00047519149098</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>41591</v>
+        <v>41232</v>
       </c>
       <c r="B114">
-        <v>1.000845658687836</v>
+        <v>1.016542890474445</v>
       </c>
       <c r="C114">
-        <v>1.000776799024549</v>
+        <v>0.9938112203609696</v>
       </c>
       <c r="D114">
-        <v>1.004218265949533</v>
+        <v>1.004518118011201</v>
       </c>
       <c r="E114">
-        <v>0.999422508351939</v>
+        <v>1.000600786294865</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>41592</v>
+        <v>41233</v>
       </c>
       <c r="B115">
-        <v>1.000071255784307</v>
+        <v>1.018137017597868</v>
       </c>
       <c r="C115">
-        <v>1.000842054476792</v>
+        <v>0.9939136933282798</v>
       </c>
       <c r="D115">
-        <v>1.004197045866774</v>
+        <v>1.004454008277555</v>
       </c>
       <c r="E115">
-        <v>0.9989936740136026</v>
+        <v>1.00070263541731</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>41593</v>
+        <v>41234</v>
       </c>
       <c r="B116">
-        <v>1.000412336818411</v>
+        <v>1.017367323051817</v>
       </c>
       <c r="C116">
-        <v>1.000594478050935</v>
+        <v>0.993478510335876</v>
       </c>
       <c r="D116">
-        <v>1.004408693290262</v>
+        <v>1.004470842691004</v>
       </c>
       <c r="E116">
-        <v>0.9994400620587859</v>
+        <v>1.0012347804656</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>41596</v>
+        <v>41235</v>
       </c>
       <c r="B117">
-        <v>1.001187291384711</v>
+        <v>1.017317056457021</v>
       </c>
       <c r="C117">
-        <v>1.000862188263046</v>
+        <v>0.9932225683380773</v>
       </c>
       <c r="D117">
-        <v>1.004823362864647</v>
+        <v>1.003584700560224</v>
       </c>
       <c r="E117">
-        <v>0.9992631735527459</v>
+        <v>1.002750749636944</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>41597</v>
+        <v>41236</v>
       </c>
       <c r="B118">
-        <v>1.001056218901902</v>
+        <v>1.018023132808133</v>
       </c>
       <c r="C118">
-        <v>1.001198673884562</v>
+        <v>0.9927622944316378</v>
       </c>
       <c r="D118">
-        <v>1.004861697640986</v>
+        <v>1.003509629812579</v>
       </c>
       <c r="E118">
-        <v>0.9993080376371036</v>
+        <v>1.002371771792572</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>41598</v>
+        <v>41239</v>
       </c>
       <c r="B119">
-        <v>1.002042765695956</v>
+        <v>1.017965657050629</v>
       </c>
       <c r="C119">
-        <v>1.001087574316246</v>
+        <v>0.9927951590168477</v>
       </c>
       <c r="D119">
-        <v>1.004830339975972</v>
+        <v>1.003957836638371</v>
       </c>
       <c r="E119">
-        <v>0.9993520355947885</v>
+        <v>1.0027726744107</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>41599</v>
+        <v>41240</v>
       </c>
       <c r="B120">
-        <v>1.002165294768552</v>
+        <v>1.017171674688205</v>
       </c>
       <c r="C120">
-        <v>1.000684992607414</v>
+        <v>0.9934994728956775</v>
       </c>
       <c r="D120">
-        <v>1.005026038503312</v>
+        <v>1.004198458375632</v>
       </c>
       <c r="E120">
-        <v>0.9993354120919009</v>
+        <v>1.001827055759186</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>41600</v>
+        <v>41241</v>
       </c>
       <c r="B121">
-        <v>1.002494687505981</v>
+        <v>1.017083307557322</v>
       </c>
       <c r="C121">
-        <v>1.000574360285205</v>
+        <v>0.9931910734315533</v>
       </c>
       <c r="D121">
-        <v>1.004809152198574</v>
+        <v>1.003939374551988</v>
       </c>
       <c r="E121">
-        <v>0.9994468540965301</v>
+        <v>1.001963483872424</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>41603</v>
+        <v>41242</v>
       </c>
       <c r="B122">
-        <v>1.002292406805755</v>
+        <v>1.016976790388545</v>
       </c>
       <c r="C122">
-        <v>1.00070092319912</v>
+        <v>0.9931468382748219</v>
       </c>
       <c r="D122">
-        <v>1.0046153089498</v>
+        <v>1.003168363956656</v>
       </c>
       <c r="E122">
-        <v>0.9995578540831475</v>
+        <v>1.002161246565871</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>41604</v>
+        <v>41243</v>
       </c>
       <c r="B123">
-        <v>1.003063644328424</v>
+        <v>1.016232160793283</v>
       </c>
       <c r="C123">
-        <v>1.001131342721553</v>
+        <v>0.9932653210427621</v>
       </c>
       <c r="D123">
-        <v>1.003692973241445</v>
+        <v>1.002870458262885</v>
       </c>
       <c r="E123">
-        <v>0.9970397476782041</v>
+        <v>1.002169227698606</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>41605</v>
+        <v>41246</v>
       </c>
       <c r="B124">
-        <v>1.002663325030893</v>
+        <v>1.017067461570338</v>
       </c>
       <c r="C124">
-        <v>1.001245890531703</v>
+        <v>0.9939304437246251</v>
       </c>
       <c r="D124">
-        <v>1.003607890038561</v>
+        <v>1.002996135149879</v>
       </c>
       <c r="E124">
-        <v>0.9969192745610651</v>
+        <v>1.002202282571038</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>41606</v>
+        <v>41247</v>
       </c>
       <c r="B125">
-        <v>1.002321400911826</v>
+        <v>1.016221535972753</v>
       </c>
       <c r="C125">
-        <v>1.001172120334129</v>
+        <v>0.9941752652190173</v>
       </c>
       <c r="D125">
-        <v>1.00362578437601</v>
+        <v>1.003284916095215</v>
       </c>
       <c r="E125">
-        <v>0.9966552300452459</v>
+        <v>1.002304513743174</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>41607</v>
+        <v>41248</v>
       </c>
       <c r="B126">
-        <v>1.001986959168124</v>
+        <v>1.016211483270176</v>
       </c>
       <c r="C126">
-        <v>1.001339916130806</v>
+        <v>0.9948312181197387</v>
       </c>
       <c r="D126">
-        <v>1.00349236291372</v>
+        <v>1.002365009011217</v>
       </c>
       <c r="E126">
-        <v>0.996280475744874</v>
+        <v>1.002330744224337</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>41610</v>
+        <v>41249</v>
       </c>
       <c r="B127">
-        <v>1.003487577798301</v>
+        <v>1.0161920808013</v>
       </c>
       <c r="C127">
-        <v>1.000612545251088</v>
+        <v>0.9947045752237613</v>
       </c>
       <c r="D127">
-        <v>1.003718602519468</v>
+        <v>1.0022013888054</v>
       </c>
       <c r="E127">
-        <v>0.9962878026733563</v>
+        <v>1.002275390440795</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>41611</v>
+        <v>41250</v>
       </c>
       <c r="B128">
-        <v>1.003881759876972</v>
+        <v>1.016025723599873</v>
       </c>
       <c r="C128">
-        <v>1.001008552455527</v>
+        <v>0.9946270323875686</v>
       </c>
       <c r="D128">
-        <v>1.00371951169313</v>
+        <v>1.002417965797629</v>
       </c>
       <c r="E128">
-        <v>0.9966077096554666</v>
+        <v>1.002412180975232</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>41612</v>
+        <v>41253</v>
       </c>
       <c r="B129">
-        <v>1.003017462782884</v>
+        <v>1.015369702137913</v>
       </c>
       <c r="C129">
-        <v>1.001323978941938</v>
+        <v>0.9942782855691598</v>
       </c>
       <c r="D129">
-        <v>1.003828664684422</v>
+        <v>1.002177575546275</v>
       </c>
       <c r="E129">
-        <v>0.9962617088767454</v>
+        <v>1.002218118171671</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>41613</v>
+        <v>41254</v>
       </c>
       <c r="B130">
-        <v>1.003948339306441</v>
+        <v>1.017122811484597</v>
       </c>
       <c r="C130">
-        <v>1.001833730636795</v>
+        <v>0.9940625743091039</v>
       </c>
       <c r="D130">
-        <v>1.004138072957571</v>
+        <v>1.001538492788481</v>
       </c>
       <c r="E130">
-        <v>0.9963313377577903</v>
+        <v>1.00260337662931</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>41614</v>
+        <v>41255</v>
       </c>
       <c r="B131">
-        <v>1.003912469114662</v>
+        <v>1.017046966347788</v>
       </c>
       <c r="C131">
-        <v>1.001536058220172</v>
+        <v>0.9932202624401483</v>
       </c>
       <c r="D131">
-        <v>1.004232165537883</v>
+        <v>1.001589750479102</v>
       </c>
       <c r="E131">
-        <v>0.9965075227630539</v>
+        <v>1.003195044258351</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>41617</v>
+        <v>41256</v>
       </c>
       <c r="B132">
-        <v>1.003285832018158</v>
+        <v>1.016260003329051</v>
       </c>
       <c r="C132">
-        <v>1.001820263882404</v>
+        <v>0.9940700158404379</v>
       </c>
       <c r="D132">
-        <v>1.004399318609807</v>
+        <v>1.001575747727456</v>
       </c>
       <c r="E132">
-        <v>0.9965136349716062</v>
+        <v>1.003648975883179</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>41618</v>
+        <v>41257</v>
       </c>
       <c r="B133">
-        <v>1.002138175340618</v>
+        <v>1.016167009776069</v>
       </c>
       <c r="C133">
-        <v>1.002074642235272</v>
+        <v>0.9936946459819503</v>
       </c>
       <c r="D133">
-        <v>1.003785426982539</v>
+        <v>1.001565007003956</v>
       </c>
       <c r="E133">
-        <v>0.9958826058913591</v>
+        <v>1.003861562149459</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>41619</v>
+        <v>41260</v>
       </c>
       <c r="B134">
-        <v>1.003497638946699</v>
+        <v>1.016118251521868</v>
       </c>
       <c r="C134">
-        <v>1.003021465041276</v>
+        <v>0.9938986516589156</v>
       </c>
       <c r="D134">
-        <v>1.003380567950454</v>
+        <v>1.001594009506924</v>
       </c>
       <c r="E134">
-        <v>0.9959319787543439</v>
+        <v>1.003725999855159</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>41620</v>
+        <v>41261</v>
       </c>
       <c r="B135">
-        <v>1.003896241192739</v>
+        <v>1.016085303208403</v>
       </c>
       <c r="C135">
-        <v>1.00305754929589</v>
+        <v>0.9941608220435026</v>
       </c>
       <c r="D135">
-        <v>1.003367039638382</v>
+        <v>1.00094416822007</v>
       </c>
       <c r="E135">
-        <v>0.9960545678751757</v>
+        <v>1.003340121811726</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>41621</v>
+        <v>41262</v>
       </c>
       <c r="B136">
-        <v>1.003844336707973</v>
+        <v>1.016031156268519</v>
       </c>
       <c r="C136">
-        <v>1.002888104497199</v>
+        <v>0.9940108477190585</v>
       </c>
       <c r="D136">
-        <v>1.003084960632165</v>
+        <v>1.000328353690316</v>
       </c>
       <c r="E136">
-        <v>0.995979837520541</v>
+        <v>1.003121314344197</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>41624</v>
+        <v>41263</v>
       </c>
       <c r="B137">
-        <v>1.003587584410415</v>
+        <v>1.015986481593576</v>
       </c>
       <c r="C137">
-        <v>1.002492612655334</v>
+        <v>0.9944158240278572</v>
       </c>
       <c r="D137">
-        <v>1.002927923838705</v>
+        <v>1.000056363254535</v>
       </c>
       <c r="E137">
-        <v>0.9955388917655971</v>
+        <v>1.003439261242107</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>41625</v>
+        <v>41264</v>
       </c>
       <c r="B138">
-        <v>1.003647815340475</v>
+        <v>1.015956548452983</v>
       </c>
       <c r="C138">
-        <v>1.00251517321485</v>
+        <v>0.9941746474677725</v>
       </c>
       <c r="D138">
-        <v>1.003030147275207</v>
+        <v>1.001064340140119</v>
       </c>
       <c r="E138">
-        <v>0.9952273855450088</v>
+        <v>1.00137264596177</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>41626</v>
+        <v>41267</v>
       </c>
       <c r="B139">
-        <v>1.003757095596903</v>
+        <v>1.0158997784393</v>
       </c>
       <c r="C139">
-        <v>1.001647651693006</v>
+        <v>0.9943599041941612</v>
       </c>
       <c r="D139">
-        <v>1.00337682436354</v>
+        <v>1.001310030112207</v>
       </c>
       <c r="E139">
-        <v>0.995362935987532</v>
+        <v>1.001129460483812</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>41627</v>
+        <v>41269</v>
       </c>
       <c r="B140">
-        <v>1.004141343437788</v>
+        <v>1.015854716390674</v>
       </c>
       <c r="C140">
-        <v>1.001105497306754</v>
+        <v>0.9943590505398525</v>
       </c>
       <c r="D140">
-        <v>1.003290958209254</v>
+        <v>1.001375163176742</v>
       </c>
       <c r="E140">
-        <v>0.9956817579117309</v>
+        <v>1.001150527293151</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>41628</v>
+        <v>41270</v>
       </c>
       <c r="B141">
-        <v>1.004106210253911</v>
+        <v>1.015828704128711</v>
       </c>
       <c r="C141">
-        <v>1.000472316312265</v>
+        <v>0.9940973554126078</v>
       </c>
       <c r="D141">
-        <v>1.001839330353901</v>
+        <v>1.001470110387515</v>
       </c>
       <c r="E141">
-        <v>0.9960220534094675</v>
+        <v>1.002360798139747</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>41631</v>
+        <v>41271</v>
       </c>
       <c r="B142">
-        <v>1.004196632422757</v>
+        <v>1.015809881309603</v>
       </c>
       <c r="C142">
-        <v>1.000109394393442</v>
+        <v>0.9945154697011666</v>
       </c>
       <c r="D142">
-        <v>1.001682673285905</v>
+        <v>1.00171147907359</v>
       </c>
       <c r="E142">
-        <v>0.9961237231833987</v>
+        <v>1.002479352367255</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>41632</v>
+        <v>41274</v>
       </c>
       <c r="B143">
-        <v>1.003163434675177</v>
+        <v>1.015711528181497</v>
       </c>
       <c r="C143">
-        <v>0.9999525076740531</v>
+        <v>0.9933685680681165</v>
       </c>
       <c r="D143">
-        <v>1.001395666819588</v>
+        <v>1.001372761290703</v>
       </c>
       <c r="E143">
-        <v>0.9962494051784405</v>
+        <v>1.002349594416656</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>41634</v>
+        <v>41276</v>
       </c>
       <c r="B144">
-        <v>1.00315411747335</v>
+        <v>1.01562184205944</v>
       </c>
       <c r="C144">
-        <v>1.000005398424449</v>
+        <v>0.9927033818223857</v>
       </c>
       <c r="D144">
-        <v>1.001361854736017</v>
+        <v>1.000941865625149</v>
       </c>
       <c r="E144">
-        <v>0.9962856084639736</v>
+        <v>1.002011783758803</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>41635</v>
+        <v>41277</v>
       </c>
       <c r="B145">
-        <v>1.00242166375979</v>
+        <v>1.01562378615942</v>
       </c>
       <c r="C145">
-        <v>0.9999468220563621</v>
+        <v>0.9938381475006651</v>
       </c>
       <c r="D145">
-        <v>1.001918861165664</v>
+        <v>1.000571071297524</v>
       </c>
       <c r="E145">
-        <v>0.9963297647653688</v>
+        <v>1.00172961935311</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>41638</v>
+        <v>41278</v>
       </c>
       <c r="B146">
-        <v>1.003441442835913</v>
+        <v>1.015576270693903</v>
       </c>
       <c r="C146">
-        <v>0.9998298234712361</v>
+        <v>0.9936592384505648</v>
       </c>
       <c r="D146">
-        <v>1.002124812986283</v>
+        <v>1.000029094278422</v>
       </c>
       <c r="E146">
-        <v>0.9962890303571137</v>
+        <v>1.001990889256889</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>41639</v>
+        <v>41281</v>
       </c>
       <c r="B147">
-        <v>1.002843316701515</v>
+        <v>1.01552205157705</v>
       </c>
       <c r="C147">
-        <v>0.9999337033756859</v>
+        <v>0.9942837214921485</v>
       </c>
       <c r="D147">
-        <v>1.001861210890606</v>
+        <v>0.9999946711444418</v>
       </c>
       <c r="E147">
-        <v>0.9964739167038466</v>
+        <v>1.00197468944889</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>41641</v>
+        <v>41282</v>
       </c>
       <c r="B148">
-        <v>1.001466253127769</v>
+        <v>1.015478605323676</v>
       </c>
       <c r="C148">
-        <v>1.000262815593528</v>
+        <v>0.9940791361460873</v>
       </c>
       <c r="D148">
-        <v>1.001212030334014</v>
+        <v>1.000139935920301</v>
       </c>
       <c r="E148">
-        <v>0.9964481980493675</v>
+        <v>1.002024070396523</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>41642</v>
+        <v>41283</v>
       </c>
       <c r="B149">
-        <v>1.001915600559623</v>
+        <v>1.01543686433547</v>
       </c>
       <c r="C149">
-        <v>1.000596773034716</v>
+        <v>0.9942421864028081</v>
       </c>
       <c r="D149">
-        <v>1.001211427783982</v>
+        <v>1.000159254386032</v>
       </c>
       <c r="E149">
-        <v>0.9965033444120983</v>
+        <v>1.001733511375225</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>41645</v>
+        <v>41284</v>
       </c>
       <c r="B150">
-        <v>1.001676467723759</v>
+        <v>1.01533193668006</v>
       </c>
       <c r="C150">
-        <v>1.000851328043143</v>
+        <v>0.9933561387518605</v>
       </c>
       <c r="D150">
-        <v>1.00064876034567</v>
+        <v>1.000087747199405</v>
       </c>
       <c r="E150">
-        <v>0.9966888811127453</v>
+        <v>1.002057356086657</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>41646</v>
+        <v>41285</v>
       </c>
       <c r="B151">
-        <v>1.001390623728348</v>
+        <v>1.015314280688956</v>
       </c>
       <c r="C151">
-        <v>0.9998680518128281</v>
+        <v>0.9932714527776758</v>
       </c>
       <c r="D151">
-        <v>1.000038912630199</v>
+        <v>0.9997591731440794</v>
       </c>
       <c r="E151">
-        <v>0.9965110339257758</v>
+        <v>1.003285126171554</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>41647</v>
+        <v>41288</v>
       </c>
       <c r="B152">
-        <v>1.001444345038388</v>
+        <v>1.015241903534305</v>
       </c>
       <c r="C152">
-        <v>0.9995353906616754</v>
+        <v>0.9932639738918635</v>
       </c>
       <c r="D152">
-        <v>1.000091511047151</v>
+        <v>0.9993915342580049</v>
       </c>
       <c r="E152">
-        <v>0.9967335655390539</v>
+        <v>1.004291313211171</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>41648</v>
+        <v>41289</v>
       </c>
       <c r="B153">
-        <v>1.001855503104491</v>
+        <v>1.015192450213255</v>
       </c>
       <c r="C153">
-        <v>0.9991768783123043</v>
+        <v>0.9929408428940198</v>
       </c>
       <c r="D153">
-        <v>0.9997790729580722</v>
+        <v>0.9994848983893851</v>
       </c>
       <c r="E153">
-        <v>0.9965719633168195</v>
+        <v>1.003971160806639</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>41649</v>
+        <v>41290</v>
       </c>
       <c r="B154">
-        <v>1.000699245252084</v>
+        <v>1.015171100601206</v>
       </c>
       <c r="C154">
-        <v>0.9987355064358414</v>
+        <v>0.9932182601713607</v>
       </c>
       <c r="D154">
-        <v>0.9998021781192069</v>
+        <v>0.9996705648720278</v>
       </c>
       <c r="E154">
-        <v>0.996518189473441</v>
+        <v>1.004254746886093</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>41652</v>
+        <v>41291</v>
       </c>
       <c r="B155">
-        <v>0.9999342119271915</v>
+        <v>1.015101098013412</v>
       </c>
       <c r="C155">
-        <v>0.9995774293685293</v>
+        <v>0.9931101476320586</v>
       </c>
       <c r="D155">
-        <v>0.9999402623105258</v>
+        <v>0.9991366171128298</v>
       </c>
       <c r="E155">
-        <v>0.9966330530061916</v>
+        <v>1.004180327306523</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>41653</v>
+        <v>41292</v>
       </c>
       <c r="B156">
-        <v>1.000259547550458</v>
+        <v>1.015057055299299</v>
       </c>
       <c r="C156">
-        <v>0.999285975918368</v>
+        <v>0.9928294722373776</v>
       </c>
       <c r="D156">
-        <v>1.000020557073075</v>
+        <v>0.9987223685596859</v>
       </c>
       <c r="E156">
-        <v>0.9965798914699265</v>
+        <v>1.004752913508851</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>41654</v>
+        <v>41295</v>
       </c>
       <c r="B157">
-        <v>0.9997030700391293</v>
+        <v>1.014992615645287</v>
       </c>
       <c r="C157">
-        <v>0.9986628677338552</v>
+        <v>0.9923629043844536</v>
       </c>
       <c r="D157">
-        <v>1.000001532080656</v>
+        <v>0.9981853402623048</v>
       </c>
       <c r="E157">
-        <v>0.9967720978710336</v>
+        <v>1.005649696331227</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>41655</v>
+        <v>41296</v>
       </c>
       <c r="B158">
-        <v>0.9992398867585681</v>
+        <v>1.014937665931982</v>
       </c>
       <c r="C158">
-        <v>0.9983417292576183</v>
+        <v>0.992064140918411</v>
       </c>
       <c r="D158">
-        <v>1.00005581894525</v>
+        <v>0.9982309828224734</v>
       </c>
       <c r="E158">
-        <v>0.9970001851942275</v>
+        <v>1.005859813023304</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>41656</v>
+        <v>41297</v>
       </c>
       <c r="B159">
-        <v>0.998060855537316</v>
+        <v>1.014943236865742</v>
       </c>
       <c r="C159">
-        <v>0.9983040478625645</v>
+        <v>0.9930946481614591</v>
       </c>
       <c r="D159">
-        <v>0.9993833781981734</v>
+        <v>0.9980303340424389</v>
       </c>
       <c r="E159">
-        <v>0.9968944124091105</v>
+        <v>1.005553343840349</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>41659</v>
+        <v>41298</v>
       </c>
       <c r="B160">
-        <v>0.9972769526778382</v>
+        <v>1.014926655906008</v>
       </c>
       <c r="C160">
-        <v>0.9977679708809385</v>
+        <v>0.9938171350847209</v>
       </c>
       <c r="D160">
-        <v>0.9987219751786687</v>
+        <v>0.9970814830474009</v>
       </c>
       <c r="E160">
-        <v>0.9971516073733112</v>
+        <v>1.005578894517048</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>41660</v>
+        <v>41299</v>
       </c>
       <c r="B161">
-        <v>0.9976249449124308</v>
+        <v>1.014906631632369</v>
       </c>
       <c r="C161">
-        <v>0.9980755095517668</v>
+        <v>0.994621409371654</v>
       </c>
       <c r="D161">
-        <v>0.9986167560701212</v>
+        <v>0.9967048210766344</v>
       </c>
       <c r="E161">
-        <v>0.9972782578482986</v>
+        <v>1.005391477831455</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>41661</v>
+        <v>41302</v>
       </c>
       <c r="B162">
-        <v>0.9984768930885085</v>
+        <v>1.014856874356887</v>
       </c>
       <c r="C162">
-        <v>0.9974967807034146</v>
+        <v>0.9947731273353836</v>
       </c>
       <c r="D162">
-        <v>0.9977413420760399</v>
+        <v>0.9970025875095222</v>
       </c>
       <c r="E162">
-        <v>0.9973061361859028</v>
+        <v>1.004626803542487</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>41662</v>
+        <v>41303</v>
       </c>
       <c r="B163">
-        <v>0.9977583115595041</v>
+        <v>1.014816413608551</v>
       </c>
       <c r="C163">
-        <v>0.9982029811544559</v>
+        <v>0.9945760639790769</v>
       </c>
       <c r="D163">
-        <v>0.9976706828435533</v>
+        <v>0.9973198519847414</v>
       </c>
       <c r="E163">
-        <v>0.9972072320830948</v>
+        <v>1.004337937845952</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>41663</v>
+        <v>41304</v>
       </c>
       <c r="B164">
-        <v>0.9981136729685181</v>
+        <v>1.014767440748588</v>
       </c>
       <c r="C164">
-        <v>0.999511907636876</v>
+        <v>0.9947815452836748</v>
       </c>
       <c r="D164">
-        <v>0.9976957642134653</v>
+        <v>0.997686274384489</v>
       </c>
       <c r="E164">
-        <v>0.9973837718423536</v>
+        <v>1.003224618544199</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>41666</v>
+        <v>41305</v>
       </c>
       <c r="B165">
-        <v>0.9989260606916944</v>
+        <v>1.014763587439063</v>
       </c>
       <c r="C165">
-        <v>0.9996914633227596</v>
+        <v>0.9956248561573572</v>
       </c>
       <c r="D165">
-        <v>0.997709575171987</v>
+        <v>0.99843398966886</v>
       </c>
       <c r="E165">
-        <v>0.9974905420244657</v>
+        <v>1.002811567086677</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>41667</v>
+        <v>41306</v>
       </c>
       <c r="B166">
-        <v>0.9981848025903985</v>
+        <v>1.014681070680494</v>
       </c>
       <c r="C166">
-        <v>0.9991040523556666</v>
+        <v>0.9950202708449722</v>
       </c>
       <c r="D166">
-        <v>0.9976207229759908</v>
+        <v>0.9982259028805277</v>
       </c>
       <c r="E166">
-        <v>0.9976287229420178</v>
+        <v>1.002823646545908</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>41668</v>
+        <v>41309</v>
       </c>
       <c r="B167">
-        <v>0.9972634854354444</v>
+        <v>1.014653079749298</v>
       </c>
       <c r="C167">
-        <v>0.9998027452848381</v>
+        <v>0.9950106706291109</v>
       </c>
       <c r="D167">
-        <v>0.9974293359324923</v>
+        <v>0.9981904468733425</v>
       </c>
       <c r="E167">
-        <v>0.9979937354383598</v>
+        <v>1.004408825420973</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>41669</v>
+        <v>41310</v>
       </c>
       <c r="B168">
-        <v>0.9978450465756875</v>
+        <v>1.014588799475652</v>
       </c>
       <c r="C168">
-        <v>0.9990884962466446</v>
+        <v>0.994829115773618</v>
       </c>
       <c r="D168">
-        <v>0.9978837073284886</v>
+        <v>0.9976374084705395</v>
       </c>
       <c r="E168">
-        <v>0.9978143714576663</v>
+        <v>1.004885510536217</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>41670</v>
+        <v>41311</v>
       </c>
       <c r="B169">
-        <v>0.997844484944253</v>
+        <v>1.014543871311077</v>
       </c>
       <c r="C169">
-        <v>0.9995126224072073</v>
+        <v>0.9947530897191745</v>
       </c>
       <c r="D169">
-        <v>0.9982414796167621</v>
+        <v>0.9975750624028592</v>
       </c>
       <c r="E169">
-        <v>0.9975528464239606</v>
+        <v>1.004879636900125</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>41673</v>
+        <v>41312</v>
       </c>
       <c r="B170">
-        <v>0.9983710655503933</v>
+        <v>1.01451054600508</v>
       </c>
       <c r="C170">
-        <v>1.001103792154955</v>
+        <v>0.9946178451878747</v>
       </c>
       <c r="D170">
-        <v>0.9980500376311997</v>
+        <v>0.9976696436678198</v>
       </c>
       <c r="E170">
-        <v>0.9978691091704722</v>
+        <v>1.005493927384399</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>41674</v>
+        <v>41313</v>
       </c>
       <c r="B171">
-        <v>0.9980860368878199</v>
+        <v>1.014494200211182</v>
       </c>
       <c r="C171">
-        <v>1.000693017336204</v>
+        <v>0.9946604669269827</v>
       </c>
       <c r="D171">
-        <v>0.9975415120179943</v>
+        <v>0.9975892106781313</v>
       </c>
       <c r="E171">
-        <v>0.9978861752908128</v>
+        <v>1.005224545213274</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>41675</v>
+        <v>41316</v>
       </c>
       <c r="B172">
-        <v>0.9985605708245956</v>
+        <v>1.014458662589898</v>
       </c>
       <c r="C172">
-        <v>1.000265972137894</v>
+        <v>0.9954130675307027</v>
       </c>
       <c r="D172">
-        <v>0.9976250758812364</v>
+        <v>0.9977214810785017</v>
       </c>
       <c r="E172">
-        <v>0.9980100407788463</v>
+        <v>1.004827023100113</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>41676</v>
+        <v>41317</v>
       </c>
       <c r="B173">
-        <v>0.9985384643760747</v>
+        <v>1.014442727502065</v>
       </c>
       <c r="C173">
-        <v>0.9994295153162569</v>
+        <v>0.995182975031266</v>
       </c>
       <c r="D173">
-        <v>0.9978302331430509</v>
+        <v>0.9976103770858382</v>
       </c>
       <c r="E173">
-        <v>0.9983404639431124</v>
+        <v>1.004444257700334</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>41677</v>
+        <v>41318</v>
       </c>
       <c r="B174">
-        <v>0.9974157414817224</v>
+        <v>1.014406400435358</v>
       </c>
       <c r="C174">
-        <v>0.9994603237781509</v>
+        <v>0.9956009772944142</v>
       </c>
       <c r="D174">
-        <v>0.9979035919733541</v>
+        <v>0.9976356703502517</v>
       </c>
       <c r="E174">
-        <v>0.9983068030619965</v>
+        <v>1.003566571218814</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>41680</v>
+        <v>41319</v>
       </c>
       <c r="B175">
-        <v>0.9961721500375618</v>
+        <v>1.014352375506058</v>
       </c>
       <c r="C175">
-        <v>0.9998393481125721</v>
+        <v>0.995643476584078</v>
       </c>
       <c r="D175">
-        <v>0.9976051878825284</v>
+        <v>0.9979473030760758</v>
       </c>
       <c r="E175">
-        <v>0.9980905828591078</v>
+        <v>1.0044879600682</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>41681</v>
+        <v>41320</v>
       </c>
       <c r="B176">
-        <v>0.9952638921319487</v>
+        <v>1.014340249343982</v>
       </c>
       <c r="C176">
-        <v>0.9996019539961817</v>
+        <v>0.9966993331009949</v>
       </c>
       <c r="D176">
-        <v>0.997764711388796</v>
+        <v>0.9977497286803226</v>
       </c>
       <c r="E176">
-        <v>0.9978181119379117</v>
+        <v>1.003880902178042</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>41682</v>
+        <v>41324</v>
       </c>
       <c r="B177">
-        <v>0.9961805421545135</v>
+        <v>1.014292284839117</v>
       </c>
       <c r="C177">
-        <v>0.9991007027800737</v>
+        <v>0.9964298337574665</v>
       </c>
       <c r="D177">
-        <v>0.9979485411271303</v>
+        <v>0.99703298828108</v>
       </c>
       <c r="E177">
-        <v>0.9981011227302454</v>
+        <v>1.003834309591416</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>41683</v>
+        <v>41325</v>
       </c>
       <c r="B178">
-        <v>0.9952484849503315</v>
+        <v>1.014292905654596</v>
       </c>
       <c r="C178">
-        <v>0.9992761441357717</v>
+        <v>0.9979546008445865</v>
       </c>
       <c r="D178">
-        <v>0.998290007997977</v>
+        <v>0.9970989580179213</v>
       </c>
       <c r="E178">
-        <v>0.9980719424865775</v>
+        <v>1.00352402010594</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>41684</v>
+        <v>41326</v>
       </c>
       <c r="B179">
-        <v>0.9947261107378083</v>
+        <v>1.014265080761167</v>
       </c>
       <c r="C179">
-        <v>0.999336215126859</v>
+        <v>0.9977020892011409</v>
       </c>
       <c r="D179">
-        <v>0.9985910495153423</v>
+        <v>0.9981549419156337</v>
       </c>
       <c r="E179">
-        <v>0.9977461679724223</v>
+        <v>1.004015322231985</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>41688</v>
+        <v>41327</v>
       </c>
       <c r="B180">
-        <v>0.9946857266885153</v>
+        <v>1.01422204084754</v>
       </c>
       <c r="C180">
-        <v>0.9992138957947617</v>
+        <v>0.9976022444493049</v>
       </c>
       <c r="D180">
-        <v>0.9980592656465391</v>
+        <v>0.9976459405540117</v>
       </c>
       <c r="E180">
-        <v>0.9979561663532375</v>
+        <v>1.003269402609023</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>41689</v>
+        <v>41330</v>
       </c>
       <c r="B181">
-        <v>0.9952790530411467</v>
+        <v>1.014174672451561</v>
       </c>
       <c r="C181">
-        <v>0.9990366143958852</v>
+        <v>0.9971970831265728</v>
       </c>
       <c r="D181">
-        <v>0.9984659082154899</v>
+        <v>0.9984982094769228</v>
       </c>
       <c r="E181">
-        <v>0.9977695554296785</v>
+        <v>1.003593368333455</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>41690</v>
+        <v>41331</v>
       </c>
       <c r="B182">
-        <v>0.9940462650944809</v>
+        <v>1.014120452970676</v>
       </c>
       <c r="C182">
-        <v>0.9987479961098061</v>
+        <v>0.9968278542852387</v>
       </c>
       <c r="D182">
-        <v>0.9980136127665943</v>
+        <v>0.998772286016642</v>
       </c>
       <c r="E182">
-        <v>0.9970909164083263</v>
+        <v>1.003643411443892</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>41691</v>
+        <v>41332</v>
       </c>
       <c r="B183">
-        <v>0.9942743540635042</v>
+        <v>1.014072911105237</v>
       </c>
       <c r="C183">
-        <v>0.9989365524955641</v>
+        <v>0.9971532182889848</v>
       </c>
       <c r="D183">
-        <v>0.9982037744689086</v>
+        <v>0.9978777441557263</v>
       </c>
       <c r="E183">
-        <v>0.9969425576727086</v>
+        <v>1.00345513845127</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>41694</v>
+        <v>41333</v>
       </c>
       <c r="B184">
-        <v>0.994427290901375</v>
+        <v>1.014057003418698</v>
       </c>
       <c r="C184">
-        <v>0.9986227552630427</v>
+        <v>0.9973885570647493</v>
       </c>
       <c r="D184">
-        <v>0.9976819883060316</v>
+        <v>0.9970845570284371</v>
       </c>
       <c r="E184">
-        <v>0.9973074661124588</v>
+        <v>1.003454194233822</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>41695</v>
+        <v>41334</v>
       </c>
       <c r="B185">
-        <v>0.9947930649908984</v>
+        <v>1.014012008592535</v>
       </c>
       <c r="C185">
-        <v>0.998434403950738</v>
+        <v>0.9978575716212211</v>
       </c>
       <c r="D185">
-        <v>0.9968478096827346</v>
+        <v>0.9972511769889267</v>
       </c>
       <c r="E185">
-        <v>0.9976617765607915</v>
+        <v>1.003280562530372</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>41696</v>
+        <v>41337</v>
       </c>
       <c r="B186">
-        <v>0.9950431158086265</v>
+        <v>1.013987293696446</v>
       </c>
       <c r="C186">
-        <v>0.9982020792331152</v>
+        <v>0.9991378394792243</v>
       </c>
       <c r="D186">
-        <v>0.9971666208777865</v>
+        <v>0.9972391858138553</v>
       </c>
       <c r="E186">
-        <v>0.9973401825997427</v>
+        <v>1.002982726220542</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>41697</v>
+        <v>41338</v>
       </c>
       <c r="B187">
-        <v>0.9951314965943654</v>
+        <v>1.013936650734887</v>
       </c>
       <c r="C187">
-        <v>0.9985522662764132</v>
+        <v>0.9990783224740636</v>
       </c>
       <c r="D187">
-        <v>0.997211651608686</v>
+        <v>0.9970886077841007</v>
       </c>
       <c r="E187">
-        <v>0.9976629751378592</v>
+        <v>1.00272705165017</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>41698</v>
+        <v>41339</v>
       </c>
       <c r="B188">
-        <v>0.9954733629717895</v>
+        <v>1.0138600152781</v>
       </c>
       <c r="C188">
-        <v>0.9987770768912503</v>
+        <v>0.9976709107507532</v>
       </c>
       <c r="D188">
-        <v>0.99784126338367</v>
+        <v>0.9969034965216372</v>
       </c>
       <c r="E188">
-        <v>0.9976028867268321</v>
+        <v>1.003347049211347</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>41701</v>
+        <v>41340</v>
       </c>
       <c r="B189">
-        <v>0.995091262440349</v>
+        <v>1.013831567346274</v>
       </c>
       <c r="C189">
-        <v>0.998921047868603</v>
+        <v>0.9979270039181153</v>
       </c>
       <c r="D189">
-        <v>0.9973375816455946</v>
+        <v>0.9965087254827655</v>
       </c>
       <c r="E189">
-        <v>0.9978502175242263</v>
+        <v>1.002982486897533</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>41702</v>
+        <v>41341</v>
       </c>
       <c r="B190">
-        <v>0.9951978000676432</v>
+        <v>1.013774381389261</v>
       </c>
       <c r="C190">
-        <v>0.9983802585450063</v>
+        <v>0.9975374444259915</v>
       </c>
       <c r="D190">
-        <v>0.9975773902836025</v>
+        <v>0.9964025287382483</v>
       </c>
       <c r="E190">
-        <v>0.9978264023705372</v>
+        <v>1.002804098869817</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>41703</v>
+        <v>41344</v>
       </c>
       <c r="B191">
-        <v>0.995022420236682</v>
+        <v>1.013734950197297</v>
       </c>
       <c r="C191">
-        <v>0.9988374306382886</v>
+        <v>0.9976204810694855</v>
       </c>
       <c r="D191">
-        <v>0.997674299507273</v>
+        <v>0.9958159637391756</v>
       </c>
       <c r="E191">
-        <v>0.9977736268139926</v>
+        <v>1.004064465053957</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>41704</v>
+        <v>41345</v>
       </c>
       <c r="B192">
-        <v>0.9949614536391976</v>
+        <v>1.013654732270717</v>
       </c>
       <c r="C192">
-        <v>0.9992391673341191</v>
+        <v>0.9967161392026914</v>
       </c>
       <c r="D192">
-        <v>0.9976569355852065</v>
+        <v>0.9965208388221902</v>
       </c>
       <c r="E192">
-        <v>0.997798664215972</v>
+        <v>1.003965806282154</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>41705</v>
+        <v>41346</v>
       </c>
       <c r="B193">
-        <v>0.9954525706742485</v>
+        <v>1.013654573444607</v>
       </c>
       <c r="C193">
-        <v>0.9987453642173321</v>
+        <v>0.9977736965991194</v>
       </c>
       <c r="D193">
-        <v>0.9978904052985357</v>
+        <v>0.996455585961607</v>
       </c>
       <c r="E193">
-        <v>0.9973695372502415</v>
+        <v>1.004845356634089</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2">
-        <v>41708</v>
+        <v>41347</v>
       </c>
       <c r="B194">
-        <v>0.9956990870876177</v>
+        <v>1.013612600891156</v>
       </c>
       <c r="C194">
-        <v>0.9986955512633413</v>
+        <v>0.9974207968552792</v>
       </c>
       <c r="D194">
-        <v>0.9980406658357242</v>
+        <v>0.9963413955677953</v>
       </c>
       <c r="E194">
-        <v>0.9974483652155255</v>
+        <v>1.004368690765719</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2">
-        <v>41709</v>
+        <v>41348</v>
       </c>
       <c r="B195">
-        <v>0.9958851661467011</v>
+        <v>1.013568045226234</v>
       </c>
       <c r="C195">
-        <v>0.9994242572302562</v>
+        <v>0.9973548448762795</v>
       </c>
       <c r="D195">
-        <v>0.998010265943613</v>
+        <v>0.9962492399056094</v>
       </c>
       <c r="E195">
-        <v>0.9973598981879446</v>
+        <v>1.004248499328769</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="2">
-        <v>41710</v>
+        <v>41351</v>
       </c>
       <c r="B196">
-        <v>0.9947431253397756</v>
+        <v>1.01352049690463</v>
       </c>
       <c r="C196">
-        <v>0.9994580284007777</v>
+        <v>0.9972811662516805</v>
       </c>
       <c r="D196">
-        <v>0.997968979332315</v>
+        <v>0.9968321414981689</v>
       </c>
       <c r="E196">
-        <v>0.9973761853364642</v>
+        <v>1.00449346504525</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="2">
-        <v>41711</v>
+        <v>41352</v>
       </c>
       <c r="B197">
-        <v>0.9940761324010209</v>
+        <v>1.013484348577329</v>
       </c>
       <c r="C197">
-        <v>1.000380434421764</v>
+        <v>0.9972648631071406</v>
       </c>
       <c r="D197">
-        <v>0.9978581900046544</v>
+        <v>0.9970551741277132</v>
       </c>
       <c r="E197">
-        <v>0.9974230438558117</v>
+        <v>1.004491163086431</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="2">
-        <v>41712</v>
+        <v>41353</v>
       </c>
       <c r="B198">
-        <v>0.9939636188841157</v>
+        <v>1.013414157834353</v>
       </c>
       <c r="C198">
-        <v>1.000341465453291</v>
+        <v>0.997184311687518</v>
       </c>
       <c r="D198">
-        <v>0.9975426027352993</v>
+        <v>0.9963330097901449</v>
       </c>
       <c r="E198">
-        <v>0.9975562295857556</v>
+        <v>1.005032072797528</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="2">
-        <v>41715</v>
+        <v>41354</v>
       </c>
       <c r="B199">
-        <v>0.9950187067784936</v>
+        <v>1.013371003089645</v>
       </c>
       <c r="C199">
-        <v>0.999971155564829</v>
+        <v>0.9969206449998728</v>
       </c>
       <c r="D199">
-        <v>0.9979173890458661</v>
+        <v>0.997339234099258</v>
       </c>
       <c r="E199">
-        <v>0.9974867579814054</v>
+        <v>1.00537081610294</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="2">
-        <v>41716</v>
+        <v>41355</v>
       </c>
       <c r="B200">
-        <v>0.9949359454766163</v>
+        <v>1.013324200688229</v>
       </c>
       <c r="C200">
-        <v>0.9989944925635198</v>
+        <v>0.9969215519592638</v>
       </c>
       <c r="D200">
-        <v>0.9981819161480959</v>
+        <v>0.9977223958121709</v>
       </c>
       <c r="E200">
-        <v>0.9975324141689383</v>
+        <v>1.004669722268482</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="2">
-        <v>41717</v>
+        <v>41358</v>
       </c>
       <c r="B201">
-        <v>0.9958873969977965</v>
+        <v>1.013301367534845</v>
       </c>
       <c r="C201">
-        <v>0.9987607769042417</v>
+        <v>0.9975633292415301</v>
       </c>
       <c r="D201">
-        <v>0.9977731536781126</v>
+        <v>0.9982178871010325</v>
       </c>
       <c r="E201">
-        <v>0.997483805186447</v>
+        <v>1.00440518856866</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="2">
-        <v>41718</v>
+        <v>41359</v>
       </c>
       <c r="B202">
-        <v>0.9959092430023169</v>
+        <v>1.013266446803374</v>
       </c>
       <c r="C202">
-        <v>0.9987342389696395</v>
+        <v>0.9978355073739725</v>
       </c>
       <c r="D202">
-        <v>0.9979066211072163</v>
+        <v>0.9978707954776944</v>
       </c>
       <c r="E202">
-        <v>0.9974804861117994</v>
+        <v>1.004400587454623</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="2">
-        <v>41719</v>
+        <v>41360</v>
       </c>
       <c r="B203">
-        <v>0.9958655496252812</v>
+        <v>1.013216808625099</v>
       </c>
       <c r="C203">
-        <v>0.9988614196719778</v>
+        <v>0.9974354052202663</v>
       </c>
       <c r="D203">
-        <v>0.9983205669502397</v>
+        <v>0.9982356343411932</v>
       </c>
       <c r="E203">
-        <v>0.997690860440661</v>
+        <v>1.004599064694425</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="2">
-        <v>41722</v>
+        <v>41361</v>
       </c>
       <c r="B204">
-        <v>0.9973064540819215</v>
+        <v>1.013161551936161</v>
       </c>
       <c r="C204">
-        <v>0.9988564268428898</v>
+        <v>0.997431006998861</v>
       </c>
       <c r="D204">
-        <v>0.998126955359682</v>
+        <v>0.997863704623613</v>
       </c>
       <c r="E204">
-        <v>0.9979398311571053</v>
+        <v>1.004658448032894</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="2">
-        <v>41723</v>
+        <v>41365</v>
       </c>
       <c r="B205">
-        <v>0.9972151729375116</v>
+        <v>1.013149024681005</v>
       </c>
       <c r="C205">
-        <v>0.9987484771383454</v>
+        <v>0.99800115127654</v>
       </c>
       <c r="D205">
-        <v>0.998256242758548</v>
+        <v>0.9981447265734642</v>
       </c>
       <c r="E205">
-        <v>0.9978993245656768</v>
+        <v>1.004982570026834</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="2">
-        <v>41724</v>
+        <v>41366</v>
       </c>
       <c r="B206">
-        <v>0.9986382660523441</v>
+        <v>1.013125772169288</v>
       </c>
       <c r="C206">
-        <v>0.999265298885802</v>
+        <v>0.9992390013051253</v>
       </c>
       <c r="D206">
-        <v>0.9984478105652975</v>
+        <v>0.9974585765118684</v>
       </c>
       <c r="E206">
-        <v>0.9980552950548071</v>
+        <v>1.004782637165312</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="2">
-        <v>41725</v>
+        <v>41367</v>
       </c>
       <c r="B207">
-        <v>0.9985753496802736</v>
+        <v>1.013156299276631</v>
       </c>
       <c r="C207">
-        <v>0.9994690686599604</v>
+        <v>1.001149730744745</v>
       </c>
       <c r="D207">
-        <v>0.9986676746682639</v>
+        <v>0.9983701290001959</v>
       </c>
       <c r="E207">
-        <v>0.9983704940884727</v>
+        <v>1.005084826516564</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="2">
-        <v>41726</v>
+        <v>41368</v>
       </c>
       <c r="B208">
-        <v>0.9978576371972058</v>
+        <v>1.013096636568284</v>
       </c>
       <c r="C208">
-        <v>0.9994419914574714</v>
+        <v>1.000682884490061</v>
       </c>
       <c r="D208">
-        <v>0.9994526366930125</v>
+        <v>0.9989768194477687</v>
       </c>
       <c r="E208">
-        <v>0.9984960004272646</v>
+        <v>1.005278511368563</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="2">
-        <v>41729</v>
+        <v>41369</v>
       </c>
       <c r="B209">
-        <v>0.9985372616560966</v>
+        <v>1.013059714746822</v>
       </c>
       <c r="C209">
-        <v>0.9989221489870257</v>
+        <v>1.000576560492477</v>
       </c>
       <c r="D209">
-        <v>0.9999915951968503</v>
+        <v>0.9990366632732764</v>
       </c>
       <c r="E209">
-        <v>0.9983516410464673</v>
+        <v>1.005099971917573</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="2">
-        <v>41730</v>
+        <v>41372</v>
       </c>
       <c r="B210">
-        <v>0.9985577734889188</v>
+        <v>1.013014033686263</v>
       </c>
       <c r="C210">
-        <v>0.9986803537952493</v>
+        <v>1.000788345572831</v>
       </c>
       <c r="D210">
-        <v>1.000023644362185</v>
+        <v>0.9987076379068536</v>
       </c>
       <c r="E210">
-        <v>0.9983365941973251</v>
+        <v>1.004972355283862</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="2">
-        <v>41731</v>
+        <v>41373</v>
       </c>
       <c r="B211">
-        <v>0.9979665213645174</v>
+        <v>1.012928930799576</v>
       </c>
       <c r="C211">
-        <v>0.9984528321795488</v>
+        <v>0.9992403746923927</v>
       </c>
       <c r="D211">
-        <v>0.999940664746237</v>
+        <v>0.998354256509501</v>
       </c>
       <c r="E211">
-        <v>0.9981998585263872</v>
+        <v>1.004899466644466</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="2">
-        <v>41732</v>
+        <v>41374</v>
       </c>
       <c r="B212">
-        <v>0.9982585775359092</v>
+        <v>1.012900593905306</v>
       </c>
       <c r="C212">
-        <v>0.9988515363957222</v>
+        <v>1.000373262029738</v>
       </c>
       <c r="D212">
-        <v>0.9998123887183979</v>
+        <v>0.9973913178319076</v>
       </c>
       <c r="E212">
-        <v>0.9983223306963629</v>
+        <v>1.004494287735826</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="2">
-        <v>41733</v>
+        <v>41375</v>
       </c>
       <c r="B213">
-        <v>0.9980379903701078</v>
+        <v>1.012868283241936</v>
       </c>
       <c r="C213">
-        <v>0.9994060636054414</v>
+        <v>1.001039093238979</v>
       </c>
       <c r="D213">
-        <v>1.000058929938671</v>
+        <v>0.9977557872380626</v>
       </c>
       <c r="E213">
-        <v>0.9984445462133607</v>
+        <v>1.003904770549708</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="2">
-        <v>41736</v>
+        <v>41376</v>
       </c>
       <c r="B214">
-        <v>0.9983152813332915</v>
+        <v>1.012895784965684</v>
       </c>
       <c r="C214">
-        <v>1.000321980752118</v>
+        <v>1.002972943574421</v>
       </c>
       <c r="D214">
-        <v>0.9999607344629889</v>
+        <v>0.9977656234133121</v>
       </c>
       <c r="E214">
-        <v>0.9988856811257972</v>
+        <v>1.003988666512606</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="2">
-        <v>41737</v>
+        <v>41379</v>
       </c>
       <c r="B215">
-        <v>0.9978239063149933</v>
+        <v>1.012967458191947</v>
       </c>
       <c r="C215">
-        <v>1.000132443077405</v>
+        <v>1.006480191855682</v>
       </c>
       <c r="D215">
-        <v>0.9999232488830461</v>
+        <v>0.9984717628994944</v>
       </c>
       <c r="E215">
-        <v>0.9991761661784583</v>
+        <v>1.004554386114482</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="2">
-        <v>41738</v>
+        <v>41380</v>
       </c>
       <c r="B216">
-        <v>0.9977164283057472</v>
+        <v>1.012905030047076</v>
       </c>
       <c r="C216">
-        <v>0.9996772439025269</v>
+        <v>1.006465769301639</v>
       </c>
       <c r="D216">
-        <v>1.000054626540712</v>
+        <v>0.9974179288595872</v>
       </c>
       <c r="E216">
-        <v>0.9989361039291047</v>
+        <v>1.004331095892411</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="2">
-        <v>41739</v>
+        <v>41381</v>
       </c>
       <c r="B217">
-        <v>0.9980543875253127</v>
+        <v>1.012932171869796</v>
       </c>
       <c r="C217">
-        <v>1.000689784130109</v>
+        <v>1.008415222054728</v>
       </c>
       <c r="D217">
-        <v>1.00018091248634</v>
+        <v>0.9981192523132041</v>
       </c>
       <c r="E217">
-        <v>0.9993403531532394</v>
+        <v>1.004740251004622</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="2">
-        <v>41740</v>
+        <v>41382</v>
       </c>
       <c r="B218">
-        <v>0.9983411296022598</v>
+        <v>1.012862028211359</v>
       </c>
       <c r="C218">
-        <v>1.001220664475206</v>
+        <v>1.00710270336881</v>
       </c>
       <c r="D218">
-        <v>1.000460862843612</v>
+        <v>0.9984909768910226</v>
       </c>
       <c r="E218">
-        <v>0.9995444627376919</v>
+        <v>1.00441352649015</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="2">
-        <v>41743</v>
+        <v>41383</v>
       </c>
       <c r="B219">
-        <v>0.9978762968903401</v>
+        <v>1.012786607978116</v>
       </c>
       <c r="C219">
-        <v>1.001175558212064</v>
+        <v>1.006855393424746</v>
       </c>
       <c r="D219">
-        <v>1.000666829579625</v>
+        <v>0.9981349451911868</v>
       </c>
       <c r="E219">
-        <v>0.9997074181446112</v>
+        <v>1.004606144060642</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="2">
-        <v>41744</v>
+        <v>41386</v>
       </c>
       <c r="B220">
-        <v>0.9985425039768819</v>
+        <v>1.012748021910153</v>
       </c>
       <c r="C220">
-        <v>1.000748525139181</v>
+        <v>1.006098624024653</v>
       </c>
       <c r="D220">
-        <v>1.000590316757269</v>
+        <v>0.9984276026024949</v>
       </c>
       <c r="E220">
-        <v>0.9996996957645398</v>
+        <v>1.004769277752203</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="2">
-        <v>41745</v>
+        <v>41387</v>
       </c>
       <c r="B221">
-        <v>0.9987966900804228</v>
+        <v>1.012704710885046</v>
       </c>
       <c r="C221">
-        <v>1.000019345478098</v>
+        <v>1.006609194875118</v>
       </c>
       <c r="D221">
-        <v>1.001091495678543</v>
+        <v>0.9979004613600612</v>
       </c>
       <c r="E221">
-        <v>0.9996592238889849</v>
+        <v>1.004915902459312</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="2">
-        <v>41746</v>
+        <v>41388</v>
       </c>
       <c r="B222">
-        <v>0.9989219907311067</v>
+        <v>1.0125787612084</v>
       </c>
       <c r="C222">
-        <v>0.999919564757463</v>
+        <v>1.004398525384602</v>
       </c>
       <c r="D222">
-        <v>1.001173961819957</v>
+        <v>0.9976176566965294</v>
       </c>
       <c r="E222">
-        <v>0.9997245401506987</v>
+        <v>1.005108712521298</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="2">
-        <v>41750</v>
+        <v>41389</v>
       </c>
       <c r="B223">
-        <v>0.9993267468854146</v>
+        <v>1.01250571420824</v>
       </c>
       <c r="C223">
-        <v>0.9998602208596977</v>
+        <v>1.003984206056066</v>
       </c>
       <c r="D223">
-        <v>1.001117596345529</v>
+        <v>0.9972274844054246</v>
       </c>
       <c r="E223">
-        <v>0.9995309350184077</v>
+        <v>1.004885653201157</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="2">
-        <v>41751</v>
+        <v>41390</v>
       </c>
       <c r="B224">
-        <v>0.9987404091456177</v>
+        <v>1.012514094417017</v>
       </c>
       <c r="C224">
-        <v>0.9993938484513994</v>
+        <v>1.005445731935651</v>
       </c>
       <c r="D224">
-        <v>1.000874396335158</v>
+        <v>0.9974549534871374</v>
       </c>
       <c r="E224">
-        <v>0.999434268329123</v>
+        <v>1.005086443932608</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="2">
-        <v>41752</v>
+        <v>41393</v>
       </c>
       <c r="B225">
-        <v>0.9982680607659463</v>
+        <v>1.012449281005874</v>
       </c>
       <c r="C225">
-        <v>0.999640917619302</v>
+        <v>1.005120343112829</v>
       </c>
       <c r="D225">
-        <v>1.000754323104133</v>
+        <v>0.997017787486544</v>
       </c>
       <c r="E225">
-        <v>0.9995075975297109</v>
+        <v>1.005306574060068</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="2">
-        <v>41753</v>
+        <v>41394</v>
       </c>
       <c r="B226">
-        <v>0.9986674843562841</v>
+        <v>1.012354870167591</v>
       </c>
       <c r="C226">
-        <v>0.9993602382911416</v>
+        <v>1.004076051958606</v>
       </c>
       <c r="D226">
-        <v>1.000882509291362</v>
+        <v>0.9963390382994549</v>
       </c>
       <c r="E226">
-        <v>0.9995878515951667</v>
+        <v>1.005535158313853</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="2">
-        <v>41754</v>
+        <v>41395</v>
       </c>
       <c r="B227">
-        <v>0.9981537727159354</v>
+        <v>1.012334157900205</v>
       </c>
       <c r="C227">
-        <v>0.9998250416028134</v>
+        <v>1.005003361963217</v>
       </c>
       <c r="D227">
-        <v>1.000669526501963</v>
+        <v>0.9968576860343245</v>
       </c>
       <c r="E227">
-        <v>0.9997399284311592</v>
+        <v>1.005343908418072</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="2">
-        <v>41757</v>
+        <v>41396</v>
       </c>
       <c r="B228">
-        <v>0.9986794475701839</v>
+        <v>1.012291488051683</v>
       </c>
       <c r="C228">
-        <v>0.9998467229877069</v>
+        <v>1.004660440320884</v>
       </c>
       <c r="D228">
-        <v>1.000386875182277</v>
+        <v>0.9968863825901768</v>
       </c>
       <c r="E228">
-        <v>1.000009333215734</v>
+        <v>1.005227523042177</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="2">
-        <v>41758</v>
+        <v>41397</v>
       </c>
       <c r="B229">
-        <v>0.9981662598795779</v>
+        <v>1.012224600490115</v>
       </c>
       <c r="C229">
-        <v>0.9999222035893404</v>
+        <v>1.004217247547956</v>
       </c>
       <c r="D229">
-        <v>1.00030373023634</v>
+        <v>0.9966045767727004</v>
       </c>
       <c r="E229">
-        <v>1.000365208238817</v>
+        <v>1.005077892090365</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="2">
-        <v>41759</v>
+        <v>41400</v>
       </c>
       <c r="B230">
-        <v>0.9983479418070085</v>
+        <v>1.012191523132211</v>
       </c>
       <c r="C230">
-        <v>0.9994693371235212</v>
+        <v>1.00435637754549</v>
       </c>
       <c r="D230">
-        <v>1.000695470884872</v>
+        <v>0.9964121701382582</v>
       </c>
       <c r="E230">
-        <v>1.000996381065197</v>
+        <v>1.004988632725062</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="2">
-        <v>41760</v>
+        <v>41401</v>
       </c>
       <c r="B231">
-        <v>0.9985608400024544</v>
+        <v>1.012157774943138</v>
       </c>
       <c r="C231">
-        <v>0.9986476012470881</v>
+        <v>1.004956452329377</v>
       </c>
       <c r="D231">
-        <v>0.999998178770207</v>
+        <v>0.9962283368149194</v>
       </c>
       <c r="E231">
-        <v>0.9998860282933644</v>
+        <v>1.004413652150233</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="2">
-        <v>41761</v>
+        <v>41402</v>
       </c>
       <c r="B232">
-        <v>0.9976061311793539</v>
+        <v>1.012027390655958</v>
       </c>
       <c r="C232">
-        <v>0.9982697115556106</v>
+        <v>1.002833537157706</v>
       </c>
       <c r="D232">
-        <v>0.9999745981093451</v>
+        <v>0.9965588441726726</v>
       </c>
       <c r="E232">
-        <v>1.000020002635024</v>
+        <v>1.00443272996383</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="2">
-        <v>41764</v>
+        <v>41403</v>
       </c>
       <c r="B233">
-        <v>0.9979103559218668</v>
+        <v>1.012011213058234</v>
       </c>
       <c r="C233">
-        <v>0.9989389034471523</v>
+        <v>1.003132456822428</v>
       </c>
       <c r="D233">
-        <v>1.000075240257561</v>
+        <v>0.9963449974556809</v>
       </c>
       <c r="E233">
-        <v>1.000359529522759</v>
+        <v>1.004754585013774</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="2">
-        <v>41765</v>
+        <v>41404</v>
       </c>
       <c r="B234">
-        <v>0.9981376782484386</v>
+        <v>1.011964043340451</v>
       </c>
       <c r="C234">
-        <v>0.999801176132268</v>
+        <v>1.003015250103386</v>
       </c>
       <c r="D234">
-        <v>1.000176862474047</v>
+        <v>0.9956670729761539</v>
       </c>
       <c r="E234">
-        <v>1.000487154691271</v>
+        <v>1.004585716442497</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="2">
-        <v>41766</v>
+        <v>41407</v>
       </c>
       <c r="B235">
-        <v>0.9987062415546274</v>
+        <v>1.01194757134631</v>
       </c>
       <c r="C235">
-        <v>0.9997460298029907</v>
+        <v>1.003881875663489</v>
       </c>
       <c r="D235">
-        <v>1.000757437297868</v>
+        <v>0.9954620516033882</v>
       </c>
       <c r="E235">
-        <v>1.000523260625496</v>
+        <v>1.004733183795239</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="2">
-        <v>41767</v>
+        <v>41408</v>
       </c>
       <c r="B236">
-        <v>0.9989252068714876</v>
+        <v>1.011889660364145</v>
       </c>
       <c r="C236">
-        <v>1.000434720232944</v>
+        <v>1.003854052553925</v>
       </c>
       <c r="D236">
-        <v>1.000543696137124</v>
+        <v>0.9951620752707944</v>
       </c>
       <c r="E236">
-        <v>1.000630157055881</v>
+        <v>1.004288122769768</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="2">
-        <v>41768</v>
+        <v>41409</v>
       </c>
       <c r="B237">
-        <v>0.9987413003036297</v>
+        <v>1.011876247780076</v>
       </c>
       <c r="C237">
-        <v>1.000379577100964</v>
+        <v>1.005156390128654</v>
       </c>
       <c r="D237">
-        <v>1.000402303398246</v>
+        <v>0.9949585703226083</v>
       </c>
       <c r="E237">
-        <v>1.000334676474007</v>
+        <v>1.004166587416918</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="2">
-        <v>41771</v>
+        <v>41410</v>
       </c>
       <c r="B238">
-        <v>0.9982354703188983</v>
+        <v>1.011824237550607</v>
       </c>
       <c r="C238">
-        <v>0.9995072696462428</v>
+        <v>1.004868705204229</v>
       </c>
       <c r="D238">
-        <v>1.000562147087723</v>
+        <v>0.994980996236513</v>
       </c>
       <c r="E238">
-        <v>1.000421410864856</v>
+        <v>1.003959213112228</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="2">
-        <v>41772</v>
+        <v>41411</v>
       </c>
       <c r="B239">
-        <v>0.998407227396394</v>
+        <v>1.011802133263936</v>
       </c>
       <c r="C239">
-        <v>0.9993043618282859</v>
+        <v>1.005425426310097</v>
       </c>
       <c r="D239">
-        <v>1.000563112234204</v>
+        <v>0.9937507983293458</v>
       </c>
       <c r="E239">
-        <v>1.000327478535725</v>
+        <v>1.003558922805943</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="2">
-        <v>41773</v>
+        <v>41414</v>
       </c>
       <c r="B240">
-        <v>0.9979399684638943</v>
+        <v>1.011757535732821</v>
       </c>
       <c r="C240">
-        <v>0.9996373782666601</v>
+        <v>1.005420788540158</v>
       </c>
       <c r="D240">
-        <v>1.000687579467499</v>
+        <v>0.9938086494970612</v>
       </c>
       <c r="E240">
-        <v>1.000500328888161</v>
+        <v>1.003575721066168</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="2">
-        <v>41774</v>
+        <v>41415</v>
       </c>
       <c r="B241">
-        <v>0.9985946403278846</v>
+        <v>1.011680040715914</v>
       </c>
       <c r="C241">
-        <v>1.000229370534559</v>
+        <v>1.004181620551374</v>
       </c>
       <c r="D241">
-        <v>1.000359099301886</v>
+        <v>0.9937528358233475</v>
       </c>
       <c r="E241">
-        <v>1.000287168561547</v>
+        <v>1.003540222478711</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="2">
-        <v>41775</v>
+        <v>41416</v>
       </c>
       <c r="B242">
-        <v>0.9990316606277725</v>
+        <v>1.011612477789204</v>
       </c>
       <c r="C242">
-        <v>1.000477795422694</v>
+        <v>1.003181100478637</v>
       </c>
       <c r="D242">
-        <v>1.000345428434803</v>
+        <v>0.9942169656966746</v>
       </c>
       <c r="E242">
-        <v>1.000115102678858</v>
+        <v>1.003538932763878</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="2">
-        <v>41778</v>
+        <v>41417</v>
       </c>
       <c r="B243">
-        <v>0.9990244378966123</v>
+        <v>1.011611155545447</v>
       </c>
       <c r="C243">
-        <v>1.000533303214449</v>
+        <v>1.003442749857078</v>
       </c>
       <c r="D243">
-        <v>1.000308847612613</v>
+        <v>0.9949168004678154</v>
       </c>
       <c r="E243">
-        <v>1.00014695721796</v>
+        <v>1.003624888789121</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="2">
-        <v>41779</v>
+        <v>41418</v>
       </c>
       <c r="B244">
-        <v>0.9988197153035742</v>
+        <v>1.011558021485031</v>
       </c>
       <c r="C244">
-        <v>1.000597854079549</v>
+        <v>1.003620028840507</v>
       </c>
       <c r="D244">
-        <v>1.000134451584815</v>
+        <v>0.9947467016016348</v>
       </c>
       <c r="E244">
-        <v>1.000075997682949</v>
+        <v>1.003639128063921</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="2">
-        <v>41780</v>
+        <v>41421</v>
       </c>
       <c r="B245">
-        <v>0.9985662358566028</v>
+        <v>1.01148702802249</v>
       </c>
       <c r="C245">
-        <v>0.9999379026905025</v>
+        <v>1.003378118253782</v>
       </c>
       <c r="D245">
-        <v>1.00027297895593</v>
+        <v>0.9947296123778945</v>
       </c>
       <c r="E245">
-        <v>1.000148321803854</v>
+        <v>1.0036577648736</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="2">
-        <v>41781</v>
+        <v>41422</v>
       </c>
       <c r="B246">
-        <v>0.9984362045745026</v>
+        <v>1.011448261507815</v>
       </c>
       <c r="C246">
-        <v>0.9999945914008413</v>
+        <v>1.003448462894849</v>
       </c>
       <c r="D246">
-        <v>1.000313730120867</v>
+        <v>0.994170246192618</v>
       </c>
       <c r="E246">
-        <v>1.00000989162379</v>
+        <v>1.003421661107595</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="2">
-        <v>41782</v>
+        <v>41423</v>
       </c>
       <c r="B247">
-        <v>0.9986821903241517</v>
+        <v>1.011372231127525</v>
       </c>
       <c r="C247">
-        <v>0.9999796720043812</v>
+        <v>1.002382157064479</v>
       </c>
       <c r="D247">
-        <v>1.000356298299337</v>
+        <v>0.9949751099065699</v>
       </c>
       <c r="E247">
-        <v>1.000006817726956</v>
+        <v>1.00350741732617</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="2">
-        <v>41785</v>
+        <v>41424</v>
       </c>
       <c r="B248">
-        <v>0.9987692833411412</v>
+        <v>1.011280951284721</v>
       </c>
       <c r="C248">
-        <v>0.9998786719331059</v>
+        <v>1.001013379886051</v>
       </c>
       <c r="D248">
-        <v>1.000278006511424</v>
+        <v>0.9955804338870496</v>
       </c>
       <c r="E248">
-        <v>1.000122736539936</v>
+        <v>1.003826731948963</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="2">
-        <v>41786</v>
+        <v>41425</v>
       </c>
       <c r="B249">
-        <v>0.999893576066717</v>
+        <v>1.011254284814403</v>
       </c>
       <c r="C249">
-        <v>0.9999066184897902</v>
+        <v>1.001411760459675</v>
       </c>
       <c r="D249">
-        <v>1.000358518898235</v>
+        <v>0.9962506005230273</v>
       </c>
       <c r="E249">
-        <v>1.000051427868747</v>
+        <v>1.003799209870105</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="2">
-        <v>41787</v>
+        <v>41428</v>
       </c>
       <c r="B250">
-        <v>1.000508202982513</v>
+        <v>1.011204365926886</v>
       </c>
       <c r="C250">
-        <v>1.000254821557539</v>
+        <v>1.001219785583113</v>
       </c>
       <c r="D250">
-        <v>1.00021529515201</v>
+        <v>0.9968182077164339</v>
       </c>
       <c r="E250">
-        <v>1.000079376866881</v>
+        <v>1.003631843629294</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="2">
-        <v>41788</v>
+        <v>41429</v>
       </c>
       <c r="B251">
-        <v>1.000406333897905</v>
+        <v>1.011171025613434</v>
       </c>
       <c r="C251">
-        <v>1.000123197189777</v>
+        <v>1.00150051918517</v>
       </c>
       <c r="D251">
-        <v>0.9995153647122346</v>
+        <v>0.9968134423529356</v>
       </c>
       <c r="E251">
-        <v>1.000049548719884</v>
+        <v>1.003635765670143</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="2">
-        <v>41789</v>
+        <v>41430</v>
       </c>
       <c r="B252">
-        <v>1.000044074310473</v>
+        <v>1.011143124757022</v>
       </c>
       <c r="C252">
-        <v>1.000317543361869</v>
+        <v>1.001684106565617</v>
       </c>
       <c r="D252">
-        <v>0.9995350423992981</v>
+        <v>0.997920815596544</v>
       </c>
       <c r="E252">
-        <v>1.000043589985066</v>
+        <v>1.004154715877483</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="2">
+        <v>41431</v>
+      </c>
+      <c r="B253">
+        <v>1.011096497123521</v>
+      </c>
+      <c r="C253">
+        <v>1.001651012186972</v>
+      </c>
+      <c r="D253">
+        <v>0.9981298540025206</v>
+      </c>
+      <c r="E253">
+        <v>1.004174951820549</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="2">
+        <v>41432</v>
+      </c>
+      <c r="B254">
+        <v>1.011079165669394</v>
+      </c>
+      <c r="C254">
+        <v>1.003135939960077</v>
+      </c>
+      <c r="D254">
+        <v>0.9974159435878212</v>
+      </c>
+      <c r="E254">
+        <v>1.004038592094431</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="2">
+        <v>41435</v>
+      </c>
+      <c r="B255">
+        <v>1.011036945445057</v>
+      </c>
+      <c r="C255">
+        <v>1.003008836048627</v>
+      </c>
+      <c r="D255">
+        <v>0.9974790636967945</v>
+      </c>
+      <c r="E255">
+        <v>1.004115948553033</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="2">
+        <v>41436</v>
+      </c>
+      <c r="B256">
+        <v>1.011028312558285</v>
+      </c>
+      <c r="C256">
+        <v>1.004491869004336</v>
+      </c>
+      <c r="D256">
+        <v>0.9975940956185299</v>
+      </c>
+      <c r="E256">
+        <v>1.004025223934459</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="2">
+        <v>41437</v>
+      </c>
+      <c r="B257">
+        <v>1.010992050686735</v>
+      </c>
+      <c r="C257">
+        <v>1.004458682799386</v>
+      </c>
+      <c r="D257">
+        <v>0.9985505905655903</v>
+      </c>
+      <c r="E257">
+        <v>1.004325124348105</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="2">
+        <v>41438</v>
+      </c>
+      <c r="B258">
+        <v>1.010904104283836</v>
+      </c>
+      <c r="C258">
+        <v>1.003832025525208</v>
+      </c>
+      <c r="D258">
+        <v>0.9974257550011265</v>
+      </c>
+      <c r="E258">
+        <v>1.004525637876106</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="2">
+        <v>41439</v>
+      </c>
+      <c r="B259">
+        <v>1.010897105800333</v>
+      </c>
+      <c r="C259">
+        <v>1.004553609471804</v>
+      </c>
+      <c r="D259">
+        <v>0.9978581674946386</v>
+      </c>
+      <c r="E259">
+        <v>1.004656184520701</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="2">
+        <v>41442</v>
+      </c>
+      <c r="B260">
+        <v>1.010841383394078</v>
+      </c>
+      <c r="C260">
+        <v>1.004077111426129</v>
+      </c>
+      <c r="D260">
+        <v>0.9973383017952049</v>
+      </c>
+      <c r="E260">
+        <v>1.004377928734676</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="2">
+        <v>41443</v>
+      </c>
+      <c r="B261">
+        <v>1.010821447627107</v>
+      </c>
+      <c r="C261">
+        <v>1.00473612995219</v>
+      </c>
+      <c r="D261">
+        <v>0.9963381636146798</v>
+      </c>
+      <c r="E261">
+        <v>1.004420169892564</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="2">
+        <v>41444</v>
+      </c>
+      <c r="B262">
+        <v>1.010806439273695</v>
+      </c>
+      <c r="C262">
+        <v>1.005640280133304</v>
+      </c>
+      <c r="D262">
+        <v>0.996502965042951</v>
+      </c>
+      <c r="E262">
+        <v>1.004154247649856</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="2">
+        <v>41445</v>
+      </c>
+      <c r="B263">
+        <v>1.010860900105079</v>
+      </c>
+      <c r="C263">
+        <v>1.008567026463578</v>
+      </c>
+      <c r="D263">
+        <v>0.9970372992693527</v>
+      </c>
+      <c r="E263">
+        <v>1.004457474503029</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="2">
+        <v>41446</v>
+      </c>
+      <c r="B264">
+        <v>1.010803036484919</v>
+      </c>
+      <c r="C264">
+        <v>1.007995065405013</v>
+      </c>
+      <c r="D264">
+        <v>0.9973985311962528</v>
+      </c>
+      <c r="E264">
+        <v>1.004465785470348</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="2">
+        <v>41449</v>
+      </c>
+      <c r="B265">
+        <v>1.010837172454917</v>
+      </c>
+      <c r="C265">
+        <v>1.00980381268101</v>
+      </c>
+      <c r="D265">
+        <v>0.997976246413825</v>
+      </c>
+      <c r="E265">
+        <v>1.005041075446814</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="2">
+        <v>41450</v>
+      </c>
+      <c r="B266">
+        <v>1.010758954538392</v>
+      </c>
+      <c r="C266">
+        <v>1.009138441718577</v>
+      </c>
+      <c r="D266">
+        <v>0.9968946393775114</v>
+      </c>
+      <c r="E266">
+        <v>1.005026777968402</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="2">
+        <v>41451</v>
+      </c>
+      <c r="B267">
+        <v>1.010760177795538</v>
+      </c>
+      <c r="C267">
+        <v>1.010709535225741</v>
+      </c>
+      <c r="D267">
+        <v>0.9961449206177778</v>
+      </c>
+      <c r="E267">
+        <v>1.005091367781619</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="2">
+        <v>41452</v>
+      </c>
+      <c r="B268">
+        <v>1.010665368363167</v>
+      </c>
+      <c r="C268">
+        <v>1.009878871241051</v>
+      </c>
+      <c r="D268">
+        <v>0.9961561141986005</v>
+      </c>
+      <c r="E268">
+        <v>1.004660345497644</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="2">
+        <v>41453</v>
+      </c>
+      <c r="B269">
+        <v>1.010543514940906</v>
+      </c>
+      <c r="C269">
+        <v>1.007571168360545</v>
+      </c>
+      <c r="D269">
+        <v>0.9976376068167631</v>
+      </c>
+      <c r="E269">
+        <v>1.002211593763292</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="2">
+        <v>41456</v>
+      </c>
+      <c r="B270">
+        <v>1.01049889055343</v>
+      </c>
+      <c r="C270">
+        <v>1.00756762349069</v>
+      </c>
+      <c r="D270">
+        <v>0.9976976716041881</v>
+      </c>
+      <c r="E270">
+        <v>1.002229627134996</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="2">
+        <v>41457</v>
+      </c>
+      <c r="B271">
+        <v>1.010488236711204</v>
+      </c>
+      <c r="C271">
+        <v>1.008358871767428</v>
+      </c>
+      <c r="D271">
+        <v>0.9971304091284495</v>
+      </c>
+      <c r="E271">
+        <v>1.001171957164955</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="2">
+        <v>41458</v>
+      </c>
+      <c r="B272">
+        <v>1.010432402827852</v>
+      </c>
+      <c r="C272">
+        <v>1.008031148156539</v>
+      </c>
+      <c r="D272">
+        <v>0.997668990437017</v>
+      </c>
+      <c r="E272">
+        <v>1.001307859056794</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="2">
+        <v>41459</v>
+      </c>
+      <c r="B273">
+        <v>1.010382171630465</v>
+      </c>
+      <c r="C273">
+        <v>1.008016168749523</v>
+      </c>
+      <c r="D273">
+        <v>0.9975627775848414</v>
+      </c>
+      <c r="E273">
+        <v>1.00126517620834</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="2">
+        <v>41460</v>
+      </c>
+      <c r="B274">
+        <v>1.010372090094731</v>
+      </c>
+      <c r="C274">
+        <v>1.008883444985471</v>
+      </c>
+      <c r="D274">
+        <v>0.9975982357221778</v>
+      </c>
+      <c r="E274">
+        <v>1.001217705652831</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="2">
+        <v>41463</v>
+      </c>
+      <c r="B275">
+        <v>1.010312785234071</v>
+      </c>
+      <c r="C275">
+        <v>1.008917745779341</v>
+      </c>
+      <c r="D275">
+        <v>0.9969459147002561</v>
+      </c>
+      <c r="E275">
+        <v>1.000993579318151</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="2">
+        <v>41464</v>
+      </c>
+      <c r="B276">
+        <v>1.010246521183036</v>
+      </c>
+      <c r="C276">
+        <v>1.008314091757171</v>
+      </c>
+      <c r="D276">
+        <v>0.9965440406882746</v>
+      </c>
+      <c r="E276">
+        <v>1.000888051898321</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="2">
+        <v>41465</v>
+      </c>
+      <c r="B277">
+        <v>1.010199542204836</v>
+      </c>
+      <c r="C277">
+        <v>1.008213937326823</v>
+      </c>
+      <c r="D277">
+        <v>0.9966567847346068</v>
+      </c>
+      <c r="E277">
+        <v>1.000510369701136</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="2">
+        <v>41466</v>
+      </c>
+      <c r="B278">
+        <v>1.010054901313568</v>
+      </c>
+      <c r="C278">
+        <v>1.005856113101165</v>
+      </c>
+      <c r="D278">
+        <v>0.9967601598056974</v>
+      </c>
+      <c r="E278">
+        <v>1.000331774248334</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="2">
+        <v>41467</v>
+      </c>
+      <c r="B279">
+        <v>1.010027965967625</v>
+      </c>
+      <c r="C279">
+        <v>1.006621499535566</v>
+      </c>
+      <c r="D279">
+        <v>0.9968018479874733</v>
+      </c>
+      <c r="E279">
+        <v>1.000269254431277</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="2">
+        <v>41470</v>
+      </c>
+      <c r="B280">
+        <v>1.009966492704642</v>
+      </c>
+      <c r="C280">
+        <v>1.006348507032041</v>
+      </c>
+      <c r="D280">
+        <v>0.9965172920948655</v>
+      </c>
+      <c r="E280">
+        <v>1.000350922139275</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="2">
+        <v>41471</v>
+      </c>
+      <c r="B281">
+        <v>1.009882720147764</v>
+      </c>
+      <c r="C281">
+        <v>1.004931228628006</v>
+      </c>
+      <c r="D281">
+        <v>0.9976732677497298</v>
+      </c>
+      <c r="E281">
+        <v>1.000355938805311</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="2">
+        <v>41472</v>
+      </c>
+      <c r="B282">
+        <v>1.009842876434904</v>
+      </c>
+      <c r="C282">
+        <v>1.005514398523219</v>
+      </c>
+      <c r="D282">
+        <v>0.9969729041324518</v>
+      </c>
+      <c r="E282">
+        <v>1.000309786162679</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="2">
+        <v>41473</v>
+      </c>
+      <c r="B283">
+        <v>1.009774808859278</v>
+      </c>
+      <c r="C283">
+        <v>1.005577725216355</v>
+      </c>
+      <c r="D283">
+        <v>0.9965318413414626</v>
+      </c>
+      <c r="E283">
+        <v>0.9999467443854729</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="2">
+        <v>41474</v>
+      </c>
+      <c r="B284">
+        <v>1.009710027410855</v>
+      </c>
+      <c r="C284">
+        <v>1.004370025116667</v>
+      </c>
+      <c r="D284">
+        <v>0.9970676980776565</v>
+      </c>
+      <c r="E284">
+        <v>0.9999091130842246</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="2">
+        <v>41477</v>
+      </c>
+      <c r="B285">
+        <v>1.009595176511315</v>
+      </c>
+      <c r="C285">
+        <v>1.002232830908262</v>
+      </c>
+      <c r="D285">
+        <v>0.9978045913416751</v>
+      </c>
+      <c r="E285">
+        <v>1.000203932995102</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="2">
+        <v>41478</v>
+      </c>
+      <c r="B286">
+        <v>1.009524649383646</v>
+      </c>
+      <c r="C286">
+        <v>1.001382082249523</v>
+      </c>
+      <c r="D286">
+        <v>0.9981307008522842</v>
+      </c>
+      <c r="E286">
+        <v>1.000142699358615</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="2">
+        <v>41479</v>
+      </c>
+      <c r="B287">
+        <v>1.009503091324162</v>
+      </c>
+      <c r="C287">
+        <v>1.002868467442139</v>
+      </c>
+      <c r="D287">
+        <v>0.9977696239400202</v>
+      </c>
+      <c r="E287">
+        <v>1.000120150088868</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="2">
+        <v>41480</v>
+      </c>
+      <c r="B288">
+        <v>1.009449797919923</v>
+      </c>
+      <c r="C288">
+        <v>1.002670202931661</v>
+      </c>
+      <c r="D288">
+        <v>0.9978949894495188</v>
+      </c>
+      <c r="E288">
+        <v>1.00015230045908</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="2">
+        <v>41481</v>
+      </c>
+      <c r="B289">
+        <v>1.009382128776651</v>
+      </c>
+      <c r="C289">
+        <v>1.002274662258398</v>
+      </c>
+      <c r="D289">
+        <v>0.9982122632703132</v>
+      </c>
+      <c r="E289">
+        <v>1.000136433708524</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="2">
+        <v>41484</v>
+      </c>
+      <c r="B290">
+        <v>1.009342535827552</v>
+      </c>
+      <c r="C290">
+        <v>1.002515210710066</v>
+      </c>
+      <c r="D290">
+        <v>0.9983030110007098</v>
+      </c>
+      <c r="E290">
+        <v>0.9998767220654303</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="2">
+        <v>41485</v>
+      </c>
+      <c r="B291">
+        <v>1.009316137096869</v>
+      </c>
+      <c r="C291">
+        <v>1.00288138765508</v>
+      </c>
+      <c r="D291">
+        <v>0.9984731494130386</v>
+      </c>
+      <c r="E291">
+        <v>0.9999575556885001</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="2">
+        <v>41486</v>
+      </c>
+      <c r="B292">
+        <v>1.009291565223462</v>
+      </c>
+      <c r="C292">
+        <v>1.003610134074053</v>
+      </c>
+      <c r="D292">
+        <v>0.9987008819004213</v>
+      </c>
+      <c r="E292">
+        <v>1.000188443403075</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="2">
+        <v>41487</v>
+      </c>
+      <c r="B293">
+        <v>1.009216298691047</v>
+      </c>
+      <c r="C293">
+        <v>1.003872707582979</v>
+      </c>
+      <c r="D293">
+        <v>0.9973531719616067</v>
+      </c>
+      <c r="E293">
+        <v>0.9998386017205827</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="2">
+        <v>41488</v>
+      </c>
+      <c r="B294">
+        <v>1.009181247593762</v>
+      </c>
+      <c r="C294">
+        <v>1.004200596772124</v>
+      </c>
+      <c r="D294">
+        <v>0.9971052999489276</v>
+      </c>
+      <c r="E294">
+        <v>1.000016038074492</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="2">
+        <v>41491</v>
+      </c>
+      <c r="B295">
+        <v>1.009136486803691</v>
+      </c>
+      <c r="C295">
+        <v>1.004199691276786</v>
+      </c>
+      <c r="D295">
+        <v>0.997170081086086</v>
+      </c>
+      <c r="E295">
+        <v>1.000037031910214</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="2">
+        <v>41492</v>
+      </c>
+      <c r="B296">
+        <v>1.009154703383519</v>
+      </c>
+      <c r="C296">
+        <v>1.00595283290298</v>
+      </c>
+      <c r="D296">
+        <v>0.9968113354973355</v>
+      </c>
+      <c r="E296">
+        <v>1.000711417183245</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="2">
+        <v>41493</v>
+      </c>
+      <c r="B297">
+        <v>1.009115406066178</v>
+      </c>
+      <c r="C297">
+        <v>1.006090269773963</v>
+      </c>
+      <c r="D297">
+        <v>0.9973641488565721</v>
+      </c>
+      <c r="E297">
+        <v>1.000578889411016</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="2">
+        <v>41494</v>
+      </c>
+      <c r="B298">
+        <v>1.008955497430797</v>
+      </c>
+      <c r="C298">
+        <v>1.003448830315034</v>
+      </c>
+      <c r="D298">
+        <v>0.9977061453389208</v>
+      </c>
+      <c r="E298">
+        <v>1.000607447872478</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="2">
+        <v>41495</v>
+      </c>
+      <c r="B299">
+        <v>1.00889918806923</v>
+      </c>
+      <c r="C299">
+        <v>1.002886745937303</v>
+      </c>
+      <c r="D299">
+        <v>0.9976609838513276</v>
+      </c>
+      <c r="E299">
+        <v>1.001178267856689</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="2">
+        <v>41498</v>
+      </c>
+      <c r="B300">
+        <v>1.00880635661153</v>
+      </c>
+      <c r="C300">
+        <v>1.001122661111085</v>
+      </c>
+      <c r="D300">
+        <v>0.9979457097328107</v>
+      </c>
+      <c r="E300">
+        <v>1.002330096871425</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="2">
+        <v>41499</v>
+      </c>
+      <c r="B301">
+        <v>1.008740626816389</v>
+      </c>
+      <c r="C301">
+        <v>1.001379547504342</v>
+      </c>
+      <c r="D301">
+        <v>0.9974791972834395</v>
+      </c>
+      <c r="E301">
+        <v>1.002350686070989</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="2">
+        <v>41500</v>
+      </c>
+      <c r="B302">
+        <v>1.008660070093017</v>
+      </c>
+      <c r="C302">
+        <v>1.000171851969558</v>
+      </c>
+      <c r="D302">
+        <v>0.9982529244734533</v>
+      </c>
+      <c r="E302">
+        <v>1.002673469467683</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="2">
+        <v>41501</v>
+      </c>
+      <c r="B303">
+        <v>1.008569681950107</v>
+      </c>
+      <c r="C303">
+        <v>0.9982650322834615</v>
+      </c>
+      <c r="D303">
+        <v>0.9992458015106899</v>
+      </c>
+      <c r="E303">
+        <v>1.002784178555145</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="2">
+        <v>41502</v>
+      </c>
+      <c r="B304">
+        <v>1.008532408140548</v>
+      </c>
+      <c r="C304">
+        <v>0.9985296867549476</v>
+      </c>
+      <c r="D304">
+        <v>0.999041198358502</v>
+      </c>
+      <c r="E304">
+        <v>1.002305733362361</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="2">
+        <v>41505</v>
+      </c>
+      <c r="B305">
+        <v>1.008523106176354</v>
+      </c>
+      <c r="C305">
+        <v>0.9993022902705661</v>
+      </c>
+      <c r="D305">
+        <v>0.9999984632988782</v>
+      </c>
+      <c r="E305">
+        <v>1.002532518653646</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="2">
+        <v>41506</v>
+      </c>
+      <c r="B306">
+        <v>1.008446554854661</v>
+      </c>
+      <c r="C306">
+        <v>0.9981831180881049</v>
+      </c>
+      <c r="D306">
+        <v>1.000147115038872</v>
+      </c>
+      <c r="E306">
+        <v>1.002660832943059</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="2">
+        <v>41507</v>
+      </c>
+      <c r="B307">
+        <v>1.008450142975843</v>
+      </c>
+      <c r="C307">
+        <v>0.9994508455916667</v>
+      </c>
+      <c r="D307">
+        <v>1.000345571958718</v>
+      </c>
+      <c r="E307">
+        <v>1.002650918901615</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="2">
+        <v>41508</v>
+      </c>
+      <c r="B308">
+        <v>1.008358820221864</v>
+      </c>
+      <c r="C308">
+        <v>0.9983425515902953</v>
+      </c>
+      <c r="D308">
+        <v>0.9999030289856191</v>
+      </c>
+      <c r="E308">
+        <v>1.002459043081668</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="2">
+        <v>41509</v>
+      </c>
+      <c r="B309">
+        <v>1.008275945674733</v>
+      </c>
+      <c r="C309">
+        <v>0.9973744941544093</v>
+      </c>
+      <c r="D309">
+        <v>0.9999947095068028</v>
+      </c>
+      <c r="E309">
+        <v>1.002549783002179</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="2">
+        <v>41512</v>
+      </c>
+      <c r="B310">
+        <v>1.008226195381944</v>
+      </c>
+      <c r="C310">
+        <v>0.99701059863727</v>
+      </c>
+      <c r="D310">
+        <v>1.000327882915076</v>
+      </c>
+      <c r="E310">
+        <v>1.00273959826992</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="2">
+        <v>41513</v>
+      </c>
+      <c r="B311">
+        <v>1.008268822680465</v>
+      </c>
+      <c r="C311">
+        <v>0.9987073187466242</v>
+      </c>
+      <c r="D311">
+        <v>1.000975811835778</v>
+      </c>
+      <c r="E311">
+        <v>1.002567363794696</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="2">
+        <v>41514</v>
+      </c>
+      <c r="B312">
+        <v>1.008255062593732</v>
+      </c>
+      <c r="C312">
+        <v>0.999200471802644</v>
+      </c>
+      <c r="D312">
+        <v>1.000413212441298</v>
+      </c>
+      <c r="E312">
+        <v>1.002695359324687</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="2">
+        <v>41515</v>
+      </c>
+      <c r="B313">
+        <v>1.008178467826098</v>
+      </c>
+      <c r="C313">
+        <v>0.9989662223384439</v>
+      </c>
+      <c r="D313">
+        <v>1.00037367505549</v>
+      </c>
+      <c r="E313">
+        <v>1.002633852529617</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="2">
+        <v>41516</v>
+      </c>
+      <c r="B314">
+        <v>1.008149928232179</v>
+      </c>
+      <c r="C314">
+        <v>0.9993892804071249</v>
+      </c>
+      <c r="D314">
+        <v>1.000501480355494</v>
+      </c>
+      <c r="E314">
+        <v>1.002565201418198</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="2">
+        <v>41520</v>
+      </c>
+      <c r="B315">
+        <v>1.008071159162907</v>
+      </c>
+      <c r="C315">
+        <v>0.998810030370604</v>
+      </c>
+      <c r="D315">
+        <v>1.000249026013697</v>
+      </c>
+      <c r="E315">
+        <v>1.00254283671613</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="2">
+        <v>41521</v>
+      </c>
+      <c r="B316">
+        <v>1.008019187588483</v>
+      </c>
+      <c r="C316">
+        <v>0.9987137842055135</v>
+      </c>
+      <c r="D316">
+        <v>0.9999398007536032</v>
+      </c>
+      <c r="E316">
+        <v>1.002964313357052</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="2">
+        <v>41522</v>
+      </c>
+      <c r="B317">
+        <v>1.007999225136398</v>
+      </c>
+      <c r="C317">
+        <v>0.999329161269907</v>
+      </c>
+      <c r="D317">
+        <v>0.9986862475109638</v>
+      </c>
+      <c r="E317">
+        <v>1.002830032941968</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="2">
+        <v>41523</v>
+      </c>
+      <c r="B318">
+        <v>1.007955439280111</v>
+      </c>
+      <c r="C318">
+        <v>0.999204445714727</v>
+      </c>
+      <c r="D318">
+        <v>0.9992216303346899</v>
+      </c>
+      <c r="E318">
+        <v>1.002734855040968</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="2">
+        <v>41526</v>
+      </c>
+      <c r="B319">
+        <v>1.007916235327337</v>
+      </c>
+      <c r="C319">
+        <v>0.9994029003069888</v>
+      </c>
+      <c r="D319">
+        <v>0.9985465352384926</v>
+      </c>
+      <c r="E319">
+        <v>1.003146356090183</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="2">
+        <v>41527</v>
+      </c>
+      <c r="B320">
+        <v>1.007889757466551</v>
+      </c>
+      <c r="C320">
+        <v>1.000613269304847</v>
+      </c>
+      <c r="D320">
+        <v>0.9980752783423305</v>
+      </c>
+      <c r="E320">
+        <v>1.00252123557982</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="2">
+        <v>41528</v>
+      </c>
+      <c r="B321">
+        <v>1.00784336905375</v>
+      </c>
+      <c r="C321">
+        <v>1.000517666630808</v>
+      </c>
+      <c r="D321">
+        <v>0.998185951382126</v>
+      </c>
+      <c r="E321">
+        <v>1.001948069072012</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="2">
+        <v>41529</v>
+      </c>
+      <c r="B322">
+        <v>1.007875338594545</v>
+      </c>
+      <c r="C322">
+        <v>1.002277170134461</v>
+      </c>
+      <c r="D322">
+        <v>0.9981302998839748</v>
+      </c>
+      <c r="E322">
+        <v>1.002028919724844</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="2">
+        <v>41530</v>
+      </c>
+      <c r="B323">
+        <v>1.007822076505662</v>
+      </c>
+      <c r="C323">
+        <v>1.001694286652453</v>
+      </c>
+      <c r="D323">
+        <v>0.9985214083491353</v>
+      </c>
+      <c r="E323">
+        <v>1.001951876456222</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="2">
+        <v>41533</v>
+      </c>
+      <c r="B324">
+        <v>1.007765962391998</v>
+      </c>
+      <c r="C324">
+        <v>1.001641711649057</v>
+      </c>
+      <c r="D324">
+        <v>0.9978742940608257</v>
+      </c>
+      <c r="E324">
+        <v>1.001788310257086</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="2">
+        <v>41534</v>
+      </c>
+      <c r="B325">
+        <v>1.007703821553758</v>
+      </c>
+      <c r="C325">
+        <v>1.001182690216998</v>
+      </c>
+      <c r="D325">
+        <v>0.9979911487629387</v>
+      </c>
+      <c r="E325">
+        <v>1.002000873740956</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="2">
+        <v>41535</v>
+      </c>
+      <c r="B326">
+        <v>1.007625921598255</v>
+      </c>
+      <c r="C326">
+        <v>0.9989109152019963</v>
+      </c>
+      <c r="D326">
+        <v>0.9992961452992861</v>
+      </c>
+      <c r="E326">
+        <v>1.002033651516547</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="2">
+        <v>41536</v>
+      </c>
+      <c r="B327">
+        <v>1.007597093497957</v>
+      </c>
+      <c r="C327">
+        <v>0.9995753860178148</v>
+      </c>
+      <c r="D327">
+        <v>0.9989303196545104</v>
+      </c>
+      <c r="E327">
+        <v>1.002120349529419</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="2">
+        <v>41537</v>
+      </c>
+      <c r="B328">
+        <v>1.00762874202505</v>
+      </c>
+      <c r="C328">
+        <v>1.001639663173827</v>
+      </c>
+      <c r="D328">
+        <v>0.9992781384653757</v>
+      </c>
+      <c r="E328">
+        <v>1.000598027635464</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="2">
+        <v>41540</v>
+      </c>
+      <c r="B329">
+        <v>1.007613460837954</v>
+      </c>
+      <c r="C329">
+        <v>1.00224821378417</v>
+      </c>
+      <c r="D329">
+        <v>0.9991575634397197</v>
+      </c>
+      <c r="E329">
+        <v>1.000538173580535</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="2">
+        <v>41541</v>
+      </c>
+      <c r="B330">
+        <v>1.00756834258547</v>
+      </c>
+      <c r="C330">
+        <v>1.002210121189323</v>
+      </c>
+      <c r="D330">
+        <v>0.9991336574873574</v>
+      </c>
+      <c r="E330">
+        <v>1.00014715310601</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="2">
+        <v>41542</v>
+      </c>
+      <c r="B331">
+        <v>1.007518456614689</v>
+      </c>
+      <c r="C331">
+        <v>1.001693944144669</v>
+      </c>
+      <c r="D331">
+        <v>0.9997301604892463</v>
+      </c>
+      <c r="E331">
+        <v>0.999721785051115</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="2">
+        <v>41543</v>
+      </c>
+      <c r="B332">
+        <v>1.007475930254974</v>
+      </c>
+      <c r="C332">
+        <v>1.002128714688961</v>
+      </c>
+      <c r="D332">
+        <v>0.999327040347091</v>
+      </c>
+      <c r="E332">
+        <v>0.9995706960954243</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="2">
+        <v>41544</v>
+      </c>
+      <c r="B333">
+        <v>1.007446631943391</v>
+      </c>
+      <c r="C333">
+        <v>1.002180923695366</v>
+      </c>
+      <c r="D333">
+        <v>0.9995027148980418</v>
+      </c>
+      <c r="E333">
+        <v>0.9996732880465115</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="2">
+        <v>41547</v>
+      </c>
+      <c r="B334">
+        <v>1.007424414914899</v>
+      </c>
+      <c r="C334">
+        <v>1.002281912593362</v>
+      </c>
+      <c r="D334">
+        <v>1.000230955813112</v>
+      </c>
+      <c r="E334">
+        <v>0.9996683071275468</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="2">
+        <v>41548</v>
+      </c>
+      <c r="B335">
+        <v>1.007399318252691</v>
+      </c>
+      <c r="C335">
+        <v>1.002805410886417</v>
+      </c>
+      <c r="D335">
+        <v>0.999270603437071</v>
+      </c>
+      <c r="E335">
+        <v>0.9994797774180061</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="2">
+        <v>41549</v>
+      </c>
+      <c r="B336">
+        <v>1.007364436677292</v>
+      </c>
+      <c r="C336">
+        <v>1.002713027026078</v>
+      </c>
+      <c r="D336">
+        <v>0.9994743231258484</v>
+      </c>
+      <c r="E336">
+        <v>0.9996907299748004</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="2">
+        <v>41550</v>
+      </c>
+      <c r="B337">
+        <v>1.007349478845533</v>
+      </c>
+      <c r="C337">
+        <v>1.00345018873209</v>
+      </c>
+      <c r="D337">
+        <v>1.000118907653795</v>
+      </c>
+      <c r="E337">
+        <v>0.9995634322202777</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="2">
+        <v>41551</v>
+      </c>
+      <c r="B338">
+        <v>1.007288102863873</v>
+      </c>
+      <c r="C338">
+        <v>1.00357210783289</v>
+      </c>
+      <c r="D338">
+        <v>0.9997178406564188</v>
+      </c>
+      <c r="E338">
+        <v>0.9993516065922589</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="2">
+        <v>41554</v>
+      </c>
+      <c r="B339">
+        <v>1.007252158060098</v>
+      </c>
+      <c r="C339">
+        <v>1.003091721867569</v>
+      </c>
+      <c r="D339">
+        <v>0.9999577377086752</v>
+      </c>
+      <c r="E339">
+        <v>0.999820279916851</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="2">
+        <v>41555</v>
+      </c>
+      <c r="B340">
+        <v>1.007246235878065</v>
+      </c>
+      <c r="C340">
+        <v>1.004213803388366</v>
+      </c>
+      <c r="D340">
+        <v>1.000043894590833</v>
+      </c>
+      <c r="E340">
+        <v>0.9999338453594838</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="2">
+        <v>41556</v>
+      </c>
+      <c r="B341">
+        <v>1.007186888937252</v>
+      </c>
+      <c r="C341">
+        <v>1.003963170119505</v>
+      </c>
+      <c r="D341">
+        <v>0.999940184077739</v>
+      </c>
+      <c r="E341">
+        <v>1.000126227475187</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="2">
+        <v>41557</v>
+      </c>
+      <c r="B342">
+        <v>1.00710410539229</v>
+      </c>
+      <c r="C342">
+        <v>1.003743006400348</v>
+      </c>
+      <c r="D342">
+        <v>0.9987100625681585</v>
+      </c>
+      <c r="E342">
+        <v>0.9997575060009154</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="2">
+        <v>41558</v>
+      </c>
+      <c r="B343">
+        <v>1.00707898831031</v>
+      </c>
+      <c r="C343">
+        <v>1.004441710417525</v>
+      </c>
+      <c r="D343">
+        <v>0.998339539151252</v>
+      </c>
+      <c r="E343">
+        <v>0.9994762955611348</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="2">
+        <v>41561</v>
+      </c>
+      <c r="B344">
+        <v>1.007034339040155</v>
+      </c>
+      <c r="C344">
+        <v>1.004440559813647</v>
+      </c>
+      <c r="D344">
+        <v>0.9984039574717977</v>
+      </c>
+      <c r="E344">
+        <v>0.9994969986790031</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="2">
+        <v>41562</v>
+      </c>
+      <c r="B345">
+        <v>1.006957763059405</v>
+      </c>
+      <c r="C345">
+        <v>1.003624106523607</v>
+      </c>
+      <c r="D345">
+        <v>0.9986598983506687</v>
+      </c>
+      <c r="E345">
+        <v>0.9997629386466943</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="2">
+        <v>41563</v>
+      </c>
+      <c r="B346">
+        <v>1.006927765102005</v>
+      </c>
+      <c r="C346">
+        <v>1.004232153544778</v>
+      </c>
+      <c r="D346">
+        <v>0.99818428489331</v>
+      </c>
+      <c r="E346">
+        <v>0.9995191959675263</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="2">
+        <v>41564</v>
+      </c>
+      <c r="B347">
+        <v>1.006823009592645</v>
+      </c>
+      <c r="C347">
+        <v>1.002751114242681</v>
+      </c>
+      <c r="D347">
+        <v>0.9986053970976962</v>
+      </c>
+      <c r="E347">
+        <v>0.999632402189473</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="2">
+        <v>41565</v>
+      </c>
+      <c r="B348">
+        <v>1.006759721526984</v>
+      </c>
+      <c r="C348">
+        <v>1.002758126000125</v>
+      </c>
+      <c r="D348">
+        <v>0.9979548405214201</v>
+      </c>
+      <c r="E348">
+        <v>0.9996766310854739</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="2">
+        <v>41568</v>
+      </c>
+      <c r="B349">
+        <v>1.00667639168706</v>
+      </c>
+      <c r="C349">
+        <v>1.001882329396756</v>
+      </c>
+      <c r="D349">
+        <v>0.9982515362313886</v>
+      </c>
+      <c r="E349">
+        <v>0.9995866588162227</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="2">
+        <v>41569</v>
+      </c>
+      <c r="B350">
+        <v>1.006595210120172</v>
+      </c>
+      <c r="C350">
+        <v>1.000579190328887</v>
+      </c>
+      <c r="D350">
+        <v>0.9986323636031553</v>
+      </c>
+      <c r="E350">
+        <v>0.999566920630575</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="2">
+        <v>41570</v>
+      </c>
+      <c r="B351">
+        <v>1.00655446539822</v>
+      </c>
+      <c r="C351">
+        <v>1.00114098742158</v>
+      </c>
+      <c r="D351">
+        <v>0.9984406304221344</v>
+      </c>
+      <c r="E351">
+        <v>0.9995504394818329</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="2">
+        <v>41571</v>
+      </c>
+      <c r="B352">
+        <v>1.006444300577016</v>
+      </c>
+      <c r="C352">
+        <v>0.9991797666083534</v>
+      </c>
+      <c r="D352">
+        <v>0.9987145363802474</v>
+      </c>
+      <c r="E352">
+        <v>0.999755587538994</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="2">
+        <v>41572</v>
+      </c>
+      <c r="B353">
+        <v>1.006389685034298</v>
+      </c>
+      <c r="C353">
+        <v>0.9987536597221677</v>
+      </c>
+      <c r="D353">
+        <v>0.9985862604433262</v>
+      </c>
+      <c r="E353">
+        <v>0.9996570020012684</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="2">
+        <v>41575</v>
+      </c>
+      <c r="B354">
+        <v>1.006340313673952</v>
+      </c>
+      <c r="C354">
+        <v>0.9986955848233562</v>
+      </c>
+      <c r="D354">
+        <v>0.9990652277606664</v>
+      </c>
+      <c r="E354">
+        <v>0.9997657253573669</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="2">
+        <v>41576</v>
+      </c>
+      <c r="B355">
+        <v>1.006323349194328</v>
+      </c>
+      <c r="C355">
+        <v>0.9993205391279207</v>
+      </c>
+      <c r="D355">
+        <v>0.9983534472900297</v>
+      </c>
+      <c r="E355">
+        <v>0.9998017325188533</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="2">
+        <v>41577</v>
+      </c>
+      <c r="B356">
+        <v>1.006249120656108</v>
+      </c>
+      <c r="C356">
+        <v>0.9987074092065091</v>
+      </c>
+      <c r="D356">
+        <v>0.99881998483894</v>
+      </c>
+      <c r="E356">
+        <v>0.9997218350015535</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="2">
+        <v>41578</v>
+      </c>
+      <c r="B357">
+        <v>1.006273684562511</v>
+      </c>
+      <c r="C357">
+        <v>1.000189726373182</v>
+      </c>
+      <c r="D357">
+        <v>0.9991353238227721</v>
+      </c>
+      <c r="E357">
+        <v>0.9994058073436802</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="2">
+        <v>41579</v>
+      </c>
+      <c r="B358">
+        <v>1.006248477786195</v>
+      </c>
+      <c r="C358">
+        <v>1.001313669097248</v>
+      </c>
+      <c r="D358">
+        <v>0.9987246864873355</v>
+      </c>
+      <c r="E358">
+        <v>0.9991747325955304</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="2">
+        <v>41582</v>
+      </c>
+      <c r="B359">
+        <v>1.006163040304728</v>
+      </c>
+      <c r="C359">
+        <v>1.000461473737329</v>
+      </c>
+      <c r="D359">
+        <v>0.9994139127432728</v>
+      </c>
+      <c r="E359">
+        <v>0.9976621004854525</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="2">
+        <v>41583</v>
+      </c>
+      <c r="B360">
+        <v>1.006110392536407</v>
+      </c>
+      <c r="C360">
+        <v>1.000716109403396</v>
+      </c>
+      <c r="D360">
+        <v>0.9989620896421522</v>
+      </c>
+      <c r="E360">
+        <v>0.9978833336956496</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="2">
+        <v>41584</v>
+      </c>
+      <c r="B361">
+        <v>1.00604994494368</v>
+      </c>
+      <c r="C361">
+        <v>1.000630481479872</v>
+      </c>
+      <c r="D361">
+        <v>0.9993802817989464</v>
+      </c>
+      <c r="E361">
+        <v>0.9979583436882958</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="2">
+        <v>41585</v>
+      </c>
+      <c r="B362">
+        <v>1.00603947076852</v>
+      </c>
+      <c r="C362">
+        <v>1.001839502020009</v>
+      </c>
+      <c r="D362">
+        <v>0.9997058468257604</v>
+      </c>
+      <c r="E362">
+        <v>0.9978946903571736</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="2">
+        <v>41586</v>
+      </c>
+      <c r="B363">
+        <v>1.0059852686505</v>
+      </c>
+      <c r="C363">
+        <v>1.001462505181732</v>
+      </c>
+      <c r="D363">
+        <v>0.9992677936265743</v>
+      </c>
+      <c r="E363">
+        <v>0.9978221927684838</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="2">
+        <v>41589</v>
+      </c>
+      <c r="B364">
+        <v>1.005936725457848</v>
+      </c>
+      <c r="C364">
+        <v>1.001386836887821</v>
+      </c>
+      <c r="D364">
+        <v>0.999440706297661</v>
+      </c>
+      <c r="E364">
+        <v>0.997748209106296</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="2">
+        <v>41590</v>
+      </c>
+      <c r="B365">
+        <v>1.005899463154413</v>
+      </c>
+      <c r="C365">
+        <v>1.001887692763977</v>
+      </c>
+      <c r="D365">
+        <v>0.9995069029696799</v>
+      </c>
+      <c r="E365">
+        <v>0.997821379057669</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="2">
+        <v>41591</v>
+      </c>
+      <c r="B366">
+        <v>1.005864403416734</v>
+      </c>
+      <c r="C366">
+        <v>1.001928989045029</v>
+      </c>
+      <c r="D366">
+        <v>0.9995900313545988</v>
+      </c>
+      <c r="E366">
+        <v>0.9978621643938465</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="2">
+        <v>41592</v>
+      </c>
+      <c r="B367">
+        <v>1.005804995774835</v>
+      </c>
+      <c r="C367">
+        <v>1.001157157321015</v>
+      </c>
+      <c r="D367">
+        <v>0.9997798076808785</v>
+      </c>
+      <c r="E367">
+        <v>0.9978226541048947</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="2">
+        <v>41593</v>
+      </c>
+      <c r="B368">
+        <v>1.005779817773198</v>
+      </c>
+      <c r="C368">
+        <v>1.001416889037286</v>
+      </c>
+      <c r="D368">
+        <v>0.9994226355530451</v>
+      </c>
+      <c r="E368">
+        <v>0.9976453657978943</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="2">
+        <v>41596</v>
+      </c>
+      <c r="B369">
+        <v>1.005749067453977</v>
+      </c>
+      <c r="C369">
+        <v>1.002217041754786</v>
+      </c>
+      <c r="D369">
+        <v>0.999484147902448</v>
+      </c>
+      <c r="E369">
+        <v>0.9971880517631688</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="2">
+        <v>41597</v>
+      </c>
+      <c r="B370">
+        <v>1.005709608066017</v>
+      </c>
+      <c r="C370">
+        <v>1.002123001181347</v>
+      </c>
+      <c r="D370">
+        <v>0.9998107861967906</v>
+      </c>
+      <c r="E370">
+        <v>0.9970999802044676</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="2">
+        <v>41598</v>
+      </c>
+      <c r="B371">
+        <v>1.005698234146907</v>
+      </c>
+      <c r="C371">
+        <v>1.003045225073103</v>
+      </c>
+      <c r="D371">
+        <v>0.9994829357629893</v>
+      </c>
+      <c r="E371">
+        <v>0.9970771068583264</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="2">
+        <v>41599</v>
+      </c>
+      <c r="B372">
+        <v>1.005652580444857</v>
+      </c>
+      <c r="C372">
+        <v>1.003052391935836</v>
+      </c>
+      <c r="D372">
+        <v>0.9990540432977973</v>
+      </c>
+      <c r="E372">
+        <v>0.9969206287983703</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="2">
+        <v>41600</v>
+      </c>
+      <c r="B373">
+        <v>1.005610023792714</v>
+      </c>
+      <c r="C373">
+        <v>1.003346586002517</v>
+      </c>
+      <c r="D373">
+        <v>0.9988875204378813</v>
+      </c>
+      <c r="E373">
+        <v>0.9971617957459418</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="2">
+        <v>41603</v>
+      </c>
+      <c r="B374">
+        <v>1.005559773296982</v>
+      </c>
+      <c r="C374">
+        <v>1.003177927211375</v>
+      </c>
+      <c r="D374">
+        <v>0.999096860526365</v>
+      </c>
+      <c r="E374">
+        <v>0.9973585062292494</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="2">
+        <v>41604</v>
+      </c>
+      <c r="B375">
+        <v>1.005533601370427</v>
+      </c>
+      <c r="C375">
+        <v>1.004024253089312</v>
+      </c>
+      <c r="D375">
+        <v>0.9993750346991579</v>
+      </c>
+      <c r="E375">
+        <v>0.9979183024850724</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="2">
+        <v>41605</v>
+      </c>
+      <c r="B376">
+        <v>1.0054762172919</v>
+      </c>
+      <c r="C376">
+        <v>1.003674739974573</v>
+      </c>
+      <c r="D376">
+        <v>0.9996366047924612</v>
+      </c>
+      <c r="E376">
+        <v>0.9979225982349138</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="2">
+        <v>41606</v>
+      </c>
+      <c r="B377">
+        <v>1.005404520011296</v>
+      </c>
+      <c r="C377">
+        <v>1.003313756764509</v>
+      </c>
+      <c r="D377">
+        <v>0.999630732597561</v>
+      </c>
+      <c r="E377">
+        <v>0.9978976063085343</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="2">
+        <v>41607</v>
+      </c>
+      <c r="B378">
+        <v>1.005352376492458</v>
+      </c>
+      <c r="C378">
+        <v>1.003001186761891</v>
+      </c>
+      <c r="D378">
+        <v>0.9998507733470861</v>
+      </c>
+      <c r="E378">
+        <v>0.9979781261575511</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="2">
+        <v>41610</v>
+      </c>
+      <c r="B379">
+        <v>1.005360759408905</v>
+      </c>
+      <c r="C379">
+        <v>1.004295645993159</v>
+      </c>
+      <c r="D379">
+        <v>0.9988529266855475</v>
+      </c>
+      <c r="E379">
+        <v>0.9978259153939433</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="2">
+        <v>41611</v>
+      </c>
+      <c r="B380">
+        <v>1.005346451317639</v>
+      </c>
+      <c r="C380">
+        <v>1.004752362391478</v>
+      </c>
+      <c r="D380">
+        <v>0.9991368833055237</v>
+      </c>
+      <c r="E380">
+        <v>0.9977932152704371</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="2">
+        <v>41612</v>
+      </c>
+      <c r="B381">
+        <v>1.005287567638643</v>
+      </c>
+      <c r="C381">
+        <v>1.00395422434306</v>
+      </c>
+      <c r="D381">
+        <v>0.9996432958442806</v>
+      </c>
+      <c r="E381">
+        <v>0.9976664003596365</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="2">
+        <v>41613</v>
+      </c>
+      <c r="B382">
+        <v>1.005268093347847</v>
+      </c>
+      <c r="C382">
+        <v>1.004915224171084</v>
+      </c>
+      <c r="D382">
+        <v>0.9998644505739553</v>
+      </c>
+      <c r="E382">
+        <v>0.9972876200135156</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="2">
+        <v>41614</v>
+      </c>
+      <c r="B383">
+        <v>1.005204933732658</v>
+      </c>
+      <c r="C383">
+        <v>1.004838723702329</v>
+      </c>
+      <c r="D383">
+        <v>0.9996278109017127</v>
+      </c>
+      <c r="E383">
+        <v>0.9972145776272399</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="2">
+        <v>41617</v>
+      </c>
+      <c r="B384">
+        <v>1.005143108895166</v>
+      </c>
+      <c r="C384">
+        <v>1.004258211733224</v>
+      </c>
+      <c r="D384">
+        <v>0.9999954405943963</v>
+      </c>
+      <c r="E384">
+        <v>0.9970242680756444</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="2">
+        <v>41618</v>
+      </c>
+      <c r="B385">
+        <v>1.005076799487129</v>
+      </c>
+      <c r="C385">
+        <v>1.003206211264323</v>
+      </c>
+      <c r="D385">
+        <v>1.000545720063938</v>
+      </c>
+      <c r="E385">
+        <v>0.9975494715198719</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="2">
+        <v>41619</v>
+      </c>
+      <c r="B386">
+        <v>1.005081112589366</v>
+      </c>
+      <c r="C386">
+        <v>1.004729579431821</v>
+      </c>
+      <c r="D386">
+        <v>1.001196570551592</v>
+      </c>
+      <c r="E386">
+        <v>0.9978090912762478</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="2">
+        <v>41620</v>
+      </c>
+      <c r="B387">
+        <v>1.005063590813839</v>
+      </c>
+      <c r="C387">
+        <v>1.005112378990552</v>
+      </c>
+      <c r="D387">
+        <v>1.001132353230435</v>
+      </c>
+      <c r="E387">
+        <v>0.9977904226966153</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="2">
+        <v>41621</v>
+      </c>
+      <c r="B388">
+        <v>1.005010106290533</v>
+      </c>
+      <c r="C388">
+        <v>1.005044434220178</v>
+      </c>
+      <c r="D388">
+        <v>1.001038995399695</v>
+      </c>
+      <c r="E388">
+        <v>0.9980015605020531</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="2">
+        <v>41624</v>
+      </c>
+      <c r="B389">
+        <v>1.004934033085333</v>
+      </c>
+      <c r="C389">
+        <v>1.00476118822302</v>
+      </c>
+      <c r="D389">
+        <v>1.000835174360133</v>
+      </c>
+      <c r="E389">
+        <v>0.9981664549264553</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="2">
+        <v>41625</v>
+      </c>
+      <c r="B390">
+        <v>1.004885753417377</v>
+      </c>
+      <c r="C390">
+        <v>1.00483515134259</v>
+      </c>
+      <c r="D390">
+        <v>1.000871006400857</v>
+      </c>
+      <c r="E390">
+        <v>0.9980983436182518</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="2">
+        <v>41626</v>
+      </c>
+      <c r="B391">
+        <v>1.004817830834307</v>
+      </c>
+      <c r="C391">
+        <v>1.004740806701204</v>
+      </c>
+      <c r="D391">
+        <v>0.9999746225825124</v>
+      </c>
+      <c r="E391">
+        <v>0.99775161363256</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="2">
+        <v>41627</v>
+      </c>
+      <c r="B392">
+        <v>1.00478273159441</v>
+      </c>
+      <c r="C392">
+        <v>1.004960462939299</v>
+      </c>
+      <c r="D392">
+        <v>0.9992961671899692</v>
+      </c>
+      <c r="E392">
+        <v>0.9978505320417647</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="2">
+        <v>41628</v>
+      </c>
+      <c r="B393">
+        <v>1.004725044535197</v>
+      </c>
+      <c r="C393">
+        <v>1.004854605587165</v>
+      </c>
+      <c r="D393">
+        <v>0.9987520932148019</v>
+      </c>
+      <c r="E393">
+        <v>0.9993637996487681</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="2">
+        <v>41631</v>
+      </c>
+      <c r="B394">
+        <v>1.004685833694442</v>
+      </c>
+      <c r="C394">
+        <v>1.004867292788135</v>
+      </c>
+      <c r="D394">
+        <v>0.9983902687570593</v>
+      </c>
+      <c r="E394">
+        <v>0.9995518720879663</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="2">
+        <v>41632</v>
+      </c>
+      <c r="B395">
+        <v>1.004608414705972</v>
+      </c>
+      <c r="C395">
+        <v>1.003838037686937</v>
+      </c>
+      <c r="D395">
+        <v>0.9984482246271422</v>
+      </c>
+      <c r="E395">
+        <v>0.9998774199072714</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="2">
+        <v>41634</v>
+      </c>
+      <c r="B396">
+        <v>1.004564100601128</v>
+      </c>
+      <c r="C396">
+        <v>1.003833858991305</v>
+      </c>
+      <c r="D396">
+        <v>0.998507167048174</v>
+      </c>
+      <c r="E396">
+        <v>0.9998946724472763</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="2">
+        <v>41635</v>
+      </c>
+      <c r="B397">
+        <v>1.004482404557261</v>
+      </c>
+      <c r="C397">
+        <v>1.003093036141072</v>
+      </c>
+      <c r="D397">
+        <v>0.9985971553978243</v>
+      </c>
+      <c r="E397">
+        <v>0.9993605511324962</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="2">
+        <v>41638</v>
+      </c>
+      <c r="B398">
+        <v>1.004458052059282</v>
+      </c>
+      <c r="C398">
+        <v>1.004062666699808</v>
+      </c>
+      <c r="D398">
+        <v>0.9982940211667016</v>
+      </c>
+      <c r="E398">
+        <v>0.9991656470153443</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="2">
+        <v>41639</v>
+      </c>
+      <c r="B399">
+        <v>1.004401461189751</v>
+      </c>
+      <c r="C399">
+        <v>1.00349919342216</v>
+      </c>
+      <c r="D399">
+        <v>0.9985170712645511</v>
+      </c>
+      <c r="E399">
+        <v>0.9994527586532741</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="2">
+        <v>41641</v>
+      </c>
+      <c r="B400">
+        <v>1.004320790483092</v>
+      </c>
+      <c r="C400">
+        <v>1.00225303020259</v>
+      </c>
+      <c r="D400">
+        <v>0.999229961482737</v>
+      </c>
+      <c r="E400">
+        <v>1.000071721629293</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="2">
+        <v>41642</v>
+      </c>
+      <c r="B401">
+        <v>1.004288773836378</v>
+      </c>
+      <c r="C401">
+        <v>1.002751274992898</v>
+      </c>
+      <c r="D401">
+        <v>0.9994729402790219</v>
+      </c>
+      <c r="E401">
+        <v>1.000020942177837</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="2">
+        <v>41645</v>
+      </c>
+      <c r="B402">
+        <v>1.004250715168345</v>
+      </c>
+      <c r="C402">
+        <v>1.002563625366388</v>
+      </c>
+      <c r="D402">
+        <v>0.999772914614465</v>
+      </c>
+      <c r="E402">
+        <v>1.000642787522977</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="2">
+        <v>41646</v>
+      </c>
+      <c r="B403">
+        <v>1.00419108960185</v>
+      </c>
+      <c r="C403">
+        <v>1.002149507310572</v>
+      </c>
+      <c r="D403">
+        <v>0.9990493466978984</v>
+      </c>
+      <c r="E403">
+        <v>1.001187210260388</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="2">
+        <v>41647</v>
+      </c>
+      <c r="B404">
+        <v>1.004127638415614</v>
+      </c>
+      <c r="C404">
+        <v>1.002126133319036</v>
+      </c>
+      <c r="D404">
+        <v>0.9987692925627689</v>
+      </c>
+      <c r="E404">
+        <v>1.00117011635618</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="2">
+        <v>41648</v>
+      </c>
+      <c r="B405">
+        <v>1.004093542516818</v>
+      </c>
+      <c r="C405">
+        <v>1.002493839479589</v>
+      </c>
+      <c r="D405">
+        <v>0.9984896308202933</v>
+      </c>
+      <c r="E405">
+        <v>1.001379909384891</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="2">
+        <v>41649</v>
+      </c>
+      <c r="B406">
+        <v>1.004009592185595</v>
+      </c>
+      <c r="C406">
+        <v>1.001279744448147</v>
+      </c>
+      <c r="D406">
+        <v>0.9983295085254367</v>
+      </c>
+      <c r="E406">
+        <v>1.001358765808136</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="2">
+        <v>41652</v>
+      </c>
+      <c r="B407">
+        <v>1.003937744284495</v>
+      </c>
+      <c r="C407">
+        <v>1.000698839899761</v>
+      </c>
+      <c r="D407">
+        <v>0.9993181979266558</v>
+      </c>
+      <c r="E407">
+        <v>1.001188232338547</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="2">
+        <v>41653</v>
+      </c>
+      <c r="B408">
+        <v>1.003897523764046</v>
+      </c>
+      <c r="C408">
+        <v>1.000952232163482</v>
+      </c>
+      <c r="D408">
+        <v>0.9990144395285506</v>
+      </c>
+      <c r="E408">
+        <v>1.001110287541856</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="2">
+        <v>41654</v>
+      </c>
+      <c r="B409">
+        <v>1.003818886903541</v>
+      </c>
+      <c r="C409">
+        <v>1.000255399293795</v>
+      </c>
+      <c r="D409">
+        <v>0.998490570911172</v>
+      </c>
+      <c r="E409">
+        <v>1.001222295228736</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="2">
+        <v>41655</v>
+      </c>
+      <c r="B410">
+        <v>1.003741972045324</v>
+      </c>
+      <c r="C410">
+        <v>0.9997169453360527</v>
+      </c>
+      <c r="D410">
+        <v>0.9982704587035698</v>
+      </c>
+      <c r="E410">
+        <v>1.001175342160232</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="2">
+        <v>41656</v>
+      </c>
+      <c r="B411">
+        <v>1.003675415126235</v>
+      </c>
+      <c r="C411">
+        <v>0.9985852998671457</v>
+      </c>
+      <c r="D411">
+        <v>0.9985401522022055</v>
+      </c>
+      <c r="E411">
+        <v>1.001894472993011</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="2">
+        <v>41659</v>
+      </c>
+      <c r="B412">
+        <v>1.003598559329941</v>
+      </c>
+      <c r="C412">
+        <v>0.9977248556503265</v>
+      </c>
+      <c r="D412">
+        <v>0.998217415117459</v>
+      </c>
+      <c r="E412">
+        <v>1.002619415813937</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="2">
+        <v>41660</v>
+      </c>
+      <c r="B413">
+        <v>1.003577572818873</v>
+      </c>
+      <c r="C413">
+        <v>0.9980950520528947</v>
+      </c>
+      <c r="D413">
+        <v>0.998411351795245</v>
+      </c>
+      <c r="E413">
+        <v>1.002735447374281</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="2">
+        <v>41661</v>
+      </c>
+      <c r="B414">
+        <v>1.003568831730961</v>
+      </c>
+      <c r="C414">
+        <v>0.9988489623069144</v>
+      </c>
+      <c r="D414">
+        <v>0.9976956988825295</v>
+      </c>
+      <c r="E414">
+        <v>1.003580350678206</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="2">
+        <v>41662</v>
+      </c>
+      <c r="B415">
+        <v>1.003514172601438</v>
+      </c>
+      <c r="C415">
+        <v>0.9983255645255408</v>
+      </c>
+      <c r="D415">
+        <v>0.998588814145371</v>
+      </c>
+      <c r="E415">
+        <v>1.003538854936668</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="2">
+        <v>41663</v>
+      </c>
+      <c r="B416">
+        <v>1.003501416924036</v>
+      </c>
+      <c r="C416">
+        <v>0.998907852086333</v>
+      </c>
+      <c r="D416">
+        <v>0.9997109911914708</v>
+      </c>
+      <c r="E416">
+        <v>1.003331192485168</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="2">
+        <v>41666</v>
+      </c>
+      <c r="B417">
+        <v>1.003484918949656</v>
+      </c>
+      <c r="C417">
+        <v>0.9997444622416807</v>
+      </c>
+      <c r="D417">
+        <v>0.9997910937828526</v>
+      </c>
+      <c r="E417">
+        <v>1.003311694006461</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="2">
+        <v>41667</v>
+      </c>
+      <c r="B418">
+        <v>1.00341057443743</v>
+      </c>
+      <c r="C418">
+        <v>0.9989024436686941</v>
+      </c>
+      <c r="D418">
+        <v>0.9993578629221483</v>
+      </c>
+      <c r="E418">
+        <v>1.00343655504133</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="2">
+        <v>41668</v>
+      </c>
+      <c r="B419">
+        <v>1.003350059427437</v>
+      </c>
+      <c r="C419">
+        <v>0.9981695935650582</v>
+      </c>
+      <c r="D419">
+        <v>1.000285424671167</v>
+      </c>
+      <c r="E419">
+        <v>1.003653750081999</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" s="2">
+        <v>41669</v>
+      </c>
+      <c r="B420">
+        <v>1.003304447970235</v>
+      </c>
+      <c r="C420">
+        <v>0.9985991507762632</v>
+      </c>
+      <c r="D420">
+        <v>0.9995172011264252</v>
+      </c>
+      <c r="E420">
+        <v>1.003192961682945</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="2">
+        <v>41670</v>
+      </c>
+      <c r="B421">
+        <v>1.003276919315343</v>
+      </c>
+      <c r="C421">
+        <v>0.9986832650899184</v>
+      </c>
+      <c r="D421">
+        <v>0.999919785686019</v>
+      </c>
+      <c r="E421">
+        <v>1.002902530456656</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="2">
+        <v>41673</v>
+      </c>
+      <c r="B422">
+        <v>1.003284866059258</v>
+      </c>
+      <c r="C422">
+        <v>0.9995240754172608</v>
+      </c>
+      <c r="D422">
+        <v>1.001344609514857</v>
+      </c>
+      <c r="E422">
+        <v>1.002946743865347</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="2">
+        <v>41674</v>
+      </c>
+      <c r="B423">
+        <v>1.003235658987559</v>
+      </c>
+      <c r="C423">
+        <v>0.9991506377539765</v>
+      </c>
+      <c r="D423">
+        <v>1.001028949270597</v>
+      </c>
+      <c r="E423">
+        <v>1.003399730972026</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="2">
+        <v>41675</v>
+      </c>
+      <c r="B424">
+        <v>1.003200795974853</v>
+      </c>
+      <c r="C424">
+        <v>0.9994638406169057</v>
+      </c>
+      <c r="D424">
+        <v>1.000442045985029</v>
+      </c>
+      <c r="E424">
+        <v>1.003285568222144</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="2">
+        <v>41676</v>
+      </c>
+      <c r="B425">
+        <v>1.00313610622654</v>
+      </c>
+      <c r="C425">
+        <v>0.9992185009664939</v>
+      </c>
+      <c r="D425">
+        <v>0.9995471514544385</v>
+      </c>
+      <c r="E425">
+        <v>1.003205495642497</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="2">
+        <v>41677</v>
+      </c>
+      <c r="B426">
+        <v>1.003040089264549</v>
+      </c>
+      <c r="C426">
+        <v>0.9981551814939886</v>
+      </c>
+      <c r="D426">
+        <v>0.9998598825855007</v>
+      </c>
+      <c r="E426">
+        <v>1.003141465753275</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" s="2">
+        <v>41680</v>
+      </c>
+      <c r="B427">
+        <v>1.002961165079334</v>
+      </c>
+      <c r="C427">
+        <v>0.9970501123227906</v>
+      </c>
+      <c r="D427">
+        <v>1.000553340536407</v>
+      </c>
+      <c r="E427">
+        <v>1.00339583971649</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" s="2">
+        <v>41681</v>
+      </c>
+      <c r="B428">
+        <v>1.002876454449607</v>
+      </c>
+      <c r="C428">
+        <v>0.9961092475754408</v>
+      </c>
+      <c r="D428">
+        <v>1.000584176736682</v>
+      </c>
+      <c r="E428">
+        <v>1.003219392679086</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" s="2">
+        <v>41682</v>
+      </c>
+      <c r="B429">
+        <v>1.002846783642891</v>
+      </c>
+      <c r="C429">
+        <v>0.9968302901994593</v>
+      </c>
+      <c r="D429">
+        <v>0.99983010333235</v>
+      </c>
+      <c r="E429">
+        <v>1.002929779099911</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" s="2">
+        <v>41683</v>
+      </c>
+      <c r="B430">
+        <v>1.002766488190199</v>
+      </c>
+      <c r="C430">
+        <v>0.9959787230493279</v>
+      </c>
+      <c r="D430">
+        <v>1.000323073650671</v>
+      </c>
+      <c r="E430">
+        <v>1.002577224361043</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" s="2">
+        <v>41684</v>
+      </c>
+      <c r="B431">
+        <v>1.002686529574632</v>
+      </c>
+      <c r="C431">
+        <v>0.9954749031837757</v>
+      </c>
+      <c r="D431">
+        <v>1.000530160016717</v>
+      </c>
+      <c r="E431">
+        <v>1.002271025134414</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" s="2">
+        <v>41688</v>
+      </c>
+      <c r="B432">
+        <v>1.002643067497568</v>
+      </c>
+      <c r="C432">
+        <v>0.9954136760713246</v>
+      </c>
+      <c r="D432">
+        <v>1.000431839053639</v>
+      </c>
+      <c r="E432">
+        <v>1.002768486765961</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" s="2">
+        <v>41689</v>
+      </c>
+      <c r="B433">
+        <v>1.002619641025259</v>
+      </c>
+      <c r="C433">
+        <v>0.9959218113479549</v>
+      </c>
+      <c r="D433">
+        <v>1.00009116236517</v>
+      </c>
+      <c r="E433">
+        <v>1.002303920445617</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" s="2">
+        <v>41690</v>
+      </c>
+      <c r="B434">
+        <v>1.002538849729105</v>
+      </c>
+      <c r="C434">
+        <v>0.9947344236546954</v>
+      </c>
+      <c r="D434">
+        <v>1.000229953773434</v>
+      </c>
+      <c r="E434">
+        <v>1.002753953744971</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" s="2">
+        <v>41691</v>
+      </c>
+      <c r="B435">
+        <v>1.002509613783749</v>
+      </c>
+      <c r="C435">
+        <v>0.9949770585417756</v>
+      </c>
+      <c r="D435">
+        <v>1.000375657490446</v>
+      </c>
+      <c r="E435">
+        <v>1.002550839159293</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" s="2">
+        <v>41694</v>
+      </c>
+      <c r="B436">
+        <v>1.002481489686321</v>
+      </c>
+      <c r="C436">
+        <v>0.9950498156186326</v>
+      </c>
+      <c r="D436">
+        <v>1.000008146877714</v>
+      </c>
+      <c r="E436">
+        <v>1.003109799743786</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" s="2">
+        <v>41695</v>
+      </c>
+      <c r="B437">
+        <v>1.002439318247341</v>
+      </c>
+      <c r="C437">
+        <v>0.9953612289918677</v>
+      </c>
+      <c r="D437">
+        <v>0.9997712282584531</v>
+      </c>
+      <c r="E437">
+        <v>1.003915687998761</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" s="2">
+        <v>41696</v>
+      </c>
+      <c r="B438">
+        <v>1.00239440073419</v>
+      </c>
+      <c r="C438">
+        <v>0.9955512463931616</v>
+      </c>
+      <c r="D438">
+        <v>0.999553645681082</v>
+      </c>
+      <c r="E438">
+        <v>1.003641344706864</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" s="2">
+        <v>41697</v>
+      </c>
+      <c r="B439">
+        <v>1.002376741681024</v>
+      </c>
+      <c r="C439">
+        <v>0.9956901233953405</v>
+      </c>
+      <c r="D439">
+        <v>0.9998017318308831</v>
+      </c>
+      <c r="E439">
+        <v>1.00385356310527</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" s="2">
+        <v>41698</v>
+      </c>
+      <c r="B440">
+        <v>1.002361271318</v>
+      </c>
+      <c r="C440">
+        <v>0.9960112050309727</v>
+      </c>
+      <c r="D440">
+        <v>0.9998636261320671</v>
+      </c>
+      <c r="E440">
+        <v>1.003248780609008</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" s="2">
+        <v>41701</v>
+      </c>
+      <c r="B441">
+        <v>1.002316879049719</v>
+      </c>
+      <c r="C441">
+        <v>0.9956870239979351</v>
+      </c>
+      <c r="D441">
+        <v>1.000119105324224</v>
+      </c>
+      <c r="E441">
+        <v>1.003752888006216</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="2">
+        <v>41702</v>
+      </c>
+      <c r="B442">
+        <v>1.002254333970993</v>
+      </c>
+      <c r="C442">
+        <v>0.9956632184454286</v>
+      </c>
+      <c r="D442">
+        <v>0.9995699830957283</v>
+      </c>
+      <c r="E442">
+        <v>1.003561623019512</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" s="2">
+        <v>41703</v>
+      </c>
+      <c r="B443">
+        <v>1.002202045947248</v>
+      </c>
+      <c r="C443">
+        <v>0.9955883387826474</v>
+      </c>
+      <c r="D443">
+        <v>1.000061850967941</v>
+      </c>
+      <c r="E443">
+        <v>1.003441500562922</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" s="2">
+        <v>41704</v>
+      </c>
+      <c r="B444">
+        <v>1.002165412953742</v>
+      </c>
+      <c r="C444">
+        <v>0.9955821217049725</v>
+      </c>
+      <c r="D444">
+        <v>1.00039315931063</v>
+      </c>
+      <c r="E444">
+        <v>1.003423935112724</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" s="2">
+        <v>41705</v>
+      </c>
+      <c r="B445">
+        <v>1.002140197586507</v>
+      </c>
+      <c r="C445">
+        <v>0.9959467848921932</v>
+      </c>
+      <c r="D445">
+        <v>0.9999209522934189</v>
+      </c>
+      <c r="E445">
+        <v>1.003212421874175</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" s="2">
+        <v>41708</v>
+      </c>
+      <c r="B446">
+        <v>1.002108896798742</v>
+      </c>
+      <c r="C446">
+        <v>0.9961667210596026</v>
+      </c>
+      <c r="D446">
+        <v>0.9998681529068661</v>
+      </c>
+      <c r="E446">
+        <v>1.002952091576166</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" s="2">
+        <v>41709</v>
+      </c>
+      <c r="B447">
+        <v>1.002067737978972</v>
+      </c>
+      <c r="C447">
+        <v>0.9965231942503242</v>
+      </c>
+      <c r="D447">
+        <v>1.000600444859818</v>
+      </c>
+      <c r="E447">
+        <v>1.00282340974898</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" s="2">
+        <v>41710</v>
+      </c>
+      <c r="B448">
+        <v>1.001975548365478</v>
+      </c>
+      <c r="C448">
+        <v>0.9954372012793322</v>
+      </c>
+      <c r="D448">
+        <v>1.000912625276409</v>
+      </c>
+      <c r="E448">
+        <v>1.002846887744911</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" s="2">
+        <v>41711</v>
+      </c>
+      <c r="B449">
+        <v>1.001929643369488</v>
+      </c>
+      <c r="C449">
+        <v>0.9949632398827954</v>
+      </c>
+      <c r="D449">
+        <v>1.001970815655085</v>
+      </c>
+      <c r="E449">
+        <v>1.002900656561985</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" s="2">
+        <v>41712</v>
+      </c>
+      <c r="B450">
+        <v>1.001895699890066</v>
+      </c>
+      <c r="C450">
+        <v>0.9948614783856189</v>
+      </c>
+      <c r="D450">
+        <v>1.001986741066187</v>
+      </c>
+      <c r="E450">
+        <v>1.003218513558038</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" s="2">
+        <v>41715</v>
+      </c>
+      <c r="B451">
+        <v>1.001870004402054</v>
+      </c>
+      <c r="C451">
+        <v>0.9957838424066183</v>
+      </c>
+      <c r="D451">
+        <v>1.001325850308438</v>
+      </c>
+      <c r="E451">
+        <v>1.00285275389803</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" s="2">
+        <v>41716</v>
+      </c>
+      <c r="B452">
+        <v>1.001806363242155</v>
+      </c>
+      <c r="C452">
+        <v>0.9954926922552367</v>
+      </c>
+      <c r="D452">
+        <v>1.000404060820692</v>
+      </c>
+      <c r="E452">
+        <v>1.002648103995597</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" s="2">
+        <v>41717</v>
+      </c>
+      <c r="B453">
+        <v>1.001795665371244</v>
+      </c>
+      <c r="C453">
+        <v>0.9963850453712993</v>
+      </c>
+      <c r="D453">
+        <v>1.000010171527685</v>
+      </c>
+      <c r="E453">
+        <v>1.003046447544138</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" s="2">
+        <v>41718</v>
+      </c>
+      <c r="B454">
+        <v>1.001751307468159</v>
+      </c>
+      <c r="C454">
+        <v>0.9963514773677193</v>
+      </c>
+      <c r="D454">
+        <v>0.9999218562983376</v>
+      </c>
+      <c r="E454">
+        <v>1.002881503418323</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="2">
+        <v>41719</v>
+      </c>
+      <c r="B455">
+        <v>1.001711158421706</v>
+      </c>
+      <c r="C455">
+        <v>0.9962798977623316</v>
+      </c>
+      <c r="D455">
+        <v>0.9999647301245563</v>
+      </c>
+      <c r="E455">
+        <v>1.002453045167104</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" s="2">
+        <v>41722</v>
+      </c>
+      <c r="B456">
+        <v>1.001722393617397</v>
+      </c>
+      <c r="C456">
+        <v>0.9976625059303469</v>
+      </c>
+      <c r="D456">
+        <v>0.9995897378338029</v>
+      </c>
+      <c r="E456">
+        <v>1.002692076416533</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="2">
+        <v>41723</v>
+      </c>
+      <c r="B457">
+        <v>1.001664873205009</v>
+      </c>
+      <c r="C457">
+        <v>0.9975304897874381</v>
+      </c>
+      <c r="D457">
+        <v>0.9994818992521656</v>
+      </c>
+      <c r="E457">
+        <v>1.002603937218931</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" s="2">
+        <v>41724</v>
+      </c>
+      <c r="B458">
+        <v>1.001681565257105</v>
+      </c>
+      <c r="C458">
+        <v>0.9990028482547564</v>
+      </c>
+      <c r="D458">
+        <v>0.9996181231372265</v>
+      </c>
+      <c r="E458">
+        <v>1.002385351675876</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" s="2">
+        <v>41725</v>
+      </c>
+      <c r="B459">
+        <v>1.001647455205349</v>
+      </c>
+      <c r="C459">
+        <v>0.9989600051686505</v>
+      </c>
+      <c r="D459">
+        <v>0.9997720909070023</v>
+      </c>
+      <c r="E459">
+        <v>1.002206959844733</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" s="2">
+        <v>41726</v>
+      </c>
+      <c r="B460">
+        <v>1.001579486556226</v>
+      </c>
+      <c r="C460">
+        <v>0.9982109388371242</v>
+      </c>
+      <c r="D460">
+        <v>0.9998455919210893</v>
+      </c>
+      <c r="E460">
+        <v>1.001469240545677</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461" s="2">
+        <v>41729</v>
+      </c>
+      <c r="B461">
+        <v>1.001547280963835</v>
+      </c>
+      <c r="C461">
+        <v>0.9987482263076486</v>
+      </c>
+      <c r="D461">
+        <v>0.9992407780604537</v>
+      </c>
+      <c r="E461">
+        <v>1.00084554110231</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B462">
+        <v>1.001487512353883</v>
+      </c>
+      <c r="C462">
+        <v>0.9987223231792902</v>
+      </c>
+      <c r="D462">
+        <v>0.9990487595353611</v>
+      </c>
+      <c r="E462">
+        <v>1.000791084616959</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" s="2">
+        <v>41731</v>
+      </c>
+      <c r="B463">
+        <v>1.001428999733905</v>
+      </c>
+      <c r="C463">
+        <v>0.9981008269787204</v>
+      </c>
+      <c r="D463">
+        <v>0.9990065444846301</v>
+      </c>
+      <c r="E463">
+        <v>1.000887002802479</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" s="2">
+        <v>41732</v>
+      </c>
+      <c r="B464">
+        <v>1.001421618432559</v>
+      </c>
+      <c r="C464">
+        <v>0.9984217033925455</v>
+      </c>
+      <c r="D464">
+        <v>0.9992675196327879</v>
+      </c>
+      <c r="E464">
+        <v>1.001002688402495</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" s="2">
+        <v>41733</v>
+      </c>
+      <c r="B465">
+        <v>1.001385142019565</v>
+      </c>
+      <c r="C465">
+        <v>0.9982788244527028</v>
+      </c>
+      <c r="D465">
+        <v>0.999780269753948</v>
+      </c>
+      <c r="E465">
+        <v>1.000800965330062</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" s="2">
+        <v>41736</v>
+      </c>
+      <c r="B466">
+        <v>1.001367687988014</v>
+      </c>
+      <c r="C466">
+        <v>0.9987104938284574</v>
+      </c>
+      <c r="D466">
+        <v>1.000531646280785</v>
+      </c>
+      <c r="E466">
+        <v>1.000855250337049</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" s="2">
+        <v>41737</v>
+      </c>
+      <c r="B467">
+        <v>1.001320822408343</v>
+      </c>
+      <c r="C467">
+        <v>0.9981571690316753</v>
+      </c>
+      <c r="D467">
+        <v>1.000370539952664</v>
+      </c>
+      <c r="E467">
+        <v>1.00088429172846</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" s="2">
+        <v>41738</v>
+      </c>
+      <c r="B468">
+        <v>1.001252395855381</v>
+      </c>
+      <c r="C468">
+        <v>0.9979791985806526</v>
+      </c>
+      <c r="D468">
+        <v>1.000067218375977</v>
+      </c>
+      <c r="E468">
+        <v>1.000711150341201</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" s="2">
+        <v>41739</v>
+      </c>
+      <c r="B469">
+        <v>1.001250598047152</v>
+      </c>
+      <c r="C469">
+        <v>0.9984455219771846</v>
+      </c>
+      <c r="D469">
+        <v>1.000831253814032</v>
+      </c>
+      <c r="E469">
+        <v>1.000594607133978</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" s="2">
+        <v>41740</v>
+      </c>
+      <c r="B470">
+        <v>1.001228654384896</v>
+      </c>
+      <c r="C470">
+        <v>0.9987888089423927</v>
+      </c>
+      <c r="D470">
+        <v>1.001199282896105</v>
+      </c>
+      <c r="E470">
+        <v>1.000237857214496</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471" s="2">
+        <v>41743</v>
+      </c>
+      <c r="B471">
+        <v>1.001161891539541</v>
+      </c>
+      <c r="C471">
+        <v>0.9982997955016674</v>
+      </c>
+      <c r="D471">
+        <v>1.001237305192004</v>
+      </c>
+      <c r="E471">
+        <v>1.000011403368761</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" s="2">
+        <v>41744</v>
+      </c>
+      <c r="B472">
+        <v>1.001130930999066</v>
+      </c>
+      <c r="C472">
+        <v>0.9988694886434155</v>
+      </c>
+      <c r="D472">
+        <v>1.00072207350623</v>
+      </c>
+      <c r="E472">
+        <v>1.000033272487081</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" s="2">
+        <v>41745</v>
+      </c>
+      <c r="B473">
+        <v>1.001093064928451</v>
+      </c>
+      <c r="C473">
+        <v>0.9989381471522767</v>
+      </c>
+      <c r="D473">
+        <v>0.9999271241587269</v>
+      </c>
+      <c r="E473">
+        <v>0.9996332681307105</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" s="2">
+        <v>41746</v>
+      </c>
+      <c r="B474">
+        <v>1.001062268627651</v>
+      </c>
+      <c r="C474">
+        <v>0.998986134843833</v>
+      </c>
+      <c r="D474">
+        <v>0.9997226424918743</v>
+      </c>
+      <c r="E474">
+        <v>0.9995592880203409</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" s="2">
+        <v>41750</v>
+      </c>
+      <c r="B475">
+        <v>1.001019043166012</v>
+      </c>
+      <c r="C475">
+        <v>0.9993686902681493</v>
+      </c>
+      <c r="D475">
+        <v>0.9996300486050866</v>
+      </c>
+      <c r="E475">
+        <v>0.9996072128411538</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" s="2">
+        <v>41751</v>
+      </c>
+      <c r="B476">
+        <v>1.000948890174199</v>
+      </c>
+      <c r="C476">
+        <v>0.9987341672698303</v>
+      </c>
+      <c r="D476">
+        <v>0.9994150906822251</v>
+      </c>
+      <c r="E476">
+        <v>0.9997906762876682</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" s="2">
+        <v>41752</v>
+      </c>
+      <c r="B477">
+        <v>1.000907452410904</v>
+      </c>
+      <c r="C477">
+        <v>0.9983136879272591</v>
+      </c>
+      <c r="D477">
+        <v>0.9997323754776497</v>
+      </c>
+      <c r="E477">
+        <v>0.9999151551473173</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="A478" s="2">
+        <v>41753</v>
+      </c>
+      <c r="B478">
+        <v>1.000854487089399</v>
+      </c>
+      <c r="C478">
+        <v>0.9986319019504382</v>
+      </c>
+      <c r="D478">
+        <v>0.9993693013728603</v>
+      </c>
+      <c r="E478">
+        <v>0.9998076652633331</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" s="2">
+        <v>41754</v>
+      </c>
+      <c r="B479">
+        <v>1.000792602652614</v>
+      </c>
+      <c r="C479">
+        <v>0.9982465346057845</v>
+      </c>
+      <c r="D479">
+        <v>0.9999632311575076</v>
+      </c>
+      <c r="E479">
+        <v>0.9999315273721612</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" s="2">
+        <v>41757</v>
+      </c>
+      <c r="B480">
+        <v>1.000766495638076</v>
+      </c>
+      <c r="C480">
+        <v>0.9987761282263723</v>
+      </c>
+      <c r="D480">
+        <v>0.9998512649919866</v>
+      </c>
+      <c r="E480">
+        <v>1.000210636053587</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" s="2">
+        <v>41758</v>
+      </c>
+      <c r="B481">
+        <v>1.000712721602018</v>
+      </c>
+      <c r="C481">
+        <v>0.9982402450626092</v>
+      </c>
+      <c r="D481">
+        <v>0.9999263768623011</v>
+      </c>
+      <c r="E481">
+        <v>1.000291100093428</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" s="2">
+        <v>41759</v>
+      </c>
+      <c r="B482">
+        <v>1.000661675345987</v>
+      </c>
+      <c r="C482">
+        <v>0.998349367583982</v>
+      </c>
+      <c r="D482">
+        <v>0.999481080478589</v>
+      </c>
+      <c r="E482">
+        <v>1.000101750620116</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" s="2">
+        <v>41760</v>
+      </c>
+      <c r="B483">
+        <v>1.00056577685231</v>
+      </c>
+      <c r="C483">
+        <v>0.9984684368527627</v>
+      </c>
+      <c r="D483">
+        <v>0.9989040216912537</v>
+      </c>
+      <c r="E483">
+        <v>1.000492002170677</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" s="2">
+        <v>41761</v>
+      </c>
+      <c r="B484">
+        <v>1.00049073975786</v>
+      </c>
+      <c r="C484">
+        <v>0.9974561218490178</v>
+      </c>
+      <c r="D484">
+        <v>0.9987523833034553</v>
+      </c>
+      <c r="E484">
+        <v>1.000607466808398</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" s="2">
+        <v>41764</v>
+      </c>
+      <c r="B485">
+        <v>1.000475307095173</v>
+      </c>
+      <c r="C485">
+        <v>0.9978905432355751</v>
+      </c>
+      <c r="D485">
+        <v>0.9993705645969547</v>
+      </c>
+      <c r="E485">
+        <v>1.000452619739618</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" s="2">
+        <v>41765</v>
+      </c>
+      <c r="B486">
+        <v>1.000461781275676</v>
+      </c>
+      <c r="C486">
+        <v>0.9982615874373617</v>
+      </c>
+      <c r="D486">
+        <v>1.000076334295507</v>
+      </c>
+      <c r="E486">
+        <v>1.000285217290397</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" s="2">
+        <v>41766</v>
+      </c>
+      <c r="B487">
+        <v>1.000467508252169</v>
+      </c>
+      <c r="C487">
+        <v>0.9987555244559692</v>
+      </c>
+      <c r="D487">
+        <v>0.9998482237686307</v>
+      </c>
+      <c r="E487">
+        <v>0.9996926500540267</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" s="2">
+        <v>41767</v>
+      </c>
+      <c r="B488">
+        <v>1.00042607193265</v>
+      </c>
+      <c r="C488">
+        <v>0.9991373981052809</v>
+      </c>
+      <c r="D488">
+        <v>1.000497982666793</v>
+      </c>
+      <c r="E488">
+        <v>0.9999311734940609</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="A489" s="2">
+        <v>41768</v>
+      </c>
+      <c r="B489">
+        <v>1.00035452245063</v>
+      </c>
+      <c r="C489">
+        <v>0.998979803958842</v>
+      </c>
+      <c r="D489">
+        <v>1.000567963523872</v>
+      </c>
+      <c r="E489">
+        <v>0.9999870887800674</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" s="2">
+        <v>41771</v>
+      </c>
+      <c r="B490">
+        <v>1.000277148937112</v>
+      </c>
+      <c r="C490">
+        <v>0.9982574523623088</v>
+      </c>
+      <c r="D490">
+        <v>0.9997753699539356</v>
+      </c>
+      <c r="E490">
+        <v>0.9998842571638248</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" s="2">
+        <v>41772</v>
+      </c>
+      <c r="B491">
+        <v>1.000236886027845</v>
+      </c>
+      <c r="C491">
+        <v>0.9983638410058948</v>
+      </c>
+      <c r="D491">
+        <v>0.9995368983022052</v>
+      </c>
+      <c r="E491">
+        <v>0.9998437901649005</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" s="2">
+        <v>41773</v>
+      </c>
+      <c r="B492">
+        <v>1.000182803985262</v>
+      </c>
+      <c r="C492">
+        <v>0.9979439773159404</v>
+      </c>
+      <c r="D492">
+        <v>0.9999072840618817</v>
+      </c>
+      <c r="E492">
+        <v>0.999759410853658</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="A493" s="2">
+        <v>41774</v>
+      </c>
+      <c r="B493">
+        <v>1.00016882849488</v>
+      </c>
+      <c r="C493">
+        <v>0.9986960523622856</v>
+      </c>
+      <c r="D493">
+        <v>1.000327872953895</v>
+      </c>
+      <c r="E493">
+        <v>0.9999806982069297</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="A494" s="2">
+        <v>41775</v>
+      </c>
+      <c r="B494">
+        <v>1.000135582485624</v>
+      </c>
+      <c r="C494">
+        <v>0.9991835075310898</v>
+      </c>
+      <c r="D494">
+        <v>1.000521011600318</v>
+      </c>
+      <c r="E494">
+        <v>0.9998916567052509</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495" s="2">
+        <v>41778</v>
+      </c>
+      <c r="B495">
+        <v>1.000091319193867</v>
+      </c>
+      <c r="C495">
+        <v>0.9991813142311508</v>
+      </c>
+      <c r="D495">
+        <v>1.000583659413855</v>
+      </c>
+      <c r="E495">
+        <v>0.9999111651875441</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" s="2">
+        <v>41779</v>
+      </c>
+      <c r="B496">
+        <v>1.000046897269024</v>
+      </c>
+      <c r="C496">
+        <v>0.9990015200444045</v>
+      </c>
+      <c r="D496">
+        <v>1.000706987584383</v>
+      </c>
+      <c r="E496">
+        <v>0.9999798735858629</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" s="2">
+        <v>41780</v>
+      </c>
+      <c r="B497">
+        <v>0.999981201464618</v>
+      </c>
+      <c r="C497">
+        <v>0.9986020543801584</v>
+      </c>
+      <c r="D497">
+        <v>1.000127114953755</v>
+      </c>
+      <c r="E497">
+        <v>0.9998677308233859</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" s="2">
+        <v>41781</v>
+      </c>
+      <c r="B498">
+        <v>0.9999147293980306</v>
+      </c>
+      <c r="C498">
+        <v>0.9984843222911418</v>
+      </c>
+      <c r="D498">
+        <v>1.000206937115822</v>
+      </c>
+      <c r="E498">
+        <v>0.9997870284442344</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" s="2">
+        <v>41782</v>
+      </c>
+      <c r="B499">
+        <v>0.999871071118561</v>
+      </c>
+      <c r="C499">
+        <v>0.9987186494623763</v>
+      </c>
+      <c r="D499">
+        <v>1.000141767588489</v>
+      </c>
+      <c r="E499">
+        <v>0.9997202597015105</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" s="2">
+        <v>41785</v>
+      </c>
+      <c r="B500">
+        <v>0.999826947417069</v>
+      </c>
+      <c r="C500">
+        <v>0.9987679426113472</v>
+      </c>
+      <c r="D500">
+        <v>1.000010910518384</v>
+      </c>
+      <c r="E500">
+        <v>0.9998218173080596</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" s="2">
+        <v>41786</v>
+      </c>
+      <c r="B501">
+        <v>0.999806467123784</v>
+      </c>
+      <c r="C501">
+        <v>0.9998535438758632</v>
+      </c>
+      <c r="D501">
+        <v>0.9998027343531625</v>
+      </c>
+      <c r="E501">
+        <v>0.9997369102312175</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502" s="2">
+        <v>41787</v>
+      </c>
+      <c r="B502">
+        <v>0.9997992839011448</v>
+      </c>
+      <c r="C502">
+        <v>1.0004989297206</v>
+      </c>
+      <c r="D502">
+        <v>0.9999904264151326</v>
+      </c>
+      <c r="E502">
+        <v>0.9998309035895679</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503" s="2">
+        <v>41788</v>
+      </c>
+      <c r="B503">
+        <v>0.9997535430743982</v>
+      </c>
+      <c r="C503">
+        <v>1.000368772522822</v>
+      </c>
+      <c r="D503">
+        <v>0.999937014477674</v>
+      </c>
+      <c r="E503">
+        <v>1.000474283998993</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504" s="2">
+        <v>41789</v>
+      </c>
+      <c r="B504">
+        <v>0.9997061640481373</v>
+      </c>
+      <c r="C504">
+        <v>1.000061496156861</v>
+      </c>
+      <c r="D504">
+        <v>1.000217113294121</v>
+      </c>
+      <c r="E504">
+        <v>1.000389121651099</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" s="2">
         <v>41792</v>
       </c>
-      <c r="B253">
-        <v>0.9999159054301596</v>
-      </c>
-      <c r="C253">
-        <v>0.9999699497264327</v>
-      </c>
-      <c r="D253">
-        <v>0.9999826505960453</v>
-      </c>
-      <c r="E253">
-        <v>0.999989129165927</v>
+      <c r="B505">
+        <v>0.9996567102695224</v>
+      </c>
+      <c r="C505">
+        <v>0.9998488800069532</v>
+      </c>
+      <c r="D505">
+        <v>0.9999357043655506</v>
+      </c>
+      <c r="E505">
+        <v>0.9999599355444742</v>
       </c>
     </row>
   </sheetData>
